--- a/Jon_Updates/population_data.xlsx
+++ b/Jon_Updates/population_data.xlsx
@@ -53,2564 +53,5114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E300"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.37890625" customWidth="true"/>
     <col min="3" max="3" width="3.15625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B1" s="0">
-        <v>0.38879873478833948</v>
+        <v>-0.61139611361812118</v>
       </c>
       <c r="C1" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0">
-        <v>5.9099303737320081</v>
+        <v>4.2628371141311305</v>
       </c>
       <c r="E1" s="0">
-        <v>0.0077713994275276001</v>
+        <v>0.77068396841209497</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B2" s="0">
-        <v>0.4515159746363937</v>
+        <v>1.1567611939381872</v>
       </c>
       <c r="C2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>8.0762472262973315</v>
+        <v>6.7299209707847716</v>
       </c>
       <c r="E2" s="0">
-        <v>2.0528065278674621</v>
+        <v>44.577046491679262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B3" s="0">
-        <v>0.4515159746363937</v>
+        <v>0.99207076546671191</v>
       </c>
       <c r="C3" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0">
-        <v>8.0762472262973315</v>
+        <v>5.5803965375431162</v>
       </c>
       <c r="E3" s="0">
-        <v>2.0528065278674621</v>
+        <v>-0.041928191238124662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B4" s="0">
-        <v>0.4515159746363937</v>
+        <v>-0.2353501685599857</v>
       </c>
       <c r="C4" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0">
-        <v>8.0762472262973315</v>
+        <v>7.4919395131134525</v>
       </c>
       <c r="E4" s="0">
-        <v>2.0528065278674621</v>
+        <v>-0.031230355344051924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B5" s="0">
-        <v>1.4388052318933866</v>
+        <v>-0.15106845625456156</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0">
-        <v>7.9425636009670368</v>
+        <v>5.7692319505616307</v>
       </c>
       <c r="E5" s="0">
-        <v>18.885590035657621</v>
+        <v>0.020366636584787351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B6" s="0">
-        <v>1.4388052318933866</v>
+        <v>0.88882932588229024</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>7.9425636009670368</v>
+        <v>8.46133301287494</v>
       </c>
       <c r="E6" s="0">
-        <v>18.885590035657621</v>
+        <v>3.7105406776183005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B7" s="0">
-        <v>1.4388052318933866</v>
+        <v>0.6308293037795536</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0">
-        <v>7.9425636009670368</v>
+        <v>6.5685717515379896</v>
       </c>
       <c r="E7" s="0">
-        <v>18.885590035657621</v>
+        <v>0.017888188628360609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.375160840084939</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B8" s="0">
-        <v>0.7436126615868921</v>
+        <v>0.068467823732031807</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0">
-        <v>7.7993700266408688</v>
+        <v>8.6825841528403185</v>
       </c>
       <c r="E8" s="0">
-        <v>19.232322544979173</v>
+        <v>0.37837816092323479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B9" s="0">
-        <v>0.56411700615801863</v>
+        <v>0.45922277454501459</v>
       </c>
       <c r="C9" s="0">
         <v>3</v>
       </c>
       <c r="D9" s="0">
-        <v>4.9532003108203551</v>
+        <v>8.8198123285099967</v>
       </c>
       <c r="E9" s="0">
-        <v>0.36396802364911407</v>
+        <v>0.37249094441536207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B10" s="0">
-        <v>1.6383269413390613</v>
+        <v>0.45922277454501459</v>
       </c>
       <c r="C10" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>3.7208684427034768</v>
+        <v>8.8198123285099967</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.10060412620110723</v>
+        <v>0.37249094441536207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B11" s="0">
-        <v>1.9140762691880804</v>
+        <v>0.094432376626632758</v>
       </c>
       <c r="C11" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0">
-        <v>1.7260889282935903</v>
+        <v>7.2088426259431078</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.313739243429628</v>
+        <v>0.016299405689281572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.375160840084939</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B12" s="0">
-        <v>1.265595267388349</v>
+        <v>0.19382129300658554</v>
       </c>
       <c r="C12" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0">
-        <v>2.8325725476260288</v>
+        <v>7.3327109812547766</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.11900531237116142</v>
+        <v>0.016024066789323527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B13" s="0">
-        <v>1.8972499768532964</v>
+        <v>0.23654472260431658</v>
       </c>
       <c r="C13" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>2.6061240539573456</v>
+        <v>9.4168029651415583</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.21555917191001267</v>
+        <v>31.85794596218253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B14" s="0">
-        <v>2.4733393618308823</v>
+        <v>-0.60748285671886726</v>
       </c>
       <c r="C14" s="0">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D14" s="0">
-        <v>1.7078004679962522</v>
+        <v>4.855065237671913</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.33870080829845728</v>
+        <v>-0.048192129612427609</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B15" s="0">
-        <v>2.6065651441509745</v>
+        <v>-0.60639226408735802</v>
       </c>
       <c r="C15" s="0">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0">
-        <v>1.7507743101065447</v>
+        <v>6.2319897380950735</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.33881236138270693</v>
+        <v>-0.0484730360462663</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B16" s="0">
-        <v>0.70530889477736702</v>
+        <v>0.63337604662172353</v>
       </c>
       <c r="C16" s="0">
         <v>5</v>
       </c>
       <c r="D16" s="0">
-        <v>4.8496179134397135</v>
+        <v>7.65125495310172</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.049947976293387132</v>
+        <v>-0.030580072765164577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B17" s="0">
-        <v>0.4515159746363937</v>
+        <v>0.23223535752863575</v>
       </c>
       <c r="C17" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0">
-        <v>8.0762472262973315</v>
+        <v>6.6239951559782382</v>
       </c>
       <c r="E17" s="0">
-        <v>2.0528065278674621</v>
+        <v>-0.050938075463916176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B18" s="0">
-        <v>0.87015487805693548</v>
+        <v>0.88634907098940185</v>
       </c>
       <c r="C18" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0">
-        <v>3.4302184752554625</v>
+        <v>8.0864160958336484</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.10359469174727973</v>
+        <v>37.099253420136087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.25750860419278265</v>
       </c>
       <c r="B19" s="0">
-        <v>1.8421480118221241</v>
+        <v>0.46989459506347481</v>
       </c>
       <c r="C19" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D19" s="0">
-        <v>1.8348757705244172</v>
+        <v>8.1634852982326453</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.30831828584980497</v>
+        <v>-0.028661279424528532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B20" s="0">
-        <v>2.4096826077488371</v>
+        <v>1.0441156934857072</v>
       </c>
       <c r="C20" s="0">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0">
-        <v>1.7260889282935903</v>
+        <v>4.9934314577674836</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.313739243429628</v>
+        <v>-0.072437356827255592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B21" s="0">
-        <v>0.82292531729261287</v>
+        <v>0.37051526971006504</v>
       </c>
       <c r="C21" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0">
-        <v>5.5814663979676862</v>
+        <v>3.2251743054981339</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0082287388740479184</v>
+        <v>-0.23168586584360087</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B22" s="0">
-        <v>1.656928797512343</v>
+        <v>-0.59717024707290978</v>
       </c>
       <c r="C22" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0">
-        <v>3.3674968812938086</v>
+        <v>3.2151134646016986</v>
       </c>
       <c r="E22" s="0">
-        <v>0.013638744486528813</v>
+        <v>-0.11171097629874627</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B23" s="0">
-        <v>2.1039879898846148</v>
+        <v>-0.55830783651436577</v>
       </c>
       <c r="C23" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" s="0">
-        <v>1.8350289168846428</v>
+        <v>3.5305915330709876</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.31572575231542843</v>
+        <v>-0.11679574220854225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.41832409986898678</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B24" s="0">
-        <v>1.2679500248660023</v>
+        <v>0.26708535630111857</v>
       </c>
       <c r="C24" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0">
-        <v>4.4895726238191571</v>
+        <v>7.516791278422458</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.083378697651853906</v>
+        <v>-0.048120396443235847</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2943079648038713</v>
+        <v>0.93938612965853929</v>
       </c>
       <c r="C25" s="0">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D25" s="0">
-        <v>1.774920654774867</v>
+        <v>6.28535692120506</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.26229858256343563</v>
+        <v>-0.048061465244001962</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B26" s="0">
-        <v>2.0400633716602852</v>
+        <v>-0.59618620394262101</v>
       </c>
       <c r="C26" s="0">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0">
-        <v>1.7298180977846036</v>
+        <v>4.1709140114888195</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.34135450618682089</v>
+        <v>-0.086722232897252297</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.02188746197960012</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B27" s="0">
-        <v>1.8462028755389552</v>
+        <v>0.16527403377798575</v>
       </c>
       <c r="C27" s="0">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0">
-        <v>3.6320573244847973</v>
+        <v>4.6307553945642264</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.10306409974973531</v>
+        <v>-0.092755561274805304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.375160840084939</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B28" s="0">
-        <v>1.3989640672281412</v>
+        <v>0.72221816180072773</v>
       </c>
       <c r="C28" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0">
-        <v>3.259586811132194</v>
+        <v>6.8575460667601158</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.12962128691910435</v>
+        <v>-0.049208614402823828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B29" s="0">
-        <v>1.1007871390299235</v>
+        <v>-0.59900796949378088</v>
       </c>
       <c r="C29" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0">
-        <v>2.1260613474098826</v>
+        <v>3.221509079331498</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.20349626917972857</v>
+        <v>-0.10916346404190036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.375160840084939</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B30" s="0">
-        <v>1.2656752589252025</v>
+        <v>1.2108404900813878</v>
       </c>
       <c r="C30" s="0">
         <v>7</v>
       </c>
       <c r="D30" s="0">
-        <v>3.567222891223595</v>
+        <v>4.0563137529739866</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.11081344736286854</v>
+        <v>-0.077207791973315745</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B31" s="0">
-        <v>0.79327557521873149</v>
+        <v>-0.59507690887519538</v>
       </c>
       <c r="C31" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D31" s="0">
-        <v>3.89194526210518</v>
+        <v>3.8568176332562314</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.10156778666368167</v>
+        <v>-0.087450340148799724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89547619309777504</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B32" s="0">
-        <v>0.77920330343831579</v>
+        <v>0.4638943251249838</v>
       </c>
       <c r="C32" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D32" s="0">
-        <v>4.0394249130022528</v>
+        <v>6.8228888631010127</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.092670299968328471</v>
+        <v>0.017221422313631055</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B33" s="0">
-        <v>2.6515502739058201</v>
+        <v>0.21236747386301277</v>
       </c>
       <c r="C33" s="0">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D33" s="0">
-        <v>1.7526338390189289</v>
+        <v>7.5477780903921339</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.33595857176437166</v>
+        <v>-0.041492877064943555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B34" s="0">
-        <v>1.7425392848552919</v>
+        <v>0.27199813778309101</v>
       </c>
       <c r="C34" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" s="0">
-        <v>2.3822654077223122</v>
+        <v>6.6217118512639805</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.16326176717916557</v>
+        <v>-0.050955639977512429</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B35" s="0">
-        <v>1.8338754438361993</v>
+        <v>0.11672169950325963</v>
       </c>
       <c r="C35" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35" s="0">
-        <v>2.3942619102829754</v>
+        <v>7.1807052173224415</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.27355419786589935</v>
+        <v>-0.050017853841913609</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2146349942732204</v>
+        <v>0.18812532022490189</v>
       </c>
       <c r="C36" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D36" s="0">
-        <v>1.7907791797438017</v>
+        <v>2.2680860352907599</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.31177394296581057</v>
+        <v>-0.2044528029800996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B37" s="0">
-        <v>1.7036012682430544</v>
+        <v>0.61698462592511749</v>
       </c>
       <c r="C37" s="0">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D37" s="0">
-        <v>2.8265182746358422</v>
+        <v>8.880750811393689</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.12572090149167559</v>
+        <v>3.5353002238129423</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.57047325996529508</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B38" s="0">
-        <v>1.4314168999803576</v>
+        <v>-0.21786718918637185</v>
       </c>
       <c r="C38" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D38" s="0">
-        <v>3.0867200869967943</v>
+        <v>6.2045263155265955</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.13464212282849655</v>
+        <v>-0.05047589654578407</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B39" s="0">
-        <v>1.0209231067415527</v>
+        <v>0.29039222973882689</v>
       </c>
       <c r="C39" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" s="0">
-        <v>2.718149986448485</v>
+        <v>6.4374534352998403</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.1528990479416602</v>
+        <v>-0.052458557478226954</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B40" s="0">
-        <v>0.70603637684825438</v>
+        <v>0.23875661511830298</v>
       </c>
       <c r="C40" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" s="0">
-        <v>3.7667517113235154</v>
+        <v>7.3223423413472881</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.099378654893058707</v>
+        <v>-0.046085026405185789</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B41" s="0">
-        <v>2.5953333637114602</v>
+        <v>0.62556553341664878</v>
       </c>
       <c r="C41" s="0">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D41" s="0">
-        <v>1.7299543442550807</v>
+        <v>8.3450138882394533</v>
       </c>
       <c r="E41" s="0">
-        <v>-0.34318397825537811</v>
+        <v>0.39368421284988919</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B42" s="0">
-        <v>0.52786560293644524</v>
+        <v>-0.54289442538245247</v>
       </c>
       <c r="C42" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" s="0">
-        <v>4.047176415498468</v>
+        <v>2.9733958481126965</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.059851258187033698</v>
+        <v>-0.12507994878614104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B43" s="0">
-        <v>1.1851869913877544</v>
+        <v>0.23451402964598966</v>
       </c>
       <c r="C43" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D43" s="0">
-        <v>2.9823348952172939</v>
+        <v>7.3152638911069356</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.14167149301745677</v>
+        <v>-0.046106335867141135</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>0.25750860419278265</v>
       </c>
       <c r="B44" s="0">
-        <v>2.1046808930931435</v>
+        <v>0.45087530481040627</v>
       </c>
       <c r="C44" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>1.8348757705244172</v>
+        <v>9.4798350275098606</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.30831828584980497</v>
+        <v>31.646120331147078</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B45" s="0">
-        <v>1.6282049476884475</v>
+        <v>0.33973590768599804</v>
       </c>
       <c r="C45" s="0">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D45" s="0">
-        <v>3.3518004622130952</v>
+        <v>2.2729582657617584</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.11793550079864332</v>
+        <v>-0.20401454540556957</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B46" s="0">
-        <v>1.7878458896236582</v>
+        <v>-0.21940995599820923</v>
       </c>
       <c r="C46" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="0">
-        <v>3.1792911200907215</v>
+        <v>7.4959502823094324</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.12433471838745794</v>
+        <v>-0.040299555338242594</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2630219863482979</v>
+        <v>-0.6071025455230068</v>
       </c>
       <c r="C47" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D47" s="0">
-        <v>2.7519821539212632</v>
+        <v>6.2066208226849948</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.20413429722476445</v>
+        <v>-0.048671164526522884</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B48" s="0">
-        <v>0.7638118780586628</v>
+        <v>1.2219957866934936</v>
       </c>
       <c r="C48" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" s="0">
-        <v>2.5513607719755504</v>
+        <v>4.5361091853985522</v>
       </c>
       <c r="E48" s="0">
-        <v>-0.16560254509060995</v>
+        <v>-0.074354474315968644</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B49" s="0">
-        <v>0.98387134210656502</v>
+        <v>-0.031827472844831062</v>
       </c>
       <c r="C49" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D49" s="0">
-        <v>3.0323502608060791</v>
+        <v>4.0837231941896714</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.1282611924425747</v>
+        <v>-0.088992440056803637</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B50" s="0">
-        <v>1.6939673708355776</v>
+        <v>0.48502809412024034</v>
       </c>
       <c r="C50" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="0">
-        <v>2.7813218080688191</v>
+        <v>7.531015028821586</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.087091180844212066</v>
+        <v>-0.040111918786319652</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.89547619309777504</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B51" s="0">
-        <v>0.74569018663016529</v>
+        <v>1.0501778432425288</v>
       </c>
       <c r="C51" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D51" s="0">
-        <v>3.7686470902291092</v>
+        <v>4.8048105710050111</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.10489076228790478</v>
+        <v>-0.070224113966944321</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B52" s="0">
-        <v>1.9358187914997034</v>
+        <v>0.16872389189254069</v>
       </c>
       <c r="C52" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D52" s="0">
-        <v>2.2545285383251334</v>
+        <v>6.4703729450985072</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.17251183728349451</v>
+        <v>-0.063730184030982948</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B53" s="0">
-        <v>1.8285209181402158</v>
+        <v>0.22844964488359176</v>
       </c>
       <c r="C53" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D53" s="0">
-        <v>2.3667351587469159</v>
+        <v>7.5447546925413267</v>
       </c>
       <c r="E53" s="0">
-        <v>-0.20150502443453105</v>
+        <v>-0.047942045969543629</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B54" s="0">
-        <v>1.0437049547365242</v>
+        <v>1.1978518768862318</v>
       </c>
       <c r="C54" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D54" s="0">
-        <v>3.0345087452067632</v>
+        <v>4.4923267150347623</v>
       </c>
       <c r="E54" s="0">
-        <v>-0.1281699586362666</v>
+        <v>-0.052083463214644202</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B55" s="0">
-        <v>2.4435281522462158</v>
+        <v>0.32678260179541702</v>
       </c>
       <c r="C55" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D55" s="0">
-        <v>1.7164491957229766</v>
+        <v>6.5356544812607806</v>
       </c>
       <c r="E55" s="0">
-        <v>-0.3284333989228142</v>
+        <v>-0.063093613611696589</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B56" s="0">
-        <v>2.0276244963524483</v>
+        <v>-0.57004111988514283</v>
       </c>
       <c r="C56" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="0">
-        <v>2.24958313989521</v>
+        <v>3.2547520401447052</v>
       </c>
       <c r="E56" s="0">
-        <v>-0.19232254392931278</v>
+        <v>-0.11298270399664852</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B57" s="0">
-        <v>1.4829433255170825</v>
+        <v>0.58129663952982091</v>
       </c>
       <c r="C57" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D57" s="0">
-        <v>2.1742020252326721</v>
+        <v>1.9717546516953002</v>
       </c>
       <c r="E57" s="0">
-        <v>7.6253139470976485</v>
+        <v>-0.54284515618071216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B58" s="0">
-        <v>1.4363986117493264</v>
+        <v>0.11653819690587974</v>
       </c>
       <c r="C58" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D58" s="0">
-        <v>5.8279457662941203</v>
+        <v>7.5547791102150992</v>
       </c>
       <c r="E58" s="0">
-        <v>0.3093382471563102</v>
+        <v>-0.046549486809846219</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.02188746197960012</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B59" s="0">
-        <v>1.2458182239514224</v>
+        <v>1.1906806453647873</v>
       </c>
       <c r="C59" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" s="0">
-        <v>8.4623898604083045</v>
+        <v>4.9255940781347709</v>
       </c>
       <c r="E59" s="0">
-        <v>17.725489190917823</v>
+        <v>0.6669855801550385</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.375160840084939</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B60" s="0">
-        <v>1.7233321608079888</v>
+        <v>0.4300008539323702</v>
       </c>
       <c r="C60" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D60" s="0">
-        <v>1.9885495905074579</v>
+        <v>2.2262261558742864</v>
       </c>
       <c r="E60" s="0">
-        <v>-0.32936588530396965</v>
+        <v>-0.34525957647083166</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B61" s="0">
-        <v>2.3446359967487638</v>
+        <v>0.68988393936481696</v>
       </c>
       <c r="C61" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D61" s="0">
-        <v>1.7572043597823845</v>
+        <v>5.8290392510707072</v>
       </c>
       <c r="E61" s="0">
-        <v>-0.29154183445508847</v>
+        <v>-0.070742028107715516</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B62" s="0">
-        <v>1.8526488593223625</v>
+        <v>-0.20940533679357243</v>
       </c>
       <c r="C62" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="0">
-        <v>3.5531665869339051</v>
+        <v>5.5989577797735404</v>
       </c>
       <c r="E62" s="0">
-        <v>-0.10535242556991352</v>
+        <v>-0.062810098660269501</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B63" s="0">
-        <v>0.56411700615801863</v>
+        <v>0.26249458771057338</v>
       </c>
       <c r="C63" s="0">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D63" s="0">
-        <v>4.9532003108203551</v>
+        <v>8.0443751072999525</v>
       </c>
       <c r="E63" s="0">
-        <v>0.36396802364911407</v>
+        <v>-0.045758515236971983</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.02188746197960012</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2269887477275576</v>
+        <v>-0.2039634487030435</v>
       </c>
       <c r="C64" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D64" s="0">
-        <v>2.7814203278601743</v>
+        <v>5.5666364838110614</v>
       </c>
       <c r="E64" s="0">
-        <v>-0.20197376762468666</v>
+        <v>-0.064520732597938182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.57047325996529508</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B65" s="0">
-        <v>0.86995491539935721</v>
+        <v>0.45867463941362324</v>
       </c>
       <c r="C65" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>5.5899468624341555</v>
+        <v>9.4392949459179079</v>
       </c>
       <c r="E65" s="0">
-        <v>0.32250870575940066</v>
+        <v>31.782034751412997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.375160840084939</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B66" s="0">
-        <v>1.1335387065479214</v>
+        <v>0.13763410959813621</v>
       </c>
       <c r="C66" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D66" s="0">
-        <v>6.0920356005418466</v>
+        <v>6.4930457708641915</v>
       </c>
       <c r="E66" s="0">
-        <v>0.29592842952314891</v>
+        <v>-0.05196537603999158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B67" s="0">
-        <v>0.76360541973363827</v>
+        <v>1.2472365806122299</v>
       </c>
       <c r="C67" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D67" s="0">
-        <v>2.6050570596766169</v>
+        <v>4.1429895093754716</v>
       </c>
       <c r="E67" s="0">
-        <v>-0.1492991713597325</v>
+        <v>-0.088759743538329675</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.375160840084939</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B68" s="0">
-        <v>1.3748016133943659</v>
+        <v>0.70761910185276111</v>
       </c>
       <c r="C68" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" s="0">
-        <v>2.8584231016219945</v>
+        <v>6.4957191454700052</v>
       </c>
       <c r="E68" s="0">
-        <v>-0.13606553212288361</v>
+        <v>-0.055684515940162965</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B69" s="0">
-        <v>2.5526436606946366</v>
+        <v>0.16372449076206921</v>
       </c>
       <c r="C69" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D69" s="0">
-        <v>1.7205912550706615</v>
+        <v>9.2829298205181434</v>
       </c>
       <c r="E69" s="0">
-        <v>-0.34369261406163254</v>
+        <v>32.317383175396557</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B70" s="0">
-        <v>0.38734636249003584</v>
+        <v>1.0545404479926268</v>
       </c>
       <c r="C70" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D70" s="0">
-        <v>3.9327580710610093</v>
+        <v>5.3646463407874787</v>
       </c>
       <c r="E70" s="0">
-        <v>0.45840768623254957</v>
+        <v>-0.062870875821916083</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.375160840084939</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B71" s="0">
-        <v>1.5026605225608216</v>
+        <v>-0.084781711384965222</v>
       </c>
       <c r="C71" s="0">
         <v>14</v>
       </c>
       <c r="D71" s="0">
-        <v>2.0921893345232725</v>
+        <v>6.001232201441546</v>
       </c>
       <c r="E71" s="0">
-        <v>-0.22794735549210213</v>
+        <v>-0.056230175540906639</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B72" s="0">
-        <v>2.844719184456455</v>
+        <v>0.21227776780782082</v>
       </c>
       <c r="C72" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D72" s="0">
-        <v>1</v>
+        <v>8.4413913512884697</v>
       </c>
       <c r="E72" s="0">
-        <v>-0.83595857176437161</v>
+        <v>-0.035785980135672191</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.02188746197960012</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B73" s="0">
-        <v>1.9986661411056144</v>
+        <v>1.3019329896013729</v>
       </c>
       <c r="C73" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D73" s="0">
-        <v>3.255121675784014</v>
+        <v>1.4407828492373032</v>
       </c>
       <c r="E73" s="0">
-        <v>-0.12979909182096247</v>
+        <v>-0.51862589970544382</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B74" s="0">
-        <v>1.8540859055018646</v>
+        <v>1.0697664700064813</v>
       </c>
       <c r="C74" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D74" s="0">
-        <v>1.7907791797438017</v>
+        <v>5.6068208118665295</v>
       </c>
       <c r="E74" s="0">
-        <v>-0.31177394296581057</v>
+        <v>-0.065651939534119283</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.375160840084939</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B75" s="0">
-        <v>1.2602268488897528</v>
+        <v>-0.14138506237505544</v>
       </c>
       <c r="C75" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" s="0">
-        <v>4.6861547242026909</v>
+        <v>7.6065805489324294</v>
       </c>
       <c r="E75" s="0">
-        <v>-0.05169026949140812</v>
+        <v>-0.039713437762391286</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B76" s="0">
-        <v>0.67376031307457729</v>
+        <v>-0.094662465991012787</v>
       </c>
       <c r="C76" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D76" s="0">
-        <v>3.566083659378771</v>
+        <v>5.9804424658222235</v>
       </c>
       <c r="E76" s="0">
-        <v>-0.11084884816109111</v>
+        <v>-0.056397167240998622</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.57047325996529508</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B77" s="0">
-        <v>0.48628842698809938</v>
+        <v>-0.1807057954832535</v>
       </c>
       <c r="C77" s="0">
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>5.0435870179822206</v>
+        <v>6.7061418588034059</v>
       </c>
       <c r="E77" s="0">
-        <v>29.740737983739646</v>
+        <v>44.735110935086865</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B78" s="0">
-        <v>1.8062010554684158</v>
+        <v>0.21588508814134869</v>
       </c>
       <c r="C78" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" s="0">
-        <v>2.6373155717721382</v>
+        <v>8.0337256592836557</v>
       </c>
       <c r="E78" s="0">
-        <v>-0.15758544390322876</v>
+        <v>-0.0407292713057981</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B79" s="0">
-        <v>2.0373223972093388</v>
+        <v>0.2754330278187172</v>
       </c>
       <c r="C79" s="0">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D79" s="0">
-        <v>1.7290258724070315</v>
+        <v>7.334969755050067</v>
       </c>
       <c r="E79" s="0">
-        <v>-0.3404812025622892</v>
+        <v>-0.045982468255977682</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B80" s="0">
-        <v>2.5269192006761729</v>
+        <v>0.083518469314877428</v>
       </c>
       <c r="C80" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D80" s="0">
-        <v>1.7290258724070315</v>
+        <v>7.4332638122928598</v>
       </c>
       <c r="E80" s="0">
-        <v>-0.3404812025622892</v>
+        <v>-0.042132101903902729</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.375160840084939</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B81" s="0">
-        <v>1.4839309369696592</v>
+        <v>0.076826716038841378</v>
       </c>
       <c r="C81" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D81" s="0">
-        <v>2.4108434474551563</v>
+        <v>8.3843844747642784</v>
       </c>
       <c r="E81" s="0">
-        <v>-0.17945816958866859</v>
+        <v>-0.036029295188438636</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.375160840084939</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B82" s="0">
-        <v>1.1336449055477678</v>
+        <v>-0.61975323112414926</v>
       </c>
       <c r="C82" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D82" s="0">
-        <v>4.306192841207098</v>
+        <v>3.4857430758557042</v>
       </c>
       <c r="E82" s="0">
-        <v>0.010665669471103945</v>
+        <v>86.064862920613834</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B83" s="0">
-        <v>0.75370999555825258</v>
+        <v>1.2683307939344317</v>
       </c>
       <c r="C83" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D83" s="0">
-        <v>2.8513788957922026</v>
+        <v>2.0586637650103352</v>
       </c>
       <c r="E83" s="0">
-        <v>-0.12462476526508255</v>
+        <v>-0.20864422983953423</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B84" s="0">
-        <v>1.8418115541914686</v>
+        <v>0.23893873489380479</v>
       </c>
       <c r="C84" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" s="0">
-        <v>1.8350289168846428</v>
+        <v>6.4099052277574486</v>
       </c>
       <c r="E84" s="0">
-        <v>-0.31572575231542843</v>
+        <v>-0.052684011549299123</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B85" s="0">
-        <v>2.5280376595612144</v>
+        <v>0.27767629095245799</v>
       </c>
       <c r="C85" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D85" s="0">
-        <v>1.7298180977846036</v>
+        <v>7.3422163791434922</v>
       </c>
       <c r="E85" s="0">
-        <v>-0.34135450618682089</v>
+        <v>-0.045960282661700179</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.062194821160684755</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B86" s="0">
-        <v>1.712044376988012</v>
+        <v>0.88882932588229024</v>
       </c>
       <c r="C86" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D86" s="0">
-        <v>3.3568562266575541</v>
+        <v>8.46133301287494</v>
       </c>
       <c r="E86" s="0">
-        <v>-0.11775787802560281</v>
+        <v>3.7105406776183005</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.89547619309777504</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B87" s="0">
-        <v>0.34352355308843097</v>
+        <v>1.1965752182455891</v>
       </c>
       <c r="C87" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" s="0">
-        <v>7.1195456027364177</v>
+        <v>4.0552814024263455</v>
       </c>
       <c r="E87" s="0">
-        <v>2.3286560620445318</v>
+        <v>0.028974524539808852</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B88" s="0">
-        <v>1.1299658301862994</v>
+        <v>0.96813834433608259</v>
       </c>
       <c r="C88" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D88" s="0">
-        <v>1.1776683110096959</v>
+        <v>5.3907045911883209</v>
       </c>
       <c r="E88" s="0">
-        <v>-0.40496039634833525</v>
+        <v>-0.066626441491338853</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B89" s="0">
-        <v>0.28010687966932823</v>
+        <v>0.49306386490685883</v>
       </c>
       <c r="C89" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D89" s="0">
-        <v>3.0284493687459628</v>
+        <v>6.8101822066737006</v>
       </c>
       <c r="E89" s="0">
-        <v>49.530298095131386</v>
+        <v>-0.045986879486309862</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B90" s="0">
-        <v>1.9282544341319796</v>
+        <v>0.97584533376928517</v>
       </c>
       <c r="C90" s="0">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D90" s="0">
-        <v>1.7164491957229766</v>
+        <v>6.1899401883491185</v>
       </c>
       <c r="E90" s="0">
-        <v>-0.3284333989228142</v>
+        <v>0.53074829866637929</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B91" s="0">
-        <v>2.1617636123074533</v>
+        <v>-0.1670424229536375</v>
       </c>
       <c r="C91" s="0">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>1.7507743101065447</v>
+        <v>7.0022750325754375</v>
       </c>
       <c r="E91" s="0">
-        <v>-0.33881236138270693</v>
+        <v>0.46917611897980654</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.02188746197960012</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B92" s="0">
-        <v>1.6367706658901822</v>
+        <v>0.25212848545248651</v>
       </c>
       <c r="C92" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D92" s="0">
-        <v>3.4610839311800441</v>
+        <v>2.2280203438374859</v>
       </c>
       <c r="E92" s="0">
-        <v>0.013269955434883017</v>
+        <v>-0.46825530079990646</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B93" s="0">
-        <v>1.9254185391334684</v>
+        <v>0.50090499651132769</v>
       </c>
       <c r="C93" s="0">
         <v>9</v>
       </c>
       <c r="D93" s="0">
-        <v>2.5577277014458391</v>
+        <v>7.5083904006691222</v>
       </c>
       <c r="E93" s="0">
-        <v>-0.13893286035454008</v>
+        <v>-0.046837081155359186</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.375160840084939</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B94" s="0">
-        <v>1.3251030575704381</v>
+        <v>-0.52442372115156499</v>
       </c>
       <c r="C94" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D94" s="0">
-        <v>3.7806753666170065</v>
+        <v>2.0098037383863079</v>
       </c>
       <c r="E94" s="0">
-        <v>-0.093991784829673727</v>
+        <v>-0.21371654731521697</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B95" s="0">
-        <v>0.5442473543800076</v>
+        <v>0.095406175684860178</v>
       </c>
       <c r="C95" s="0">
         <v>6</v>
       </c>
       <c r="D95" s="0">
-        <v>2.5726445178697253</v>
+        <v>8.4148353100975015</v>
       </c>
       <c r="E95" s="0">
-        <v>-0.13102905531749873</v>
+        <v>-0.035898915674814791</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B96" s="0">
-        <v>1.4744527706851838</v>
+        <v>-0.12840520738107797</v>
       </c>
       <c r="C96" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D96" s="0">
-        <v>3.5379671604882277</v>
+        <v>5.7540137074762594</v>
       </c>
       <c r="E96" s="0">
-        <v>0.012981587290033222</v>
+        <v>-0.062419639976740923</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B97" s="0">
-        <v>1.797935817558626</v>
+        <v>0.97109755335560333</v>
       </c>
       <c r="C97" s="0">
         <v>11</v>
       </c>
       <c r="D97" s="0">
-        <v>3.2465630655418538</v>
+        <v>5.4053289388723185</v>
       </c>
       <c r="E97" s="0">
-        <v>-0.13014126901396783</v>
+        <v>-0.066917477250553387</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B98" s="0">
-        <v>0.4515159746363937</v>
+        <v>1.3249348932990319</v>
       </c>
       <c r="C98" s="0">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D98" s="0">
-        <v>8.0762472262973315</v>
+        <v>1.2654921865849782</v>
       </c>
       <c r="E98" s="0">
-        <v>2.0528065278674621</v>
+        <v>-0.6073730899750841</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B99" s="0">
-        <v>2.0805403139597409</v>
+        <v>1.2201133339232073</v>
       </c>
       <c r="C99" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D99" s="0">
-        <v>2.2265146431036791</v>
+        <v>4.137927285882637</v>
       </c>
       <c r="E99" s="0">
-        <v>-0.21419532427982035</v>
+        <v>-0.087413565127834728</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B100" s="0">
-        <v>0.70603940822684352</v>
+        <v>-0.57204387972838255</v>
       </c>
       <c r="C100" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D100" s="0">
-        <v>2.970864263789927</v>
+        <v>3.1266161132750208</v>
       </c>
       <c r="E100" s="0">
-        <v>-0.1134656958087292</v>
+        <v>-0.11773068633415713</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.89547619309777504</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B101" s="0">
-        <v>0.70022229887778265</v>
+        <v>-0.6177220518221721</v>
       </c>
       <c r="C101" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" s="0">
-        <v>4.4918119002166357</v>
+        <v>3.2717066751408339</v>
       </c>
       <c r="E101" s="0">
-        <v>-0.053926701730495429</v>
+        <v>9.5962515740490701</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B102" s="0">
-        <v>0.9145728294822707</v>
+        <v>0.22362709761048422</v>
       </c>
       <c r="C102" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D102" s="0">
-        <v>2.9638574933486024</v>
+        <v>7.3191302379517804</v>
       </c>
       <c r="E102" s="0">
-        <v>-0.11373393680387864</v>
+        <v>-0.049071877718411844</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B103" s="0">
-        <v>2.0196150122592202</v>
+        <v>0.95416806830725276</v>
       </c>
       <c r="C103" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D103" s="0">
-        <v>2.3839854804085552</v>
+        <v>7.8096006936899105</v>
       </c>
       <c r="E103" s="0">
-        <v>-0.17433098838311134</v>
+        <v>4.0201953419353273</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B104" s="0">
-        <v>0.84389944495029756</v>
+        <v>0.068330517038669783</v>
       </c>
       <c r="C104" s="0">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D104" s="0">
-        <v>1.9066916811753289</v>
+        <v>8.053836030708208</v>
       </c>
       <c r="E104" s="0">
-        <v>-0.22690902599336099</v>
+        <v>3.8982815408009097</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B105" s="0">
-        <v>2.0458103439661155</v>
+        <v>-0.57122864615359681</v>
       </c>
       <c r="C105" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D105" s="0">
-        <v>1.7205912550706615</v>
+        <v>3.2421891428260978</v>
       </c>
       <c r="E105" s="0">
-        <v>-0.34369261406163254</v>
+        <v>-0.11342049156750297</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B106" s="0">
-        <v>0.85042317758462416</v>
+        <v>0.25442628561426289</v>
       </c>
       <c r="C106" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D106" s="0">
-        <v>4.3016968390046291</v>
+        <v>7.315742088499162</v>
       </c>
       <c r="E106" s="0">
-        <v>-0.087020246288224093</v>
+        <v>0.016061234675720768</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B107" s="0">
-        <v>1.0165427449164899</v>
+        <v>0.53285151895405969</v>
       </c>
       <c r="C107" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D107" s="0">
-        <v>2.9957412859681609</v>
+        <v>6.196599102801434</v>
       </c>
       <c r="E107" s="0">
-        <v>-0.14103749187638795</v>
+        <v>-0.054497558329441538</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.43160825691395921</v>
       </c>
       <c r="B108" s="0">
-        <v>0.58166354749209581</v>
+        <v>0.28263460894909359</v>
       </c>
       <c r="C108" s="0">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D108" s="0">
-        <v>5.9005534581885026</v>
+        <v>5.4535915008736753</v>
       </c>
       <c r="E108" s="0">
-        <v>0.0077837494141183745</v>
+        <v>-0.066638744671155214</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B109" s="0">
-        <v>1.9000025253034931</v>
+        <v>0.16440850820048719</v>
       </c>
       <c r="C109" s="0">
         <v>20</v>
       </c>
       <c r="D109" s="0">
-        <v>1.774920654774867</v>
+        <v>4.91947608024915</v>
       </c>
       <c r="E109" s="0">
-        <v>-0.26229858256343563</v>
+        <v>-0.075599961121068149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B110" s="0">
-        <v>0.93577894178023646</v>
+        <v>0.66810124583423502</v>
       </c>
       <c r="C110" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D110" s="0">
-        <v>3.773852694511703</v>
+        <v>7.3576824815594</v>
       </c>
       <c r="E110" s="0">
-        <v>-0.10474607730797313</v>
+        <v>-0.047796448327806308</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B111" s="0">
-        <v>2.2106058279080014</v>
+        <v>-0.60827705857674064</v>
       </c>
       <c r="C111" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D111" s="0">
-        <v>1.7526338390189289</v>
+        <v>3.2551695555950659</v>
       </c>
       <c r="E111" s="0">
-        <v>-0.33595857176437166</v>
+        <v>0.036096384075745287</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B112" s="0">
-        <v>1.8108333101161735</v>
+        <v>0.9120898686804203</v>
       </c>
       <c r="C112" s="0">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>2.3810947606825765</v>
+        <v>6.7349648657848746</v>
       </c>
       <c r="E112" s="0">
-        <v>-0.18170026636029957</v>
+        <v>0.48779767812939917</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B113" s="0">
-        <v>1.9131923776180162</v>
+        <v>-0.065926844587132591</v>
       </c>
       <c r="C113" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D113" s="0">
-        <v>1.7572043597823845</v>
+        <v>6.0922310264940123</v>
       </c>
       <c r="E113" s="0">
-        <v>-0.29154183445508847</v>
+        <v>-0.060420995086776653</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.375160840084939</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B114" s="0">
-        <v>1.319888000960399</v>
+        <v>0.45888826421552154</v>
       </c>
       <c r="C114" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>4.4223484310002359</v>
+        <v>8.8333278849414274</v>
       </c>
       <c r="E114" s="0">
-        <v>-0.084646138636071191</v>
+        <v>3.5542799656140311</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.42492579055800994</v>
       </c>
       <c r="B115" s="0">
-        <v>2.107638179288617</v>
+        <v>0.26130812741091203</v>
       </c>
       <c r="C115" s="0">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D115" s="0">
-        <v>1.7299543442550807</v>
+        <v>7.7679791444526343</v>
       </c>
       <c r="E115" s="0">
-        <v>-0.34318397825537811</v>
+        <v>-0.045271889123620943</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B116" s="0">
-        <v>2.0862548497430353</v>
+        <v>-0.5133946316119069</v>
       </c>
       <c r="C116" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D116" s="0">
-        <v>2.2727110546864306</v>
+        <v>1.4454946507445814</v>
       </c>
       <c r="E116" s="0">
-        <v>-0.28818463086091739</v>
+        <v>-0.53173901356848385</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B117" s="0">
-        <v>2.6697314846716598</v>
+        <v>0.5122807211726339</v>
       </c>
       <c r="C117" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D117" s="0">
-        <v>1</v>
+        <v>6.790293521535073</v>
       </c>
       <c r="E117" s="0">
-        <v>-0.58595857176437161</v>
+        <v>-0.053268827798326861</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B118" s="0">
-        <v>0.95378939754265468</v>
+        <v>0.51947138165885298</v>
       </c>
       <c r="C118" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D118" s="0">
-        <v>4.3014359715298385</v>
+        <v>7.1526777253667699</v>
       </c>
       <c r="E118" s="0">
-        <v>-0.087025523770454472</v>
+        <v>-0.047154370275063848</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B119" s="0">
-        <v>1.5322594403016654</v>
+        <v>0.095560939238313436</v>
       </c>
       <c r="C119" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D119" s="0">
-        <v>3.129359007121828</v>
+        <v>7.4651769227252434</v>
       </c>
       <c r="E119" s="0">
-        <v>-0.077405181067818046</v>
+        <v>-0.041951990108197709</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.57047325996529508</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B120" s="0">
-        <v>1.0716006449975446</v>
+        <v>-0.2106854216572919</v>
       </c>
       <c r="C120" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D120" s="0">
-        <v>5.0533760728202566</v>
+        <v>5.8791115694898437</v>
       </c>
       <c r="E120" s="0">
-        <v>0.0090886624825285457</v>
+        <v>-0.055655992934610862</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B121" s="0">
-        <v>1.5040635622752341</v>
+        <v>-0.26475710756465626</v>
       </c>
       <c r="C121" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121" s="0">
-        <v>5.8280805671992502</v>
+        <v>6.4136990219880143</v>
       </c>
       <c r="E121" s="0">
-        <v>0.30933109230056871</v>
+        <v>46.774879671077997</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.375160840084939</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B122" s="0">
-        <v>1.4798509128524369</v>
+        <v>0.5243952028853246</v>
       </c>
       <c r="C122" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D122" s="0">
-        <v>3.1064708133887775</v>
+        <v>7.1565083918924888</v>
       </c>
       <c r="E122" s="0">
-        <v>-0.13378607753189822</v>
+        <v>-0.047152930125966545</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B123" s="0">
-        <v>0.95825465723031056</v>
+        <v>0.56844009227622161</v>
       </c>
       <c r="C123" s="0">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D123" s="0">
-        <v>8.9131998584224768</v>
+        <v>5.8680948637644414</v>
       </c>
       <c r="E123" s="0">
-        <v>16.828973026814648</v>
+        <v>-0.06266611138223048</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.375160840084939</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B124" s="0">
-        <v>0.7436126615868921</v>
+        <v>0.94447563329019169</v>
       </c>
       <c r="C124" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D124" s="0">
-        <v>7.7993700266408679</v>
+        <v>5.4002455918468835</v>
       </c>
       <c r="E124" s="0">
-        <v>19.232322544979176</v>
+        <v>-0.057993478831952168</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B125" s="0">
-        <v>1.5040635622752341</v>
+        <v>0.61478133023220949</v>
       </c>
       <c r="C125" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>5.8280805671992502</v>
+        <v>9.2038419102184665</v>
       </c>
       <c r="E125" s="0">
-        <v>0.30933109230056871</v>
+        <v>32.595083979759387</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B126" s="0">
-        <v>0.38879873478833948</v>
+        <v>-0.14822283863567098</v>
       </c>
       <c r="C126" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" s="0">
-        <v>5.9099303737320081</v>
+        <v>7.6436906907314386</v>
       </c>
       <c r="E126" s="0">
-        <v>0.0077713994275276001</v>
+        <v>-0.030610335069469811</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.25750860419278265</v>
       </c>
       <c r="B127" s="0">
-        <v>0.67287604375316401</v>
+        <v>0.49474334695962918</v>
       </c>
       <c r="C127" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D127" s="0">
-        <v>7.2942308724685683</v>
+        <v>7.8500190851282241</v>
       </c>
       <c r="E127" s="0">
-        <v>2.2728884397381113</v>
+        <v>-0.041682419931081099</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B128" s="0">
-        <v>2.0110720970622737</v>
+        <v>0.14146639301878616</v>
       </c>
       <c r="C128" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D128" s="0">
-        <v>3.2017886099924873</v>
+        <v>7.1314806684140759</v>
       </c>
       <c r="E128" s="0">
-        <v>-0.13196119068100687</v>
+        <v>-0.04731841195943999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.84391347324319133</v>
       </c>
       <c r="B129" s="0">
-        <v>0.77735058714678251</v>
+        <v>-0.56742015781144983</v>
       </c>
       <c r="C129" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D129" s="0">
-        <v>2.275459434855597</v>
+        <v>2.2383889955020178</v>
       </c>
       <c r="E129" s="0">
-        <v>-0.18264555224513793</v>
+        <v>-0.16235805854022098</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0</v>
+        <v>0.63195549097742654</v>
       </c>
       <c r="B130" s="0">
-        <v>1.6945584410844032</v>
+        <v>-0.13212861480825816</v>
       </c>
       <c r="C130" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D130" s="0">
-        <v>2.3200264529821188</v>
+        <v>6.1098804979088435</v>
       </c>
       <c r="E130" s="0">
-        <v>-0.14529626608822557</v>
+        <v>-0.053553877540699082</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B131" s="0">
-        <v>1.5040635622752341</v>
+        <v>0.65634411818059035</v>
       </c>
       <c r="C131" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D131" s="0">
-        <v>5.8280805671992502</v>
+        <v>7.4490232403634087</v>
       </c>
       <c r="E131" s="0">
-        <v>0.30933109230056871</v>
+        <v>-0.043926268104561926</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.41832409986898678</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B132" s="0">
-        <v>1.2343013633704543</v>
+        <v>1.0485271796229794</v>
       </c>
       <c r="C132" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D132" s="0">
-        <v>4.8704940494243312</v>
+        <v>5.0717698453713895</v>
       </c>
       <c r="E132" s="0">
-        <v>-0.0497338869762304</v>
+        <v>-0.072505397040001002</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.41832409986898678</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B133" s="0">
-        <v>1.3124230113948612</v>
+        <v>1.0641959294775101</v>
       </c>
       <c r="C133" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D133" s="0">
-        <v>3.8441573326982423</v>
+        <v>4.8195958115039845</v>
       </c>
       <c r="E133" s="0">
-        <v>-0.092439615451558294</v>
+        <v>-0.070068016957568285</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B134" s="0">
-        <v>1.2079343737322428</v>
+        <v>0.19009365172414541</v>
       </c>
       <c r="C134" s="0">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D134" s="0">
-        <v>2.3314460059191284</v>
+        <v>2.2558417319036765</v>
       </c>
       <c r="E134" s="0">
-        <v>7.1110259404350655</v>
+        <v>-0.27545266016192377</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B135" s="0">
-        <v>1.6178357401390242</v>
+        <v>0.72132543658036019</v>
       </c>
       <c r="C135" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D135" s="0">
-        <v>2.4211517395373261</v>
+        <v>6.8483472390359177</v>
       </c>
       <c r="E135" s="0">
-        <v>-0.13922761441983353</v>
+        <v>-0.049249841187612886</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B136" s="0">
-        <v>0.87134465006205608</v>
+        <v>0.92088782245966649</v>
       </c>
       <c r="C136" s="0">
         <v>5</v>
       </c>
       <c r="D136" s="0">
-        <v>4.9831694688044257</v>
+        <v>6.0704691936864323</v>
       </c>
       <c r="E136" s="0">
-        <v>-0.048609344331728796</v>
+        <v>-0.038543302954905399</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B137" s="0">
-        <v>0.9948550293614743</v>
+        <v>-0.077442716232276373</v>
       </c>
       <c r="C137" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="0">
-        <v>3.5445988644709718</v>
+        <v>5.0605321616032111</v>
       </c>
       <c r="E137" s="0">
-        <v>-0.10025180257539511</v>
+        <v>-0.066732017555659745</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.6403338824704411</v>
       </c>
       <c r="B138" s="0">
-        <v>1.9404888508426141</v>
+        <v>-0.14180082757631682</v>
       </c>
       <c r="C138" s="0">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D138" s="0">
-        <v>1.7078004679962522</v>
+        <v>5.8848829064544264</v>
       </c>
       <c r="E138" s="0">
-        <v>-0.33870080829845728</v>
+        <v>-0.057341895414552882</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.57047325996529508</v>
+        <v>0.050610203773762907</v>
       </c>
       <c r="B139" s="0">
-        <v>1.0848585491715934</v>
+        <v>0.93319423589259642</v>
       </c>
       <c r="C139" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D139" s="0">
-        <v>5.0958025948595296</v>
+        <v>7.7053995691565946</v>
       </c>
       <c r="E139" s="0">
-        <v>-0.047534926258098041</v>
+        <v>38.933736960358168</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B140" s="0">
-        <v>0.38879873478833948</v>
+        <v>1.2215841510450449</v>
       </c>
       <c r="C140" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D140" s="0">
-        <v>5.9099303737320081</v>
+        <v>4.0844189493746974</v>
       </c>
       <c r="E140" s="0">
-        <v>0.0077713994275276001</v>
+        <v>-0.082609930398910458</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.375160840084939</v>
+        <v>0.45337147860386384</v>
       </c>
       <c r="B141" s="0">
-        <v>0.7436126615868921</v>
+        <v>0.11959747759124506</v>
       </c>
       <c r="C141" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D141" s="0">
-        <v>7.7993700266408679</v>
+        <v>7.4473583832325607</v>
       </c>
       <c r="E141" s="0">
-        <v>19.232322544979176</v>
+        <v>-0.048569030478394129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.21534852927638193</v>
       </c>
       <c r="B142" s="0">
-        <v>0.95825465723031056</v>
+        <v>0.71670005775721424</v>
       </c>
       <c r="C142" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D142" s="0">
-        <v>8.9131998584224768</v>
+        <v>5.994643059416747</v>
       </c>
       <c r="E142" s="0">
-        <v>16.828973026814648</v>
+        <v>-0.056285847511438586</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B143" s="0">
-        <v>0.95825465723031056</v>
+        <v>0.12421139063592918</v>
       </c>
       <c r="C143" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D143" s="0">
-        <v>8.9131998584224768</v>
+        <v>7.4655780209126483</v>
       </c>
       <c r="E143" s="0">
-        <v>16.828973026814648</v>
+        <v>-0.048450498445735617</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.73798007190962722</v>
+        <v>0.0055475916383922463</v>
       </c>
       <c r="B144" s="0">
-        <v>0.81087600847419683</v>
+        <v>1.2125441716413325</v>
       </c>
       <c r="C144" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D144" s="0">
-        <v>5.0522068214747318</v>
+        <v>4.5080437066969301</v>
       </c>
       <c r="E144" s="0">
-        <v>0.35683545657800791</v>
+        <v>-0.07258310106604153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.375160840084939</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B145" s="0">
-        <v>0.75288731826566557</v>
+        <v>-0.59029011562396561</v>
       </c>
       <c r="C145" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D145" s="0">
-        <v>4.7480244624019727</v>
+        <v>3.8478014031561893</v>
       </c>
       <c r="E145" s="0">
-        <v>3.4917623441281789</v>
+        <v>-0.087699521049086224</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.80699849062501838</v>
+        <v>0.24246799819574905</v>
       </c>
       <c r="B146" s="0">
-        <v>0.4515159746363937</v>
+        <v>0.83411189921734818</v>
       </c>
       <c r="C146" s="0">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D146" s="0">
-        <v>8.0762472262973315</v>
+        <v>3.7506474374352128</v>
       </c>
       <c r="E146" s="0">
-        <v>2.0528065278674621</v>
+        <v>-0.11452111213173893</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B147" s="0">
-        <v>1.5040635622752341</v>
+        <v>0.426484005020343</v>
       </c>
       <c r="C147" s="0">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D147" s="0">
-        <v>5.8280805671992502</v>
+        <v>2.124450508657421</v>
       </c>
       <c r="E147" s="0">
-        <v>0.30933109230056871</v>
+        <v>-0.56151303964471044</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.93645871651698298</v>
+        <v>0.8464542760951107</v>
       </c>
       <c r="B148" s="0">
-        <v>0.38879873478833948</v>
+        <v>-0.61572621873978828</v>
       </c>
       <c r="C148" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>5.9099303737320081</v>
+        <v>4.2360118628785584</v>
       </c>
       <c r="E148" s="0">
-        <v>0.0077713994275276001</v>
+        <v>0.77556445311284727</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.065270781005520861</v>
+        <v>0.10082679754625412</v>
       </c>
       <c r="B149" s="0">
-        <v>0.95825465723031056</v>
+        <v>0.98988195187687789</v>
       </c>
       <c r="C149" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D149" s="0">
-        <v>8.9131998584224768</v>
+        <v>5.754937510259829</v>
       </c>
       <c r="E149" s="0">
-        <v>16.828973026814648</v>
+        <v>-0.058607067986202736</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.41832409986898678</v>
+        <v>0.44665336185412008</v>
       </c>
       <c r="B150" s="0">
-        <v>1.1203839425596993</v>
+        <v>0.1612613014153341</v>
       </c>
       <c r="C150" s="0">
+        <v>18</v>
+      </c>
+      <c r="D150" s="0">
+        <v>5.2204543756386173</v>
+      </c>
+      <c r="E150" s="0">
+        <v>-0.069614724201673694</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B151" s="0">
+        <v>-0.042691089661178967</v>
+      </c>
+      <c r="C151" s="0">
+        <v>17</v>
+      </c>
+      <c r="D151" s="0">
+        <v>4.6850786379429534</v>
+      </c>
+      <c r="E151" s="0">
+        <v>-0.078489757537050481</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>0.90476604906422353</v>
+      </c>
+      <c r="B152" s="0">
+        <v>0.43717151919781505</v>
+      </c>
+      <c r="C152" s="0">
+        <v>34</v>
+      </c>
+      <c r="D152" s="0">
+        <v>1</v>
+      </c>
+      <c r="E152" s="0">
+        <v>-1.1989857247680913</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>0.24246799819574905</v>
+      </c>
+      <c r="B153" s="0">
+        <v>0.47044432268514225</v>
+      </c>
+      <c r="C153" s="0">
+        <v>5</v>
+      </c>
+      <c r="D153" s="0">
+        <v>8.0923250534377917</v>
+      </c>
+      <c r="E153" s="0">
+        <v>-0.028913313746743097</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B154" s="0">
+        <v>-0.062574659690446663</v>
+      </c>
+      <c r="C154" s="0">
+        <v>15</v>
+      </c>
+      <c r="D154" s="0">
+        <v>5.1202702114094816</v>
+      </c>
+      <c r="E154" s="0">
+        <v>-0.065953456967288854</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B155" s="0">
+        <v>0.3264541126812332</v>
+      </c>
+      <c r="C155" s="0">
+        <v>18</v>
+      </c>
+      <c r="D155" s="0">
+        <v>5.4780788296969458</v>
+      </c>
+      <c r="E155" s="0">
+        <v>-0.066340865632926252</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B156" s="0">
+        <v>1.0101297040748207</v>
+      </c>
+      <c r="C156" s="0">
+        <v>14</v>
+      </c>
+      <c r="D156" s="0">
+        <v>5.7184834201959633</v>
+      </c>
+      <c r="E156" s="0">
+        <v>-0.05901046052822792</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>0.6403338824704411</v>
+      </c>
+      <c r="B157" s="0">
+        <v>-0.17142220629252267</v>
+      </c>
+      <c r="C157" s="0">
+        <v>12</v>
+      </c>
+      <c r="D157" s="0">
+        <v>5.5282006993483535</v>
+      </c>
+      <c r="E157" s="0">
+        <v>-0.061034970233191412</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B158" s="0">
+        <v>0.26705673749621428</v>
+      </c>
+      <c r="C158" s="0">
+        <v>10</v>
+      </c>
+      <c r="D158" s="0">
+        <v>7.3111972466220312</v>
+      </c>
+      <c r="E158" s="0">
+        <v>-0.049125123003328011</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B159" s="0">
+        <v>-0.52284445131753432</v>
+      </c>
+      <c r="C159" s="0">
+        <v>22</v>
+      </c>
+      <c r="D159" s="0">
+        <v>1.4898055812260149</v>
+      </c>
+      <c r="E159" s="0">
+        <v>-0.31125977319376652</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B160" s="0">
+        <v>1.2909525103656359</v>
+      </c>
+      <c r="C160" s="0">
+        <v>23</v>
+      </c>
+      <c r="D160" s="0">
+        <v>1.2496852126286586</v>
+      </c>
+      <c r="E160" s="0">
+        <v>-0.49722730146586924</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B161" s="0">
+        <v>0.98952553382334085</v>
+      </c>
+      <c r="C161" s="0">
+        <v>4</v>
+      </c>
+      <c r="D161" s="0">
+        <v>5.0098687968226976</v>
+      </c>
+      <c r="E161" s="0">
+        <v>0.023453678185135711</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B162" s="0">
+        <v>0.95231905761134783</v>
+      </c>
+      <c r="C162" s="0">
+        <v>8</v>
+      </c>
+      <c r="D162" s="0">
+        <v>6.0442541293078236</v>
+      </c>
+      <c r="E162" s="0">
+        <v>-0.054135346557770719</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B163" s="0">
+        <v>0.7442866235966944</v>
+      </c>
+      <c r="C163" s="0">
+        <v>16</v>
+      </c>
+      <c r="D163" s="0">
+        <v>7.4036905191115068</v>
+      </c>
+      <c r="E163" s="0">
+        <v>-0.049718266852066817</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B164" s="0">
+        <v>0.09456000499949474</v>
+      </c>
+      <c r="C164" s="0">
+        <v>5</v>
+      </c>
+      <c r="D164" s="0">
+        <v>8.790910814550724</v>
+      </c>
+      <c r="E164" s="0">
+        <v>-0.02661566453653463</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B165" s="0">
+        <v>0.18489351634948301</v>
+      </c>
+      <c r="C165" s="0">
+        <v>21</v>
+      </c>
+      <c r="D165" s="0">
+        <v>4.6754359732888409</v>
+      </c>
+      <c r="E165" s="0">
+        <v>-0.091869147220295336</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>0.6403338824704411</v>
+      </c>
+      <c r="B166" s="0">
+        <v>-0.18840200388527062</v>
+      </c>
+      <c r="C166" s="0">
+        <v>11</v>
+      </c>
+      <c r="D166" s="0">
+        <v>6.1875349557653925</v>
+      </c>
+      <c r="E166" s="0">
+        <v>-0.058458009350187655</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B167" s="0">
+        <v>0.1572987679204764</v>
+      </c>
+      <c r="C167" s="0">
+        <v>16</v>
+      </c>
+      <c r="D167" s="0">
+        <v>7.8152932768932413</v>
+      </c>
+      <c r="E167" s="0">
+        <v>-0.047099788565532971</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B168" s="0">
+        <v>0.22349054117418291</v>
+      </c>
+      <c r="C168" s="0">
+        <v>25</v>
+      </c>
+      <c r="D168" s="0">
+        <v>2.2219444751837427</v>
+      </c>
+      <c r="E168" s="0">
+        <v>-0.34592489069371668</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B169" s="0">
+        <v>1.2340327972229184</v>
+      </c>
+      <c r="C169" s="0">
+        <v>16</v>
+      </c>
+      <c r="D169" s="0">
+        <v>4.6805718131426088</v>
+      </c>
+      <c r="E169" s="0">
+        <v>-0.078643951127021772</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B170" s="0">
+        <v>-0.34100358493371286</v>
+      </c>
+      <c r="C170" s="0">
+        <v>33</v>
+      </c>
+      <c r="D170" s="0">
+        <v>1</v>
+      </c>
+      <c r="E170" s="0">
+        <v>-0.94898572476809129</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B171" s="0">
+        <v>0.64872340499876946</v>
+      </c>
+      <c r="C171" s="0">
+        <v>7</v>
+      </c>
+      <c r="D171" s="0">
+        <v>6.5607546142647113</v>
+      </c>
+      <c r="E171" s="0">
+        <v>-0.047735214442738975</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B172" s="0">
+        <v>0.33014000120258552</v>
+      </c>
+      <c r="C172" s="0">
+        <v>20</v>
+      </c>
+      <c r="D172" s="0">
+        <v>4.9153280805266517</v>
+      </c>
+      <c r="E172" s="0">
+        <v>-0.075663759226222815</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>0.24246799819574905</v>
+      </c>
+      <c r="B173" s="0">
+        <v>0.50780279584807497</v>
+      </c>
+      <c r="C173" s="0">
+        <v>10</v>
+      </c>
+      <c r="D173" s="0">
+        <v>6.8004951384243144</v>
+      </c>
+      <c r="E173" s="0">
+        <v>-0.052814310830478606</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B174" s="0">
+        <v>-0.52736232655641357</v>
+      </c>
+      <c r="C174" s="0">
+        <v>20</v>
+      </c>
+      <c r="D174" s="0">
+        <v>3.0090614098069741</v>
+      </c>
+      <c r="E174" s="0">
+        <v>-0.12359741120295648</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B175" s="0">
+        <v>0.08264711453387448</v>
+      </c>
+      <c r="C175" s="0">
         <v>3</v>
       </c>
-      <c r="D150" s="0">
-        <v>6.0821718314774911</v>
-      </c>
-      <c r="E150" s="0">
-        <v>0.29640835178928532</v>
+      <c r="D175" s="0">
+        <v>8.7444747461721377</v>
+      </c>
+      <c r="E175" s="0">
+        <v>0.37570012141107395</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B176" s="0">
+        <v>-0.51671526557766123</v>
+      </c>
+      <c r="C176" s="0">
+        <v>24</v>
+      </c>
+      <c r="D176" s="0">
+        <v>1.6524555108974845</v>
+      </c>
+      <c r="E176" s="0">
+        <v>-0.45219208416693402</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B177" s="0">
+        <v>0.81536810276567906</v>
+      </c>
+      <c r="C177" s="0">
+        <v>19</v>
+      </c>
+      <c r="D177" s="0">
+        <v>5.5836301545239237</v>
+      </c>
+      <c r="E177" s="0">
+        <v>-0.073851248583526541</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B178" s="0">
+        <v>0.076810618172542561</v>
+      </c>
+      <c r="C178" s="0">
+        <v>5</v>
+      </c>
+      <c r="D178" s="0">
+        <v>8.7477488298757287</v>
+      </c>
+      <c r="E178" s="0">
+        <v>-0.026746988026404087</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>0.8464542760951107</v>
+      </c>
+      <c r="B179" s="0">
+        <v>-0.59517536279115346</v>
+      </c>
+      <c r="C179" s="0">
+        <v>12</v>
+      </c>
+      <c r="D179" s="0">
+        <v>3.8658743276157104</v>
+      </c>
+      <c r="E179" s="0">
+        <v>-0.087280013920146116</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B180" s="0">
+        <v>0.20333032090299097</v>
+      </c>
+      <c r="C180" s="0">
+        <v>5</v>
+      </c>
+      <c r="D180" s="0">
+        <v>8.8637286580332315</v>
+      </c>
+      <c r="E180" s="0">
+        <v>-0.026397009908310221</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>0.25750860419278265</v>
+      </c>
+      <c r="B181" s="0">
+        <v>0.52080863253451459</v>
+      </c>
+      <c r="C181" s="0">
+        <v>14</v>
+      </c>
+      <c r="D181" s="0">
+        <v>7.1950314415898609</v>
+      </c>
+      <c r="E181" s="0">
+        <v>-0.046900467758655758</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B182" s="0">
+        <v>0.75050091835160171</v>
+      </c>
+      <c r="C182" s="0">
+        <v>17</v>
+      </c>
+      <c r="D182" s="0">
+        <v>5.7928251767564207</v>
+      </c>
+      <c r="E182" s="0">
+        <v>-0.063480370132637201</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B183" s="0">
+        <v>1.044603848018629</v>
+      </c>
+      <c r="C183" s="0">
+        <v>16</v>
+      </c>
+      <c r="D183" s="0">
+        <v>5.9660989010685963</v>
+      </c>
+      <c r="E183" s="0">
+        <v>-0.061698383989808203</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B184" s="0">
+        <v>-0.10359146215244736</v>
+      </c>
+      <c r="C184" s="0">
+        <v>11</v>
+      </c>
+      <c r="D184" s="0">
+        <v>6.3438722023114371</v>
+      </c>
+      <c r="E184" s="0">
+        <v>-0.057017380672793848</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B185" s="0">
+        <v>1.0604562690356003</v>
+      </c>
+      <c r="C185" s="0">
+        <v>14</v>
+      </c>
+      <c r="D185" s="0">
+        <v>5.362645027090311</v>
+      </c>
+      <c r="E185" s="0">
+        <v>-0.062926100542570335</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B186" s="0">
+        <v>-0.58665601157272129</v>
+      </c>
+      <c r="C186" s="0">
+        <v>11</v>
+      </c>
+      <c r="D186" s="0">
+        <v>4.2103210971703762</v>
+      </c>
+      <c r="E186" s="0">
+        <v>-0.085910544101218497</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B187" s="0">
+        <v>0.67153759954198755</v>
+      </c>
+      <c r="C187" s="0">
+        <v>10</v>
+      </c>
+      <c r="D187" s="0">
+        <v>6.5430617295678983</v>
+      </c>
+      <c r="E187" s="0">
+        <v>-0.05489226281006207</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>0.6403338824704411</v>
+      </c>
+      <c r="B188" s="0">
+        <v>-0.24802454048164746</v>
+      </c>
+      <c r="C188" s="0">
+        <v>3</v>
+      </c>
+      <c r="D188" s="0">
+        <v>6.7658074825337993</v>
+      </c>
+      <c r="E188" s="0">
+        <v>0.48557400314656829</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>0.24246799819574905</v>
+      </c>
+      <c r="B189" s="0">
+        <v>0.5176372886751488</v>
+      </c>
+      <c r="C189" s="0">
+        <v>12</v>
+      </c>
+      <c r="D189" s="0">
+        <v>6.1808338667053677</v>
+      </c>
+      <c r="E189" s="0">
+        <v>-0.054590298397340628</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B190" s="0">
+        <v>1.2666327803745165</v>
+      </c>
+      <c r="C190" s="0">
+        <v>19</v>
+      </c>
+      <c r="D190" s="0">
+        <v>3.3824183074177836</v>
+      </c>
+      <c r="E190" s="0">
+        <v>-0.12191220040286049</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B191" s="0">
+        <v>-0.12984685524361328</v>
+      </c>
+      <c r="C191" s="0">
+        <v>9</v>
+      </c>
+      <c r="D191" s="0">
+        <v>5.8377039996558464</v>
+      </c>
+      <c r="E191" s="0">
+        <v>-0.06024133641633625</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B192" s="0">
+        <v>-0.024217557538366911</v>
+      </c>
+      <c r="C192" s="0">
+        <v>19</v>
+      </c>
+      <c r="D192" s="0">
+        <v>5.3400666324001858</v>
+      </c>
+      <c r="E192" s="0">
+        <v>-0.07721964666850599</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B193" s="0">
+        <v>-0.60407374330859998</v>
+      </c>
+      <c r="C193" s="0">
+        <v>7</v>
+      </c>
+      <c r="D193" s="0">
+        <v>4.2377781500791523</v>
+      </c>
+      <c r="E193" s="0">
+        <v>-0.073901704460925061</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B194" s="0">
+        <v>0.82894809060142138</v>
+      </c>
+      <c r="C194" s="0">
+        <v>20</v>
+      </c>
+      <c r="D194" s="0">
+        <v>3.6738114483606843</v>
+      </c>
+      <c r="E194" s="0">
+        <v>-0.10123333917117981</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B195" s="0">
+        <v>0.35838108580530298</v>
+      </c>
+      <c r="C195" s="0">
+        <v>23</v>
+      </c>
+      <c r="D195" s="0">
+        <v>2.2612212859300835</v>
+      </c>
+      <c r="E195" s="0">
+        <v>-0.27479734505575576</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B196" s="0">
+        <v>0.7438977961122627</v>
+      </c>
+      <c r="C196" s="0">
+        <v>15</v>
+      </c>
+      <c r="D196" s="0">
+        <v>6.0054087703428332</v>
+      </c>
+      <c r="E196" s="0">
+        <v>-0.056232562005901196</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B197" s="0">
+        <v>-0.16714298744681103</v>
+      </c>
+      <c r="C197" s="0">
+        <v>2</v>
+      </c>
+      <c r="D197" s="0">
+        <v>5.7871454050452158</v>
+      </c>
+      <c r="E197" s="0">
+        <v>5.4251480019451446</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B198" s="0">
+        <v>0.25870294672434607</v>
+      </c>
+      <c r="C198" s="0">
+        <v>6</v>
+      </c>
+      <c r="D198" s="0">
+        <v>8.3808266827433968</v>
+      </c>
+      <c r="E198" s="0">
+        <v>-0.036044590187821371</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B199" s="0">
+        <v>1.5352389651285177</v>
+      </c>
+      <c r="C199" s="0">
+        <v>27</v>
+      </c>
+      <c r="D199" s="0">
+        <v>1.1064534567127664</v>
+      </c>
+      <c r="E199" s="0">
+        <v>-0.94290666269097978</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>0.6403338824704411</v>
+      </c>
+      <c r="B200" s="0">
+        <v>-0.24294183633425487</v>
+      </c>
+      <c r="C200" s="0">
+        <v>4</v>
+      </c>
+      <c r="D200" s="0">
+        <v>5.5499976374047302</v>
+      </c>
+      <c r="E200" s="0">
+        <v>0.021171153248522364</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B201" s="0">
+        <v>0.076297728161884917</v>
+      </c>
+      <c r="C201" s="0">
+        <v>2</v>
+      </c>
+      <c r="D201" s="0">
+        <v>8.1197508849190569</v>
+      </c>
+      <c r="E201" s="0">
+        <v>3.8666359074463226</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>0.6403338824704411</v>
+      </c>
+      <c r="B202" s="0">
+        <v>-0.16947748759865222</v>
+      </c>
+      <c r="C202" s="0">
+        <v>13</v>
+      </c>
+      <c r="D202" s="0">
+        <v>5.8365019357781307</v>
+      </c>
+      <c r="E202" s="0">
+        <v>-0.057788041130012832</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B203" s="0">
+        <v>-0.60741147851924526</v>
+      </c>
+      <c r="C203" s="0">
+        <v>5</v>
+      </c>
+      <c r="D203" s="0">
+        <v>4.8745780135569925</v>
+      </c>
+      <c r="E203" s="0">
+        <v>-0.047999218098459279</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B204" s="0">
+        <v>1.0523098771175934</v>
+      </c>
+      <c r="C204" s="0">
+        <v>18</v>
+      </c>
+      <c r="D204" s="0">
+        <v>4.2186457394632759</v>
+      </c>
+      <c r="E204" s="0">
+        <v>-0.086146245504307217</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>0.8464542760951107</v>
+      </c>
+      <c r="B205" s="0">
+        <v>-0.56563590780688588</v>
+      </c>
+      <c r="C205" s="0">
+        <v>19</v>
+      </c>
+      <c r="D205" s="0">
+        <v>3.5021242823810135</v>
+      </c>
+      <c r="E205" s="0">
+        <v>-0.11774512418498988</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>0.18526538021141981</v>
+      </c>
+      <c r="B206" s="0">
+        <v>0.95545921449928228</v>
+      </c>
+      <c r="C206" s="0">
+        <v>9</v>
+      </c>
+      <c r="D206" s="0">
+        <v>6.6171797281769411</v>
+      </c>
+      <c r="E206" s="0">
+        <v>-0.053145162287914202</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B207" s="0">
+        <v>1.1853704730708066</v>
+      </c>
+      <c r="C207" s="0">
+        <v>2</v>
+      </c>
+      <c r="D207" s="0">
+        <v>6.3442383929228257</v>
+      </c>
+      <c r="E207" s="0">
+        <v>4.9487611257121618</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B208" s="0">
+        <v>-0.51243422598792499</v>
+      </c>
+      <c r="C208" s="0">
+        <v>27</v>
+      </c>
+      <c r="D208" s="0">
+        <v>1.4937623631209171</v>
+      </c>
+      <c r="E208" s="0">
+        <v>-0.69842590899947676</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B209" s="0">
+        <v>0.16584557784180462</v>
+      </c>
+      <c r="C209" s="0">
+        <v>2</v>
+      </c>
+      <c r="D209" s="0">
+        <v>8.3998194451720618</v>
+      </c>
+      <c r="E209" s="0">
+        <v>3.7377137135004168</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B210" s="0">
+        <v>1.1139285105216636</v>
+      </c>
+      <c r="C210" s="0">
+        <v>17</v>
+      </c>
+      <c r="D210" s="0">
+        <v>4.7613468379501311</v>
+      </c>
+      <c r="E210" s="0">
+        <v>-0.077232493000336355</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B211" s="0">
+        <v>0.27119899278125026</v>
+      </c>
+      <c r="C211" s="0">
+        <v>17</v>
+      </c>
+      <c r="D211" s="0">
+        <v>5.9810151059008989</v>
+      </c>
+      <c r="E211" s="0">
+        <v>-0.061482989061731712</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B212" s="0">
+        <v>0.25910625009780508</v>
+      </c>
+      <c r="C212" s="0">
+        <v>8</v>
+      </c>
+      <c r="D212" s="0">
+        <v>8.0480749522440131</v>
+      </c>
+      <c r="E212" s="0">
+        <v>-0.040656653164255346</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B213" s="0">
+        <v>1.0661084946923056</v>
+      </c>
+      <c r="C213" s="0">
+        <v>19</v>
+      </c>
+      <c r="D213" s="0">
+        <v>4.4782204484742545</v>
+      </c>
+      <c r="E213" s="0">
+        <v>-0.092080785947175253</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B214" s="0">
+        <v>0.24018558423573688</v>
+      </c>
+      <c r="C214" s="0">
+        <v>2</v>
+      </c>
+      <c r="D214" s="0">
+        <v>8.4931398188162728</v>
+      </c>
+      <c r="E214" s="0">
+        <v>3.6966447039515353</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>0.6403338824704411</v>
+      </c>
+      <c r="B215" s="0">
+        <v>-0.25929874158684352</v>
+      </c>
+      <c r="C215" s="0">
+        <v>2</v>
+      </c>
+      <c r="D215" s="0">
+        <v>5.5475307374179401</v>
+      </c>
+      <c r="E215" s="0">
+        <v>5.6594765882739724</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B216" s="0">
+        <v>0.13857684460079744</v>
+      </c>
+      <c r="C216" s="0">
+        <v>13</v>
+      </c>
+      <c r="D216" s="0">
+        <v>7.128372739129877</v>
+      </c>
+      <c r="E216" s="0">
+        <v>-0.047315148388454797</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B217" s="0">
+        <v>0.96166318704445908</v>
+      </c>
+      <c r="C217" s="0">
+        <v>9</v>
+      </c>
+      <c r="D217" s="0">
+        <v>6.2732522548599077</v>
+      </c>
+      <c r="E217" s="0">
+        <v>-0.056058815468454801</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B218" s="0">
+        <v>0.64071888106062647</v>
+      </c>
+      <c r="C218" s="0">
+        <v>6</v>
+      </c>
+      <c r="D218" s="0">
+        <v>7.38706106330085</v>
+      </c>
+      <c r="E218" s="0">
+        <v>-0.040893592272494436</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B219" s="0">
+        <v>1.1999246620052644</v>
+      </c>
+      <c r="C219" s="0">
+        <v>6</v>
+      </c>
+      <c r="D219" s="0">
+        <v>4.7813882355941439</v>
+      </c>
+      <c r="E219" s="0">
+        <v>-0.063179028418115221</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B220" s="0">
+        <v>0.19263016767344118</v>
+      </c>
+      <c r="C220" s="0">
+        <v>3</v>
+      </c>
+      <c r="D220" s="0">
+        <v>8.9333986285515348</v>
+      </c>
+      <c r="E220" s="0">
+        <v>0.36775479975929637</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B221" s="0">
+        <v>-0.58485468798353879</v>
+      </c>
+      <c r="C221" s="0">
+        <v>12</v>
+      </c>
+      <c r="D221" s="0">
+        <v>3.9004965426452429</v>
+      </c>
+      <c r="E221" s="0">
+        <v>-0.086505285016611561</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B222" s="0">
+        <v>1.2236333836510676</v>
+      </c>
+      <c r="C222" s="0">
+        <v>14</v>
+      </c>
+      <c r="D222" s="0">
+        <v>4.5497345536959086</v>
+      </c>
+      <c r="E222" s="0">
+        <v>-0.074169236944752526</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B223" s="0">
+        <v>0.10675696562724146</v>
+      </c>
+      <c r="C223" s="0">
+        <v>8</v>
+      </c>
+      <c r="D223" s="0">
+        <v>7.835620084224816</v>
+      </c>
+      <c r="E223" s="0">
+        <v>-0.041759016957965064</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B224" s="0">
+        <v>1.0234222106048467</v>
+      </c>
+      <c r="C224" s="0">
+        <v>9</v>
+      </c>
+      <c r="D224" s="0">
+        <v>5.8098335185997518</v>
+      </c>
+      <c r="E224" s="0">
+        <v>-0.060530321465565334</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B225" s="0">
+        <v>-0.57587118064615839</v>
+      </c>
+      <c r="C225" s="0">
+        <v>14</v>
+      </c>
+      <c r="D225" s="0">
+        <v>3.8909825751869369</v>
+      </c>
+      <c r="E225" s="0">
+        <v>-0.086726253235042405</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B226" s="0">
+        <v>0.10542347654599105</v>
+      </c>
+      <c r="C226" s="0">
+        <v>9</v>
+      </c>
+      <c r="D226" s="0">
+        <v>7.5013182587039875</v>
+      </c>
+      <c r="E226" s="0">
+        <v>-0.04688123852553594</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B227" s="0">
+        <v>1.2236592227840994</v>
+      </c>
+      <c r="C227" s="0">
+        <v>15</v>
+      </c>
+      <c r="D227" s="0">
+        <v>4.1363887830664012</v>
+      </c>
+      <c r="E227" s="0">
+        <v>-0.081641146120394831</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B228" s="0">
+        <v>-0.43830361711877391</v>
+      </c>
+      <c r="C228" s="0">
+        <v>30</v>
+      </c>
+      <c r="D228" s="0">
+        <v>1.1614312344461726</v>
+      </c>
+      <c r="E228" s="0">
+        <v>-0.88296682974017937</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B229" s="0">
+        <v>0.21956056561692422</v>
+      </c>
+      <c r="C229" s="0">
+        <v>9</v>
+      </c>
+      <c r="D229" s="0">
+        <v>7.749118404036496</v>
+      </c>
+      <c r="E229" s="0">
+        <v>-0.045382077315927312</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B230" s="0">
+        <v>0.91493069986523001</v>
+      </c>
+      <c r="C230" s="0">
+        <v>4</v>
+      </c>
+      <c r="D230" s="0">
+        <v>5.4287622730113938</v>
+      </c>
+      <c r="E230" s="0">
+        <v>0.021643948399540831</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B231" s="0">
+        <v>1.017996095734002</v>
+      </c>
+      <c r="C231" s="0">
+        <v>15</v>
+      </c>
+      <c r="D231" s="0">
+        <v>5.0996552599911684</v>
+      </c>
+      <c r="E231" s="0">
+        <v>-0.066220068579630045</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B232" s="0">
+        <v>0.29075731768200647</v>
+      </c>
+      <c r="C232" s="0">
+        <v>16</v>
+      </c>
+      <c r="D232" s="0">
+        <v>8.0618651578663894</v>
+      </c>
+      <c r="E232" s="0">
+        <v>-0.04565924307976419</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B233" s="0">
+        <v>0.11567372988459293</v>
+      </c>
+      <c r="C233" s="0">
+        <v>10</v>
+      </c>
+      <c r="D233" s="0">
+        <v>7.1612308930821271</v>
+      </c>
+      <c r="E233" s="0">
+        <v>-0.050153872903170665</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B234" s="0">
+        <v>-0.60378426499506088</v>
+      </c>
+      <c r="C234" s="0">
+        <v>8</v>
+      </c>
+      <c r="D234" s="0">
+        <v>3.2182972586225191</v>
+      </c>
+      <c r="E234" s="0">
+        <v>-0.10167109054225952</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>0.21534852927638193</v>
+      </c>
+      <c r="B235" s="0">
+        <v>0.78392556778412448</v>
+      </c>
+      <c r="C235" s="0">
+        <v>18</v>
+      </c>
+      <c r="D235" s="0">
+        <v>5.1351406943022759</v>
+      </c>
+      <c r="E235" s="0">
+        <v>-0.070771282269001562</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>0.25750860419278265</v>
+      </c>
+      <c r="B236" s="0">
+        <v>0.51940537903908246</v>
+      </c>
+      <c r="C236" s="0">
+        <v>13</v>
+      </c>
+      <c r="D236" s="0">
+        <v>7.1915247234522592</v>
+      </c>
+      <c r="E236" s="0">
+        <v>-0.046899652979046753</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>0.24246799819574905</v>
+      </c>
+      <c r="B237" s="0">
+        <v>0.49665063516935354</v>
+      </c>
+      <c r="C237" s="0">
+        <v>8</v>
+      </c>
+      <c r="D237" s="0">
+        <v>7.7968809865678459</v>
+      </c>
+      <c r="E237" s="0">
+        <v>-0.041966498210889228</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B238" s="0">
+        <v>0.2302488456632189</v>
+      </c>
+      <c r="C238" s="0">
+        <v>26</v>
+      </c>
+      <c r="D238" s="0">
+        <v>2.3089444463986268</v>
+      </c>
+      <c r="E238" s="0">
+        <v>-0.37132685947137911</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B239" s="0">
+        <v>0.075076262065909186</v>
+      </c>
+      <c r="C239" s="0">
+        <v>1</v>
+      </c>
+      <c r="D239" s="0">
+        <v>8.950690964233198</v>
+      </c>
+      <c r="E239" s="0">
+        <v>33.516965472140043</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B240" s="0">
+        <v>0.14169520179225656</v>
+      </c>
+      <c r="C240" s="0">
+        <v>15</v>
+      </c>
+      <c r="D240" s="0">
+        <v>6.2117961241926967</v>
+      </c>
+      <c r="E240" s="0">
+        <v>-0.054364231262173733</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B241" s="0">
+        <v>0.061034780659872057</v>
+      </c>
+      <c r="C241" s="0">
+        <v>1</v>
+      </c>
+      <c r="D241" s="0">
+        <v>8.8518603137006817</v>
+      </c>
+      <c r="E241" s="0">
+        <v>33.891180991149142</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B242" s="0">
+        <v>0.99452672142197873</v>
+      </c>
+      <c r="C242" s="0">
+        <v>7</v>
+      </c>
+      <c r="D242" s="0">
+        <v>5.0346848357027438</v>
+      </c>
+      <c r="E242" s="0">
+        <v>-0.06220429652264451</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B243" s="0">
+        <v>-0.5747486699973442</v>
+      </c>
+      <c r="C243" s="0">
+        <v>15</v>
+      </c>
+      <c r="D243" s="0">
+        <v>2.859469518285537</v>
+      </c>
+      <c r="E243" s="0">
+        <v>-0.11809866091930298</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B244" s="0">
+        <v>0.36156984439394596</v>
+      </c>
+      <c r="C244" s="0">
+        <v>27</v>
+      </c>
+      <c r="D244" s="0">
+        <v>2.2354445220153352</v>
+      </c>
+      <c r="E244" s="0">
+        <v>-0.46670016903455774</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B245" s="0">
+        <v>0.15859181622422927</v>
+      </c>
+      <c r="C245" s="0">
+        <v>16</v>
+      </c>
+      <c r="D245" s="0">
+        <v>7.8421819657158407</v>
+      </c>
+      <c r="E245" s="0">
+        <v>-0.046938296322189793</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B246" s="0">
+        <v>0.88882932588229024</v>
+      </c>
+      <c r="C246" s="0">
+        <v>2</v>
+      </c>
+      <c r="D246" s="0">
+        <v>8.4613330128749382</v>
+      </c>
+      <c r="E246" s="0">
+        <v>3.7105406776183014</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B247" s="0">
+        <v>1.2820390923094451</v>
+      </c>
+      <c r="C247" s="0">
+        <v>22</v>
+      </c>
+      <c r="D247" s="0">
+        <v>1.2486389590456954</v>
+      </c>
+      <c r="E247" s="0">
+        <v>-0.37137760595714897</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B248" s="0">
+        <v>0.33335712352239644</v>
+      </c>
+      <c r="C248" s="0">
+        <v>21</v>
+      </c>
+      <c r="D248" s="0">
+        <v>4.7549662958453558</v>
+      </c>
+      <c r="E248" s="0">
+        <v>-0.090332567893159826</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B249" s="0">
+        <v>-0.51884317978531391</v>
+      </c>
+      <c r="C249" s="0">
+        <v>23</v>
+      </c>
+      <c r="D249" s="0">
+        <v>1.4844858528575218</v>
+      </c>
+      <c r="E249" s="0">
+        <v>-0.41858102235265132</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B250" s="0">
+        <v>0.99885558369911642</v>
+      </c>
+      <c r="C250" s="0">
+        <v>8</v>
+      </c>
+      <c r="D250" s="0">
+        <v>5.6182873006156182</v>
+      </c>
+      <c r="E250" s="0">
+        <v>-0.058239775658582335</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B251" s="0">
+        <v>-0.10051373495876467</v>
+      </c>
+      <c r="C251" s="0">
+        <v>12</v>
+      </c>
+      <c r="D251" s="0">
+        <v>5.6311362435796903</v>
+      </c>
+      <c r="E251" s="0">
+        <v>-0.059919268604544058</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B252" s="0">
+        <v>0.42511386782407645</v>
+      </c>
+      <c r="C252" s="0">
+        <v>24</v>
+      </c>
+      <c r="D252" s="0">
+        <v>3.1899094335290905</v>
+      </c>
+      <c r="E252" s="0">
+        <v>-0.23424718382652943</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B253" s="0">
+        <v>-0.60407374330859998</v>
+      </c>
+      <c r="C253" s="0">
+        <v>7</v>
+      </c>
+      <c r="D253" s="0">
+        <v>4.2377781500791523</v>
+      </c>
+      <c r="E253" s="0">
+        <v>-0.073901704460925061</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B254" s="0">
+        <v>0.25794759310044429</v>
+      </c>
+      <c r="C254" s="0">
+        <v>5</v>
+      </c>
+      <c r="D254" s="0">
+        <v>8.8149885881806558</v>
+      </c>
+      <c r="E254" s="0">
+        <v>-0.026542964959069479</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B255" s="0">
+        <v>0.24478598660022863</v>
+      </c>
+      <c r="C255" s="0">
+        <v>3</v>
+      </c>
+      <c r="D255" s="0">
+        <v>8.9395960821477374</v>
+      </c>
+      <c r="E255" s="0">
+        <v>0.3674998505104326</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>0.25750860419278265</v>
+      </c>
+      <c r="B256" s="0">
+        <v>0.55489515872768913</v>
+      </c>
+      <c r="C256" s="0">
+        <v>16</v>
+      </c>
+      <c r="D256" s="0">
+        <v>7.8499439358513534</v>
+      </c>
+      <c r="E256" s="0">
+        <v>-0.046891884060237102</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B257" s="0">
+        <v>1.267830096800149</v>
+      </c>
+      <c r="C257" s="0">
+        <v>20</v>
+      </c>
+      <c r="D257" s="0">
+        <v>2.0716074723418534</v>
+      </c>
+      <c r="E257" s="0">
+        <v>-0.1795283157491373</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B258" s="0">
+        <v>0.25909152473116454</v>
+      </c>
+      <c r="C258" s="0">
+        <v>7</v>
+      </c>
+      <c r="D258" s="0">
+        <v>7.5114253144599905</v>
+      </c>
+      <c r="E258" s="0">
+        <v>-0.041693688655230973</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B259" s="0">
+        <v>-0.49352981880144869</v>
+      </c>
+      <c r="C259" s="0">
+        <v>29</v>
+      </c>
+      <c r="D259" s="0">
+        <v>1.3802065877608425</v>
+      </c>
+      <c r="E259" s="0">
+        <v>-0.77550525504015988</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B260" s="0">
+        <v>0.16436849417636132</v>
+      </c>
+      <c r="C260" s="0">
+        <v>19</v>
+      </c>
+      <c r="D260" s="0">
+        <v>6.453603366849185</v>
+      </c>
+      <c r="E260" s="0">
+        <v>-0.063895785826941026</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B261" s="0">
+        <v>1.1567611939381872</v>
+      </c>
+      <c r="C261" s="0">
+        <v>1</v>
+      </c>
+      <c r="D261" s="0">
+        <v>6.7299209707847734</v>
+      </c>
+      <c r="E261" s="0">
+        <v>44.577046491679248</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>0.24246799819574905</v>
+      </c>
+      <c r="B262" s="0">
+        <v>0.45922277454501459</v>
+      </c>
+      <c r="C262" s="0">
+        <v>3</v>
+      </c>
+      <c r="D262" s="0">
+        <v>8.8198123285099985</v>
+      </c>
+      <c r="E262" s="0">
+        <v>0.37249094441536201</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B263" s="0">
+        <v>1.4011903321662453</v>
+      </c>
+      <c r="C263" s="0">
+        <v>26</v>
+      </c>
+      <c r="D263" s="0">
+        <v>1.0807918577674789</v>
+      </c>
+      <c r="E263" s="0">
+        <v>-0.7932823362919329</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B264" s="0">
+        <v>-0.4277618341311285</v>
+      </c>
+      <c r="C264" s="0">
+        <v>31</v>
+      </c>
+      <c r="D264" s="0">
+        <v>1</v>
+      </c>
+      <c r="E264" s="0">
+        <v>-1.1329668297401794</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B265" s="0">
+        <v>0.28404301984494074</v>
+      </c>
+      <c r="C265" s="0">
+        <v>19</v>
+      </c>
+      <c r="D265" s="0">
+        <v>6.5630935990500534</v>
+      </c>
+      <c r="E265" s="0">
+        <v>-0.062829830523810595</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B266" s="0">
+        <v>0.99379128906625092</v>
+      </c>
+      <c r="C266" s="0">
+        <v>6</v>
+      </c>
+      <c r="D266" s="0">
+        <v>5.8370636957796513</v>
+      </c>
+      <c r="E266" s="0">
+        <v>-0.051752641218059413</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B267" s="0">
+        <v>1.2152661708839723</v>
+      </c>
+      <c r="C267" s="0">
+        <v>9</v>
+      </c>
+      <c r="D267" s="0">
+        <v>4.7998536877178273</v>
+      </c>
+      <c r="E267" s="0">
+        <v>-0.073267043835552326</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B268" s="0">
+        <v>0.97523295016327727</v>
+      </c>
+      <c r="C268" s="0">
+        <v>12</v>
+      </c>
+      <c r="D268" s="0">
+        <v>5.1381141323343646</v>
+      </c>
+      <c r="E268" s="0">
+        <v>-0.065668756364222661</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>0.6403338824704411</v>
+      </c>
+      <c r="B269" s="0">
+        <v>-0.2353501685599857</v>
+      </c>
+      <c r="C269" s="0">
+        <v>5</v>
+      </c>
+      <c r="D269" s="0">
+        <v>7.4919395131134525</v>
+      </c>
+      <c r="E269" s="0">
+        <v>-0.031230355344051924</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B270" s="0">
+        <v>0.29147491422688443</v>
+      </c>
+      <c r="C270" s="0">
+        <v>17</v>
+      </c>
+      <c r="D270" s="0">
+        <v>5.9973286538181716</v>
+      </c>
+      <c r="E270" s="0">
+        <v>-0.061315746986792707</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B271" s="0">
+        <v>0.3263732983327185</v>
+      </c>
+      <c r="C271" s="0">
+        <v>29</v>
+      </c>
+      <c r="D271" s="0">
+        <v>2.092429658940167</v>
+      </c>
+      <c r="E271" s="0">
+        <v>-0.51153808553436675</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B272" s="0">
+        <v>0.10362576982796952</v>
+      </c>
+      <c r="C272" s="0">
+        <v>8</v>
+      </c>
+      <c r="D272" s="0">
+        <v>7.8031575947775504</v>
+      </c>
+      <c r="E272" s="0">
+        <v>-0.041932741713727191</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>0.24246799819574905</v>
+      </c>
+      <c r="B273" s="0">
+        <v>0.65661952040483018</v>
+      </c>
+      <c r="C273" s="0">
+        <v>18</v>
+      </c>
+      <c r="D273" s="0">
+        <v>5.2935323522550837</v>
+      </c>
+      <c r="E273" s="0">
+        <v>-0.068653682906591323</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>0.050610203773762907</v>
+      </c>
+      <c r="B274" s="0">
+        <v>1.0290011481840005</v>
+      </c>
+      <c r="C274" s="0">
+        <v>10</v>
+      </c>
+      <c r="D274" s="0">
+        <v>5.0050440238212248</v>
+      </c>
+      <c r="E274" s="0">
+        <v>-0.071760300675175304</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B275" s="0">
+        <v>1.2184972801373146</v>
+      </c>
+      <c r="C275" s="0">
+        <v>10</v>
+      </c>
+      <c r="D275" s="0">
+        <v>4.1083533747204442</v>
+      </c>
+      <c r="E275" s="0">
+        <v>-0.087422729079710645</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B276" s="0">
+        <v>0.073675911006704439</v>
+      </c>
+      <c r="C276" s="0">
+        <v>4</v>
+      </c>
+      <c r="D276" s="0">
+        <v>7.1447519516288915</v>
+      </c>
+      <c r="E276" s="0">
+        <v>0.016445616489687159</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B277" s="0">
+        <v>0.20279059044097403</v>
+      </c>
+      <c r="C277" s="0">
+        <v>24</v>
+      </c>
+      <c r="D277" s="0">
+        <v>3.1142650078799181</v>
+      </c>
+      <c r="E277" s="0">
+        <v>-0.23993696733424599</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B278" s="0">
+        <v>1.1567611939381872</v>
+      </c>
+      <c r="C278" s="0">
+        <v>1</v>
+      </c>
+      <c r="D278" s="0">
+        <v>6.7299209707847734</v>
+      </c>
+      <c r="E278" s="0">
+        <v>44.577046491679248</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B279" s="0">
+        <v>0.32611322072018178</v>
+      </c>
+      <c r="C279" s="0">
+        <v>21</v>
+      </c>
+      <c r="D279" s="0">
+        <v>4.7598443539020003</v>
+      </c>
+      <c r="E279" s="0">
+        <v>-0.090239991859612137</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B280" s="0">
+        <v>0.30816215647635231</v>
+      </c>
+      <c r="C280" s="0">
+        <v>28</v>
+      </c>
+      <c r="D280" s="0">
+        <v>2.1820383449826051</v>
+      </c>
+      <c r="E280" s="0">
+        <v>-0.54669372123269877</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B281" s="0">
+        <v>-0.14138080137912401</v>
+      </c>
+      <c r="C281" s="0">
+        <v>7</v>
+      </c>
+      <c r="D281" s="0">
+        <v>6.3520745515797481</v>
+      </c>
+      <c r="E281" s="0">
+        <v>-0.04930342455445965</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B282" s="0">
+        <v>0.22674988298800597</v>
+      </c>
+      <c r="C282" s="0">
+        <v>26</v>
+      </c>
+      <c r="D282" s="0">
+        <v>2.309796884418442</v>
+      </c>
+      <c r="E282" s="0">
+        <v>-0.37118982009145474</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>0.10082679754625412</v>
+      </c>
+      <c r="B283" s="0">
+        <v>0.88882932588229024</v>
+      </c>
+      <c r="C283" s="0">
+        <v>2</v>
+      </c>
+      <c r="D283" s="0">
+        <v>8.4613330128749382</v>
+      </c>
+      <c r="E283" s="0">
+        <v>3.7105406776183014</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B284" s="0">
+        <v>0.16101281882309376</v>
+      </c>
+      <c r="C284" s="0">
+        <v>17</v>
+      </c>
+      <c r="D284" s="0">
+        <v>5.7693115994960866</v>
+      </c>
+      <c r="E284" s="0">
+        <v>-0.063739092609641002</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B285" s="0">
+        <v>-0.57915930726356735</v>
+      </c>
+      <c r="C285" s="0">
+        <v>13</v>
+      </c>
+      <c r="D285" s="0">
+        <v>3.902954058608048</v>
+      </c>
+      <c r="E285" s="0">
+        <v>-0.086416598518823939</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>0.44665336185412008</v>
+      </c>
+      <c r="B286" s="0">
+        <v>0.18112160890229698</v>
+      </c>
+      <c r="C286" s="0">
+        <v>20</v>
+      </c>
+      <c r="D286" s="0">
+        <v>4.9455836974548602</v>
+      </c>
+      <c r="E286" s="0">
+        <v>-0.07520087074742203</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>0.18526538021141981</v>
+      </c>
+      <c r="B287" s="0">
+        <v>0.93456257252312747</v>
+      </c>
+      <c r="C287" s="0">
+        <v>6</v>
+      </c>
+      <c r="D287" s="0">
+        <v>6.6362733202911111</v>
+      </c>
+      <c r="E287" s="0">
+        <v>-0.045520045458494286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B288" s="0">
+        <v>-0.51303123446432441</v>
+      </c>
+      <c r="C288" s="0">
+        <v>26</v>
+      </c>
+      <c r="D288" s="0">
+        <v>1.5574215341958491</v>
+      </c>
+      <c r="E288" s="0">
+        <v>-0.55050804881658177</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>0.43160825691395921</v>
+      </c>
+      <c r="B289" s="0">
+        <v>0.29918997873931408</v>
+      </c>
+      <c r="C289" s="0">
+        <v>20</v>
+      </c>
+      <c r="D289" s="0">
+        <v>4.9566961474171087</v>
+      </c>
+      <c r="E289" s="0">
+        <v>-0.075032277416613627</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B290" s="0">
+        <v>-0.60639226408735802</v>
+      </c>
+      <c r="C290" s="0">
+        <v>6</v>
+      </c>
+      <c r="D290" s="0">
+        <v>6.2319897380950735</v>
+      </c>
+      <c r="E290" s="0">
+        <v>-0.0484730360462663</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>0.94920677077908688</v>
+      </c>
+      <c r="B291" s="0">
+        <v>1.1372030881045012</v>
+      </c>
+      <c r="C291" s="0">
+        <v>35</v>
+      </c>
+      <c r="D291" s="0">
+        <v>1</v>
+      </c>
+      <c r="E291" s="0">
+        <v>-1.4489857247680913</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B292" s="0">
+        <v>-0.37341591853525491</v>
+      </c>
+      <c r="C292" s="0">
+        <v>32</v>
+      </c>
+      <c r="D292" s="0">
+        <v>1.9785337249899038</v>
+      </c>
+      <c r="E292" s="0">
+        <v>-0.69898572476809129</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B293" s="0">
+        <v>-0.60639226408735802</v>
+      </c>
+      <c r="C293" s="0">
+        <v>6</v>
+      </c>
+      <c r="D293" s="0">
+        <v>6.2319897380950735</v>
+      </c>
+      <c r="E293" s="0">
+        <v>-0.0484730360462663</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>0.45337147860386384</v>
+      </c>
+      <c r="B294" s="0">
+        <v>0.58223760030121696</v>
+      </c>
+      <c r="C294" s="0">
+        <v>30</v>
+      </c>
+      <c r="D294" s="0">
+        <v>1.1614312344461726</v>
+      </c>
+      <c r="E294" s="0">
+        <v>-0.88296682974017937</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>0.24246799819574905</v>
+      </c>
+      <c r="B295" s="0">
+        <v>0.56275677568758675</v>
+      </c>
+      <c r="C295" s="0">
+        <v>16</v>
+      </c>
+      <c r="D295" s="0">
+        <v>7.7947478643248047</v>
+      </c>
+      <c r="E295" s="0">
+        <v>-0.047223934285806221</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>0.8464542760951107</v>
+      </c>
+      <c r="B296" s="0">
+        <v>-0.40762203183295098</v>
+      </c>
+      <c r="C296" s="0">
+        <v>32</v>
+      </c>
+      <c r="D296" s="0">
+        <v>1.9785337249899038</v>
+      </c>
+      <c r="E296" s="0">
+        <v>-0.69898572476809129</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>0.84391347324319133</v>
+      </c>
+      <c r="B297" s="0">
+        <v>-0.49874518841998638</v>
+      </c>
+      <c r="C297" s="0">
+        <v>28</v>
+      </c>
+      <c r="D297" s="0">
+        <v>1.4541303250920006</v>
+      </c>
+      <c r="E297" s="0">
+        <v>-0.82035746184958103</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>0.42492579055800994</v>
+      </c>
+      <c r="B298" s="0">
+        <v>0.23654472260431658</v>
+      </c>
+      <c r="C298" s="0">
+        <v>1</v>
+      </c>
+      <c r="D298" s="0">
+        <v>9.4168029651415583</v>
+      </c>
+      <c r="E298" s="0">
+        <v>31.85794596218253</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>0.0055475916383922463</v>
+      </c>
+      <c r="B299" s="0">
+        <v>1.2643094204528349</v>
+      </c>
+      <c r="C299" s="0">
+        <v>18</v>
+      </c>
+      <c r="D299" s="0">
+        <v>3.2800777385569937</v>
+      </c>
+      <c r="E299" s="0">
+        <v>-0.11079630439715821</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>0.63195549097742654</v>
+      </c>
+      <c r="B300" s="0">
+        <v>-0.053172728432805634</v>
+      </c>
+      <c r="C300" s="0">
+        <v>16</v>
+      </c>
+      <c r="D300" s="0">
+        <v>6.1776945655274265</v>
+      </c>
+      <c r="E300" s="0">
+        <v>-0.059585118204670613</v>
       </c>
     </row>
   </sheetData>

--- a/Jon_Updates/population_data.xlsx
+++ b/Jon_Updates/population_data.xlsx
@@ -56,5111 +56,5111 @@
   <dimension ref="A1:E300"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.37890625" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.37890625" customWidth="true"/>
     <col min="3" max="3" width="3.15625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.37890625" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.61139611361812118</v>
+        <v>-0.50189756497211746</v>
       </c>
       <c r="C1" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0">
-        <v>4.2628371141311305</v>
+        <v>6.6972921464467206</v>
       </c>
       <c r="E1" s="0">
-        <v>0.77068396841209497</v>
+        <v>4.4455821350599916</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B2" s="0">
-        <v>1.1567611939381872</v>
+        <v>-0.1828699402204523</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0">
-        <v>6.7299209707847716</v>
+        <v>6.6438050222662914</v>
       </c>
       <c r="E2" s="0">
-        <v>44.577046491679262</v>
+        <v>0.0036865148476423145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B3" s="0">
-        <v>0.99207076546671191</v>
+        <v>1.3892354314537396</v>
       </c>
       <c r="C3" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>5.5803965375431162</v>
+        <v>10.558415696512188</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.041928191238124662</v>
+        <v>2.8198702509275422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.2353501685599857</v>
+        <v>-0.13122125298206033</v>
       </c>
       <c r="C4" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>7.4919395131134525</v>
+        <v>7.5387608735160292</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.031230355344051924</v>
+        <v>39.794338225252915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.15106845625456156</v>
+        <v>1.3243453811744643</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>5.7692319505616307</v>
+        <v>8.3474437146626457</v>
       </c>
       <c r="E5" s="0">
-        <v>0.020366636584787351</v>
+        <v>35.939146193107838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B6" s="0">
-        <v>0.88882932588229024</v>
+        <v>1.3160751687375254</v>
       </c>
       <c r="C6" s="0">
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>8.46133301287494</v>
+        <v>10.894055929855647</v>
       </c>
       <c r="E6" s="0">
-        <v>3.7105406776183005</v>
+        <v>2.7329915057555283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B7" s="0">
-        <v>0.6308293037795536</v>
+        <v>-0.031676884442908178</v>
       </c>
       <c r="C7" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0">
-        <v>6.5685717515379896</v>
+        <v>8.0928252517670014</v>
       </c>
       <c r="E7" s="0">
-        <v>0.017888188628360609</v>
+        <v>-0.030570803148146902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068467823732031807</v>
+        <v>0.068400318115023964</v>
       </c>
       <c r="C8" s="0">
         <v>3</v>
       </c>
       <c r="D8" s="0">
-        <v>8.6825841528403185</v>
+        <v>7.7141284810373278</v>
       </c>
       <c r="E8" s="0">
-        <v>0.37837816092323479</v>
+        <v>0.31932896654387333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B9" s="0">
-        <v>0.45922277454501459</v>
+        <v>1.2558736107536677</v>
       </c>
       <c r="C9" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0">
-        <v>8.8198123285099967</v>
+        <v>8.6680991962984528</v>
       </c>
       <c r="E9" s="0">
-        <v>0.37249094441536207</v>
+        <v>34.60966391894884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.097630982831353297</v>
       </c>
       <c r="B10" s="0">
-        <v>0.45922277454501459</v>
+        <v>1.2302805713791982</v>
       </c>
       <c r="C10" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0">
-        <v>8.8198123285099967</v>
+        <v>7.565438901387382</v>
       </c>
       <c r="E10" s="0">
-        <v>0.37249094441536207</v>
+        <v>0.0032374177068476128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B11" s="0">
-        <v>0.094432376626632758</v>
+        <v>1.1008598087038688</v>
       </c>
       <c r="C11" s="0">
         <v>4</v>
       </c>
       <c r="D11" s="0">
-        <v>7.2088426259431078</v>
+        <v>7.7300428543900246</v>
       </c>
       <c r="E11" s="0">
-        <v>0.016299405689281572</v>
+        <v>0.0031684799581047029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B12" s="0">
-        <v>0.19382129300658554</v>
+        <v>0.16890770749708431</v>
       </c>
       <c r="C12" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>7.3327109812547766</v>
+        <v>9.5161957360255531</v>
       </c>
       <c r="E12" s="0">
-        <v>0.016024066789323527</v>
+        <v>31.525202751377542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B13" s="0">
-        <v>0.23654472260431658</v>
+        <v>0.70099020850574634</v>
       </c>
       <c r="C13" s="0">
         <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>9.4168029651415583</v>
+        <v>9.9922186198625944</v>
       </c>
       <c r="E13" s="0">
-        <v>31.85794596218253</v>
+        <v>30.023362319521127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.40402016061700907</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.60748285671886726</v>
+        <v>0.64340341693476433</v>
       </c>
       <c r="C14" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>4.855065237671913</v>
+        <v>9.8072948290562039</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.048192129612427609</v>
+        <v>30.589475000913197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.60639226408735802</v>
+        <v>0.31775958567182089</v>
       </c>
       <c r="C15" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>6.2319897380950735</v>
+        <v>10.176118753602333</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.0484730360462663</v>
+        <v>2.9258072788293075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B16" s="0">
-        <v>0.63337604662172353</v>
+        <v>0.2820775651348113</v>
       </c>
       <c r="C16" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D16" s="0">
-        <v>7.65125495310172</v>
+        <v>5.4660372933146464</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.030580072765164577</v>
+        <v>-0.070510913055335578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B17" s="0">
-        <v>0.23223535752863575</v>
+        <v>-0.38630983744102243</v>
       </c>
       <c r="C17" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0">
-        <v>6.6239951559782382</v>
+        <v>2.9874601070600217</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.050938075463916176</v>
+        <v>-0.11746307853431534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B18" s="0">
-        <v>0.88634907098940185</v>
+        <v>0.36441606359446022</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="0">
-        <v>8.0864160958336484</v>
+        <v>8.3524418392312718</v>
       </c>
       <c r="E18" s="0">
-        <v>37.099253420136087</v>
+        <v>-0.029620579519879849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.25750860419278265</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B19" s="0">
-        <v>0.46989459506347481</v>
+        <v>0.068036990074162806</v>
       </c>
       <c r="C19" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D19" s="0">
-        <v>8.1634852982326453</v>
+        <v>4.6442219961739104</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.028661279424528532</v>
+        <v>-0.079122634283426946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B20" s="0">
-        <v>1.0441156934857072</v>
+        <v>0.29880134742637654</v>
       </c>
       <c r="C20" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" s="0">
-        <v>4.9934314577674836</v>
+        <v>5.7324097239694458</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.072437356827255592</v>
+        <v>-0.067234426516052909</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B21" s="0">
-        <v>0.37051526971006504</v>
+        <v>1.448956392348745</v>
       </c>
       <c r="C21" s="0">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D21" s="0">
-        <v>3.2251743054981339</v>
+        <v>4.7812046648996169</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.23168586584360087</v>
+        <v>-0.063573068885905554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.59717024707290978</v>
+        <v>0.15469724438518956</v>
       </c>
       <c r="C22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="0">
-        <v>3.2151134646016986</v>
+        <v>6.949528497367325</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.11171097629874627</v>
+        <v>-0.045980388418182513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.55830783651436577</v>
+        <v>1.4589896772345972</v>
       </c>
       <c r="C23" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D23" s="0">
-        <v>3.5305915330709876</v>
+        <v>5.8142986808433168</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.11679574220854225</v>
+        <v>-0.055899950861470593</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B24" s="0">
-        <v>0.26708535630111857</v>
+        <v>1.2175587209775711</v>
       </c>
       <c r="C24" s="0">
         <v>11</v>
       </c>
       <c r="D24" s="0">
-        <v>7.516791278422458</v>
+        <v>4.8607467308376435</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.048120396443235847</v>
+        <v>-0.066278338642158471</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B25" s="0">
-        <v>0.93938612965853929</v>
+        <v>1.4102686806416973</v>
       </c>
       <c r="C25" s="0">
         <v>6</v>
       </c>
       <c r="D25" s="0">
-        <v>6.28535692120506</v>
+        <v>4.9136778208475667</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.048061465244001962</v>
+        <v>-0.061859133748994273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.59618620394262101</v>
+        <v>0.23563180506117717</v>
       </c>
       <c r="C26" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>4.1709140114888195</v>
+        <v>9.7858340392606937</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.086722232897252297</v>
+        <v>30.656559144208067</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B27" s="0">
-        <v>0.16527403377798575</v>
+        <v>0.43997635586305067</v>
       </c>
       <c r="C27" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D27" s="0">
-        <v>4.6307553945642264</v>
+        <v>7.9155909743107689</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.092755561274805304</v>
+        <v>-0.041060612101846881</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B28" s="0">
-        <v>0.72221816180072773</v>
+        <v>-0.46772872742945504</v>
       </c>
       <c r="C28" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D28" s="0">
-        <v>6.8575460667601158</v>
+        <v>4.3477431988346202</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.049208614402823828</v>
+        <v>-0.073496065664096416</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.59900796949378088</v>
+        <v>1.6285881680490906</v>
       </c>
       <c r="C29" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D29" s="0">
-        <v>3.221509079331498</v>
+        <v>2.8882362862100379</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.10916346404190036</v>
+        <v>-0.16280410952358124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.40402016061700907</v>
       </c>
       <c r="B30" s="0">
-        <v>1.2108404900813878</v>
+        <v>0.67359451544360449</v>
       </c>
       <c r="C30" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" s="0">
-        <v>4.0563137529739866</v>
+        <v>9.0302050886369596</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.077207791973315745</v>
+        <v>0.002712284562644658</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.59507690887519538</v>
+        <v>0.36842375736947669</v>
       </c>
       <c r="C31" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="0">
-        <v>3.8568176332562314</v>
+        <v>6.8942243188915118</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.087450340148799724</v>
+        <v>-0.047153171723916983</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B32" s="0">
-        <v>0.4638943251249838</v>
+        <v>0.8141490581539923</v>
       </c>
       <c r="C32" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D32" s="0">
-        <v>6.8228888631010127</v>
+        <v>6.6545238289402464</v>
       </c>
       <c r="E32" s="0">
-        <v>0.017221422313631055</v>
+        <v>-0.048018765556523062</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B33" s="0">
-        <v>0.21236747386301277</v>
+        <v>1.3556241140291476</v>
       </c>
       <c r="C33" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D33" s="0">
-        <v>7.5477780903921339</v>
+        <v>8.150086309123683</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.041492877064943555</v>
+        <v>36.809426136280599</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B34" s="0">
-        <v>0.27199813778309101</v>
+        <v>1.4598520984882752</v>
       </c>
       <c r="C34" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0">
-        <v>6.6217118512639805</v>
+        <v>4.5542450413626741</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.050955639977512429</v>
+        <v>-0.070738885359543147</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B35" s="0">
-        <v>0.11672169950325963</v>
+        <v>-0.48309148844767769</v>
       </c>
       <c r="C35" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35" s="0">
-        <v>7.1807052173224415</v>
+        <v>5.2301944051634601</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.050017853841913609</v>
+        <v>-0.047303053867342668</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B36" s="0">
-        <v>0.18812532022490189</v>
+        <v>0.32087924505006205</v>
       </c>
       <c r="C36" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D36" s="0">
-        <v>2.2680860352907599</v>
+        <v>9.4131090406914133</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.2044528029800996</v>
+        <v>0.0026019549708335512</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B37" s="0">
-        <v>0.61698462592511749</v>
+        <v>0.22985941959081854</v>
       </c>
       <c r="C37" s="0">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D37" s="0">
-        <v>8.880750811393689</v>
+        <v>3.855873739624939</v>
       </c>
       <c r="E37" s="0">
-        <v>3.5353002238129423</v>
+        <v>-0.09420252517541737</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.21786718918637185</v>
+        <v>0.3632025970101519</v>
       </c>
       <c r="C38" s="0">
         <v>7</v>
       </c>
       <c r="D38" s="0">
-        <v>6.2045263155265955</v>
+        <v>7.5623177312019489</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.05047589654578407</v>
+        <v>-0.042254508603064227</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B39" s="0">
-        <v>0.29039222973882689</v>
+        <v>1.110757592680776</v>
       </c>
       <c r="C39" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D39" s="0">
-        <v>6.4374534352998403</v>
+        <v>5.7262721539818022</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.052458557478226954</v>
+        <v>-0.053080930375954724</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.097630982831353297</v>
       </c>
       <c r="B40" s="0">
-        <v>0.23875661511830298</v>
+        <v>1.1673828218663942</v>
       </c>
       <c r="C40" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D40" s="0">
-        <v>7.3223423413472881</v>
+        <v>9.093913011036225</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.046085026405185789</v>
+        <v>32.989099371846301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B41" s="0">
-        <v>0.62556553341664878</v>
+        <v>0.23315405088990288</v>
       </c>
       <c r="C41" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="0">
-        <v>8.3450138882394533</v>
+        <v>9.9393368120212315</v>
       </c>
       <c r="E41" s="0">
-        <v>0.39368421284988919</v>
+        <v>2.9955079380659915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.54289442538245247</v>
+        <v>-0.17970619269029536</v>
       </c>
       <c r="C42" s="0">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D42" s="0">
-        <v>2.9733958481126965</v>
+        <v>6.1653853878618898</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.12507994878614104</v>
+        <v>-0.040127932338373952</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B43" s="0">
-        <v>0.23451402964598966</v>
+        <v>-0.030166278949070424</v>
       </c>
       <c r="C43" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D43" s="0">
-        <v>7.3152638911069356</v>
+        <v>6.7682373330723191</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.046106335867141135</v>
+        <v>-0.048021219493128826</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.25750860419278265</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B44" s="0">
-        <v>0.45087530481040627</v>
+        <v>-0.10939810896087493</v>
       </c>
       <c r="C44" s="0">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" s="0">
-        <v>9.4798350275098606</v>
+        <v>3.9392493526315593</v>
       </c>
       <c r="E44" s="0">
-        <v>31.646120331147078</v>
+        <v>-0.093282512895213623</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B45" s="0">
-        <v>0.33973590768599804</v>
+        <v>1.401698367167558</v>
       </c>
       <c r="C45" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D45" s="0">
-        <v>2.2729582657617584</v>
+        <v>6.8067440254927805</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.20401454540556957</v>
+        <v>0.0035982675075917968</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.21940995599820923</v>
+        <v>-0.042987482093042477</v>
       </c>
       <c r="C46" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D46" s="0">
-        <v>7.4959502823094324</v>
+        <v>7.9255163068900139</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.040299555338242594</v>
+        <v>37.852423537277474</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.6071025455230068</v>
+        <v>1.5424901186281648</v>
       </c>
       <c r="C47" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D47" s="0">
-        <v>6.2066208226849948</v>
+        <v>2.8095867129124743</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.048671164526522884</v>
+        <v>-0.1307890149271797</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B48" s="0">
-        <v>1.2219957866934936</v>
+        <v>-0.23205665151487315</v>
       </c>
       <c r="C48" s="0">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D48" s="0">
-        <v>4.5361091853985522</v>
+        <v>2.1258700557609798</v>
       </c>
       <c r="E48" s="0">
-        <v>-0.074354474315968644</v>
+        <v>-0.23844426489545079</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B49" s="0">
-        <v>-0.031827472844831062</v>
+        <v>-0.029265029417274838</v>
       </c>
       <c r="C49" s="0">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D49" s="0">
-        <v>4.0837231941896714</v>
+        <v>6.802037120494191</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.088992440056803637</v>
+        <v>-0.044686003345008635</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B50" s="0">
-        <v>0.48502809412024034</v>
+        <v>0.52543239178443402</v>
       </c>
       <c r="C50" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D50" s="0">
-        <v>7.531015028821586</v>
+        <v>5.8058449779919963</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.040111918786319652</v>
+        <v>-0.066384011596436074</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B51" s="0">
-        <v>1.0501778432425288</v>
+        <v>1.1089158704454884</v>
       </c>
       <c r="C51" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D51" s="0">
-        <v>4.8048105710050111</v>
+        <v>5.4652069348449706</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.070224113966944321</v>
+        <v>-0.045268947842894335</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B52" s="0">
-        <v>0.16872389189254069</v>
+        <v>1.4153737843703686</v>
       </c>
       <c r="C52" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="0">
-        <v>6.4703729450985072</v>
+        <v>5.7284705534464777</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.063730184030982948</v>
+        <v>-0.056748924547811837</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B53" s="0">
-        <v>0.22844964488359176</v>
+        <v>0.3116304301269629</v>
       </c>
       <c r="C53" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D53" s="0">
-        <v>7.5447546925413267</v>
+        <v>8.9527356653955152</v>
       </c>
       <c r="E53" s="0">
-        <v>-0.047942045969543629</v>
+        <v>0.27514993938196247</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B54" s="0">
-        <v>1.1978518768862318</v>
+        <v>0.32827995309843333</v>
       </c>
       <c r="C54" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D54" s="0">
-        <v>4.4923267150347623</v>
+        <v>6.5056882482052369</v>
       </c>
       <c r="E54" s="0">
-        <v>-0.052083463214644202</v>
+        <v>-0.060243533262346272</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B55" s="0">
-        <v>0.32678260179541702</v>
+        <v>0.39405342630957368</v>
       </c>
       <c r="C55" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D55" s="0">
-        <v>6.5356544812607806</v>
+        <v>3.2707523199992643</v>
       </c>
       <c r="E55" s="0">
-        <v>-0.063093613611696589</v>
+        <v>-0.13227038540260438</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B56" s="0">
-        <v>-0.57004111988514283</v>
+        <v>1.3684227778540894</v>
       </c>
       <c r="C56" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D56" s="0">
-        <v>3.2547520401447052</v>
+        <v>4.8013544097021041</v>
       </c>
       <c r="E56" s="0">
-        <v>-0.11298270399664852</v>
+        <v>-0.06737600228185768</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B57" s="0">
-        <v>0.58129663952982091</v>
+        <v>-0.041461671538704503</v>
       </c>
       <c r="C57" s="0">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D57" s="0">
-        <v>1.9717546516953002</v>
+        <v>7.5494284163634031</v>
       </c>
       <c r="E57" s="0">
-        <v>-0.54284515618071216</v>
+        <v>0.32629552063796036</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B58" s="0">
-        <v>0.11653819690587974</v>
+        <v>0.32443008295996367</v>
       </c>
       <c r="C58" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D58" s="0">
-        <v>7.5547791102150992</v>
+        <v>9.4247420728816884</v>
       </c>
       <c r="E58" s="0">
-        <v>-0.046549486809846219</v>
+        <v>0.002598743357645701</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B59" s="0">
-        <v>1.1906806453647873</v>
+        <v>-0.12372960356162081</v>
       </c>
       <c r="C59" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D59" s="0">
-        <v>4.9255940781347709</v>
+        <v>4.6457055639979341</v>
       </c>
       <c r="E59" s="0">
-        <v>0.6669855801550385</v>
+        <v>-0.074153234343927912</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B60" s="0">
-        <v>0.4300008539323702</v>
+        <v>1.4800413905489747</v>
       </c>
       <c r="C60" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D60" s="0">
-        <v>2.2262261558742864</v>
+        <v>5.7303808898262556</v>
       </c>
       <c r="E60" s="0">
-        <v>-0.34525957647083166</v>
+        <v>-0.056718570161731298</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B61" s="0">
-        <v>0.68988393936481696</v>
+        <v>1.7034140839924958</v>
       </c>
       <c r="C61" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D61" s="0">
-        <v>5.8290392510707072</v>
+        <v>2.0325252968218894</v>
       </c>
       <c r="E61" s="0">
-        <v>-0.070742028107715516</v>
+        <v>-0.24939493914382393</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B62" s="0">
-        <v>-0.20940533679357243</v>
+        <v>0.47716618853167903</v>
       </c>
       <c r="C62" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="0">
-        <v>5.5989577797735404</v>
+        <v>1.8221174754205962</v>
       </c>
       <c r="E62" s="0">
-        <v>-0.062810098660269501</v>
+        <v>-0.27819365630757181</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B63" s="0">
-        <v>0.26249458771057338</v>
+        <v>0.88165366492559316</v>
       </c>
       <c r="C63" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D63" s="0">
-        <v>8.0443751072999525</v>
+        <v>4.5784851367059547</v>
       </c>
       <c r="E63" s="0">
-        <v>-0.045758515236971983</v>
+        <v>-0.070395426770126418</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B64" s="0">
-        <v>-0.2039634487030435</v>
+        <v>-0.10097057500512219</v>
       </c>
       <c r="C64" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D64" s="0">
-        <v>5.5666364838110614</v>
+        <v>3.6459726150841587</v>
       </c>
       <c r="E64" s="0">
-        <v>-0.064520732597938182</v>
+        <v>-0.099625828654740095</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B65" s="0">
-        <v>0.45867463941362324</v>
+        <v>0.40681368237470417</v>
       </c>
       <c r="C65" s="0">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D65" s="0">
-        <v>9.4392949459179079</v>
+        <v>2.5789913831237072</v>
       </c>
       <c r="E65" s="0">
-        <v>31.782034751412997</v>
+        <v>-0.15413525163789829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B66" s="0">
-        <v>0.13763410959813621</v>
+        <v>0.21156134486684758</v>
       </c>
       <c r="C66" s="0">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D66" s="0">
-        <v>6.4930457708641915</v>
+        <v>8.7072516358947993</v>
       </c>
       <c r="E66" s="0">
-        <v>-0.05196537603999158</v>
+        <v>0.28290725692150781</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B67" s="0">
-        <v>1.2472365806122299</v>
+        <v>-0.19926887228682505</v>
       </c>
       <c r="C67" s="0">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D67" s="0">
-        <v>4.1429895093754716</v>
+        <v>7.3187331837865708</v>
       </c>
       <c r="E67" s="0">
-        <v>-0.088759743538329675</v>
+        <v>4.0681032593836086</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B68" s="0">
-        <v>0.70761910185276111</v>
+        <v>-0.11331091834431058</v>
       </c>
       <c r="C68" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D68" s="0">
-        <v>6.4957191454700052</v>
+        <v>7.2565078252545003</v>
       </c>
       <c r="E68" s="0">
-        <v>-0.055684515940162965</v>
+        <v>0.33946696330475118</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B69" s="0">
-        <v>0.16372449076206921</v>
+        <v>0.26795192452493805</v>
       </c>
       <c r="C69" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D69" s="0">
-        <v>9.2829298205181434</v>
+        <v>5.6289908140126528</v>
       </c>
       <c r="E69" s="0">
-        <v>32.317383175396557</v>
+        <v>-0.061199974340419003</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B70" s="0">
-        <v>1.0545404479926268</v>
+        <v>1.4835106875510109</v>
       </c>
       <c r="C70" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70" s="0">
-        <v>5.3646463407874787</v>
+        <v>4.4556368676981446</v>
       </c>
       <c r="E70" s="0">
-        <v>-0.062870875821916083</v>
+        <v>-0.072304415159096289</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B71" s="0">
-        <v>-0.084781711384965222</v>
+        <v>0.47336968685398007</v>
       </c>
       <c r="C71" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D71" s="0">
-        <v>6.001232201441546</v>
+        <v>6.3766128039988068</v>
       </c>
       <c r="E71" s="0">
-        <v>-0.056230175540906639</v>
+        <v>-0.050522468241790131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B72" s="0">
-        <v>0.21227776780782082</v>
+        <v>1.397060820558097</v>
       </c>
       <c r="C72" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" s="0">
-        <v>8.4413913512884697</v>
+        <v>6.8681942257696704</v>
       </c>
       <c r="E72" s="0">
-        <v>-0.035785980135672191</v>
+        <v>0.003566073563780232</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B73" s="0">
-        <v>1.3019329896013729</v>
+        <v>1.7431866508640659</v>
       </c>
       <c r="C73" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="0">
-        <v>1.4407828492373032</v>
+        <v>2.8911999360867973</v>
       </c>
       <c r="E73" s="0">
-        <v>-0.51862589970544382</v>
+        <v>-0.13978114989338658</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B74" s="0">
-        <v>1.0697664700064813</v>
+        <v>-0.14301360847554212</v>
       </c>
       <c r="C74" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D74" s="0">
-        <v>5.6068208118665295</v>
+        <v>5.3595344048809608</v>
       </c>
       <c r="E74" s="0">
-        <v>-0.065651939534119283</v>
+        <v>-0.060110112846150768</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B75" s="0">
-        <v>-0.14138506237505544</v>
+        <v>0.0644020950288266</v>
       </c>
       <c r="C75" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D75" s="0">
-        <v>7.6065805489324294</v>
+        <v>5.9123240606948011</v>
       </c>
       <c r="E75" s="0">
-        <v>-0.039713437762391286</v>
+        <v>-0.066289608342129561</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B76" s="0">
-        <v>-0.094662465991012787</v>
+        <v>1.6423520563749401</v>
       </c>
       <c r="C76" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D76" s="0">
-        <v>5.9804424658222235</v>
+        <v>2.98370574460795</v>
       </c>
       <c r="E76" s="0">
-        <v>-0.056397167240998622</v>
+        <v>-0.13322811290225808</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B77" s="0">
-        <v>-0.1807057954832535</v>
+        <v>1.4660690297927377</v>
       </c>
       <c r="C77" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D77" s="0">
-        <v>6.7061418588034059</v>
+        <v>4.7872428654223</v>
       </c>
       <c r="E77" s="0">
-        <v>44.735110935086865</v>
+        <v>-0.066748654416552131</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B78" s="0">
-        <v>0.21588508814134869</v>
+        <v>1.6757206403260205</v>
       </c>
       <c r="C78" s="0">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D78" s="0">
-        <v>8.0337256592836557</v>
+        <v>2.932773688778143</v>
       </c>
       <c r="E78" s="0">
-        <v>-0.0407292713057981</v>
+        <v>-0.14751348580974397</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.40402016061700907</v>
       </c>
       <c r="B79" s="0">
-        <v>0.2754330278187172</v>
+        <v>0.80353666507245658</v>
       </c>
       <c r="C79" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D79" s="0">
-        <v>7.334969755050067</v>
+        <v>7.0395923133835945</v>
       </c>
       <c r="E79" s="0">
-        <v>-0.045982468255977682</v>
+        <v>-0.045392120084094663</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B80" s="0">
-        <v>0.083518469314877428</v>
+        <v>0.35121475402035662</v>
       </c>
       <c r="C80" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D80" s="0">
-        <v>7.4332638122928598</v>
+        <v>8.974178903016865</v>
       </c>
       <c r="E80" s="0">
-        <v>-0.042132101903902729</v>
+        <v>0.27449248585942526</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B81" s="0">
-        <v>0.076826716038841378</v>
+        <v>1.5494616228326434</v>
       </c>
       <c r="C81" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D81" s="0">
-        <v>8.3843844747642784</v>
+        <v>4.8492191738926129</v>
       </c>
       <c r="E81" s="0">
-        <v>-0.036029295188438636</v>
+        <v>-0.078525841227652535</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B82" s="0">
-        <v>-0.61975323112414926</v>
+        <v>1.0772376195094884</v>
       </c>
       <c r="C82" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="0">
-        <v>3.4857430758557042</v>
+        <v>10.937483534276209</v>
       </c>
       <c r="E82" s="0">
-        <v>86.064862920613834</v>
+        <v>2.7221400815111156</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B83" s="0">
-        <v>1.2683307939344317</v>
+        <v>1.5924816812920273</v>
       </c>
       <c r="C83" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D83" s="0">
-        <v>2.0586637650103352</v>
+        <v>3.0016123613054817</v>
       </c>
       <c r="E83" s="0">
-        <v>-0.20864422983953423</v>
+        <v>-0.12101264230943841</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B84" s="0">
-        <v>0.23893873489380479</v>
+        <v>0.26922948961206056</v>
       </c>
       <c r="C84" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D84" s="0">
-        <v>6.4099052277574486</v>
+        <v>3.8740778922683439</v>
       </c>
       <c r="E84" s="0">
-        <v>-0.052684011549299123</v>
+        <v>-0.11167139173586826</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B85" s="0">
-        <v>0.27767629095245799</v>
+        <v>0.37663971224724374</v>
       </c>
       <c r="C85" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D85" s="0">
-        <v>7.3422163791434922</v>
+        <v>3.775371192060593</v>
       </c>
       <c r="E85" s="0">
-        <v>-0.045960282661700179</v>
+        <v>-0.11459102904438903</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B86" s="0">
-        <v>0.88882932588229024</v>
+        <v>0.28694078035849657</v>
       </c>
       <c r="C86" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>8.46133301287494</v>
+        <v>9.8857501466924802</v>
       </c>
       <c r="E86" s="0">
-        <v>3.7105406776183005</v>
+        <v>30.346710724868192</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B87" s="0">
-        <v>1.1965752182455891</v>
+        <v>-0.041570423776946433</v>
       </c>
       <c r="C87" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>4.0552814024263455</v>
+        <v>8.755124827380742</v>
       </c>
       <c r="E87" s="0">
-        <v>0.028974524539808852</v>
+        <v>3.4006782206471842</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B88" s="0">
-        <v>0.96813834433608259</v>
+        <v>0.29025099401117305</v>
       </c>
       <c r="C88" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D88" s="0">
-        <v>5.3907045911883209</v>
+        <v>5.5018445428882892</v>
       </c>
       <c r="E88" s="0">
-        <v>-0.066626441491338853</v>
+        <v>-0.062614290660997204</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B89" s="0">
-        <v>0.49306386490685883</v>
+        <v>0.46809475542014828</v>
       </c>
       <c r="C89" s="0">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D89" s="0">
-        <v>6.8101822066737006</v>
+        <v>1.8303384569752965</v>
       </c>
       <c r="E89" s="0">
-        <v>-0.045986879486309862</v>
+        <v>-0.25690152270917777</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B90" s="0">
-        <v>0.97584533376928517</v>
+        <v>1.5979404271430822</v>
       </c>
       <c r="C90" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D90" s="0">
-        <v>6.1899401883491185</v>
+        <v>2.0315693057003319</v>
       </c>
       <c r="E90" s="0">
-        <v>0.53074829866637929</v>
+        <v>-0.18262366992276508</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B91" s="0">
-        <v>-0.1670424229536375</v>
+        <v>-0.11758164722910591</v>
       </c>
       <c r="C91" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D91" s="0">
-        <v>7.0022750325754375</v>
+        <v>4.5843983103595249</v>
       </c>
       <c r="E91" s="0">
-        <v>0.46917611897980654</v>
+        <v>-0.085491185504008096</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B92" s="0">
-        <v>0.25212848545248651</v>
+        <v>0.35392126797017431</v>
       </c>
       <c r="C92" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D92" s="0">
-        <v>2.2280203438374859</v>
+        <v>4.4735508257095216</v>
       </c>
       <c r="E92" s="0">
-        <v>-0.46825530079990646</v>
+        <v>-0.082141254866828162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B93" s="0">
-        <v>0.50090499651132769</v>
+        <v>0.50714151553138032</v>
       </c>
       <c r="C93" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="0">
-        <v>7.5083904006691222</v>
+        <v>5.8351903487357086</v>
       </c>
       <c r="E93" s="0">
-        <v>-0.046837081155359186</v>
+        <v>-0.066050164144111842</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B94" s="0">
-        <v>-0.52442372115156499</v>
+        <v>1.1609540383353243</v>
       </c>
       <c r="C94" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D94" s="0">
-        <v>2.0098037383863079</v>
+        <v>5.1876776022010507</v>
       </c>
       <c r="E94" s="0">
-        <v>-0.21371654731521697</v>
+        <v>-0.062358552414059437</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B95" s="0">
-        <v>0.095406175684860178</v>
+        <v>0.31875501426289876</v>
       </c>
       <c r="C95" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" s="0">
-        <v>8.4148353100975015</v>
+        <v>8.9698956988587906</v>
       </c>
       <c r="E95" s="0">
-        <v>-0.035898915674814791</v>
+        <v>0.27462355843777675</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B96" s="0">
-        <v>-0.12840520738107797</v>
+        <v>1.072425540976564</v>
       </c>
       <c r="C96" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D96" s="0">
-        <v>5.7540137074762594</v>
+        <v>9.2466039241495555</v>
       </c>
       <c r="E96" s="0">
-        <v>-0.062419639976740923</v>
+        <v>32.44434415715412</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B97" s="0">
-        <v>0.97109755335560333</v>
+        <v>0.12234418328236263</v>
       </c>
       <c r="C97" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D97" s="0">
-        <v>5.4053289388723185</v>
+        <v>4.6964870612730385</v>
       </c>
       <c r="E97" s="0">
-        <v>-0.066917477250553387</v>
+        <v>-0.078242114529473467</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.097630982831353297</v>
       </c>
       <c r="B98" s="0">
-        <v>1.3249348932990319</v>
+        <v>1.1944452328057453</v>
       </c>
       <c r="C98" s="0">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D98" s="0">
-        <v>1.2654921865849782</v>
+        <v>6.7874724568519387</v>
       </c>
       <c r="E98" s="0">
-        <v>-0.6073730899750841</v>
+        <v>0.36292518183990097</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B99" s="0">
-        <v>1.2201133339232073</v>
+        <v>0.43459464043774987</v>
       </c>
       <c r="C99" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="0">
-        <v>4.137927285882637</v>
+        <v>7.9028197091439809</v>
       </c>
       <c r="E99" s="0">
-        <v>-0.087413565127834728</v>
+        <v>-0.041126967653961601</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B100" s="0">
-        <v>-0.57204387972838255</v>
+        <v>-0.082606317316962136</v>
       </c>
       <c r="C100" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D100" s="0">
-        <v>3.1266161132750208</v>
+        <v>2.9256291654360389</v>
       </c>
       <c r="E100" s="0">
-        <v>-0.11773068633415713</v>
+        <v>-0.12681465125267929</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B101" s="0">
-        <v>-0.6177220518221721</v>
+        <v>-0.42233964127219703</v>
       </c>
       <c r="C101" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D101" s="0">
-        <v>3.2717066751408339</v>
+        <v>4.0427688747204398</v>
       </c>
       <c r="E101" s="0">
-        <v>9.5962515740490701</v>
+        <v>-0.085212413584699581</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B102" s="0">
-        <v>0.22362709761048422</v>
+        <v>-0.17427420554202469</v>
       </c>
       <c r="C102" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D102" s="0">
-        <v>7.3191302379517804</v>
+        <v>5.2196929221281252</v>
       </c>
       <c r="E102" s="0">
-        <v>-0.049071877718411844</v>
+        <v>-0.058232516367141052</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B103" s="0">
-        <v>0.95416806830725276</v>
+        <v>0.16414307836373013</v>
       </c>
       <c r="C103" s="0">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D103" s="0">
-        <v>7.8096006936899105</v>
+        <v>4.5373743273290774</v>
       </c>
       <c r="E103" s="0">
-        <v>4.0201953419353273</v>
+        <v>-0.083922768424383204</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B104" s="0">
-        <v>0.068330517038669783</v>
+        <v>0.23858993952533603</v>
       </c>
       <c r="C104" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D104" s="0">
-        <v>8.053836030708208</v>
+        <v>7.4135263688690669</v>
       </c>
       <c r="E104" s="0">
-        <v>3.8982815408009097</v>
+        <v>-0.041000171631634025</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B105" s="0">
-        <v>-0.57122864615359681</v>
+        <v>0.21041272489004748</v>
       </c>
       <c r="C105" s="0">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>3.2421891428260978</v>
+        <v>9.8225712312952389</v>
       </c>
       <c r="E105" s="0">
-        <v>-0.11342049156750297</v>
+        <v>3.0311169670790066</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B106" s="0">
-        <v>0.25442628561426289</v>
+        <v>0.7421353499138077</v>
       </c>
       <c r="C106" s="0">
         <v>4</v>
       </c>
       <c r="D106" s="0">
-        <v>7.315742088499162</v>
+        <v>8.4646310860282608</v>
       </c>
       <c r="E106" s="0">
-        <v>0.016061234675720768</v>
+        <v>0.0028935089563268284</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B107" s="0">
-        <v>0.53285151895405969</v>
+        <v>1.6533913914992933</v>
       </c>
       <c r="C107" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D107" s="0">
-        <v>6.196599102801434</v>
+        <v>2.0571946920194182</v>
       </c>
       <c r="E107" s="0">
-        <v>-0.054497558329441538</v>
+        <v>-0.24640425365456517</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B108" s="0">
-        <v>0.28263460894909359</v>
+        <v>0.36416678991429341</v>
       </c>
       <c r="C108" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D108" s="0">
-        <v>5.4535915008736753</v>
+        <v>9.4353112524278426</v>
       </c>
       <c r="E108" s="0">
-        <v>-0.066638744671155214</v>
+        <v>0.0025958323158786086</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B109" s="0">
-        <v>0.16440850820048719</v>
+        <v>1.2920167485770113</v>
       </c>
       <c r="C109" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D109" s="0">
-        <v>4.91947608024915</v>
+        <v>8.4836170866859284</v>
       </c>
       <c r="E109" s="0">
-        <v>-0.075599961121068149</v>
+        <v>35.362274951189846</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B110" s="0">
-        <v>0.66810124583423502</v>
+        <v>0.75281019387098136</v>
       </c>
       <c r="C110" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D110" s="0">
-        <v>7.3576824815594</v>
+        <v>6.7573266977588649</v>
       </c>
       <c r="E110" s="0">
-        <v>-0.047796448327806308</v>
+        <v>-0.036612728487165708</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B111" s="0">
-        <v>-0.60827705857674064</v>
+        <v>0.026522585097244707</v>
       </c>
       <c r="C111" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D111" s="0">
-        <v>3.2551695555950659</v>
+        <v>8.0716756619700121</v>
       </c>
       <c r="E111" s="0">
-        <v>0.036096384075745287</v>
+        <v>37.167003799900023</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B112" s="0">
-        <v>0.9120898686804203</v>
+        <v>0.80465454762610478</v>
       </c>
       <c r="C112" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D112" s="0">
-        <v>6.7349648657848746</v>
+        <v>6.6776989310951009</v>
       </c>
       <c r="E112" s="0">
-        <v>0.48779767812939917</v>
+        <v>-0.045518052948432267</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B113" s="0">
-        <v>-0.065926844587132591</v>
+        <v>0.84169799262179146</v>
       </c>
       <c r="C113" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D113" s="0">
-        <v>6.0922310264940123</v>
+        <v>6.3960236549721152</v>
       </c>
       <c r="E113" s="0">
-        <v>-0.060420995086776653</v>
+        <v>-0.050826038293210994</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B114" s="0">
-        <v>0.45888826421552154</v>
+        <v>-0.019855347214198855</v>
       </c>
       <c r="C114" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D114" s="0">
-        <v>8.8333278849414274</v>
+        <v>6.324061149211591</v>
       </c>
       <c r="E114" s="0">
-        <v>3.5542799656140311</v>
+        <v>-0.051404395931943785</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B115" s="0">
-        <v>0.26130812741091203</v>
+        <v>1.4230922465495803</v>
       </c>
       <c r="C115" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" s="0">
-        <v>7.7679791444526343</v>
+        <v>5.9353194457448364</v>
       </c>
       <c r="E115" s="0">
-        <v>-0.045271889123620943</v>
+        <v>-0.054760154617468505</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B116" s="0">
-        <v>-0.5133946316119069</v>
+        <v>0.015170142083959346</v>
       </c>
       <c r="C116" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D116" s="0">
-        <v>1.4454946507445814</v>
+        <v>5.272805521158479</v>
       </c>
       <c r="E116" s="0">
-        <v>-0.53173901356848385</v>
+        <v>-0.073094916700332219</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B117" s="0">
-        <v>0.5122807211726339</v>
+        <v>0.72487278926347343</v>
       </c>
       <c r="C117" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>6.790293521535073</v>
+        <v>10.575282456547853</v>
       </c>
       <c r="E117" s="0">
-        <v>-0.053268827798326861</v>
+        <v>2.8153727753235072</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B118" s="0">
-        <v>0.51947138165885298</v>
+        <v>1.240066106612064</v>
       </c>
       <c r="C118" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D118" s="0">
-        <v>7.1526777253667699</v>
+        <v>4.0740821302739105</v>
       </c>
       <c r="E118" s="0">
-        <v>-0.047154370275063848</v>
+        <v>-0.07911092728447941</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B119" s="0">
-        <v>0.095560939238313436</v>
+        <v>-0.27310436458199211</v>
       </c>
       <c r="C119" s="0">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D119" s="0">
-        <v>7.4651769227252434</v>
+        <v>2.6592543329747622</v>
       </c>
       <c r="E119" s="0">
-        <v>-0.041951990108197709</v>
+        <v>-0.14948306406069381</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B120" s="0">
-        <v>-0.2106854216572919</v>
+        <v>0.092263318889122717</v>
       </c>
       <c r="C120" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D120" s="0">
-        <v>5.8791115694898437</v>
+        <v>8.1343661451365161</v>
       </c>
       <c r="E120" s="0">
-        <v>-0.055655992934610862</v>
+        <v>-0.030414682996786749</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B121" s="0">
-        <v>-0.26475710756465626</v>
+        <v>1.3537482148151736</v>
       </c>
       <c r="C121" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>6.4136990219880143</v>
+        <v>5.9047370578743212</v>
       </c>
       <c r="E121" s="0">
-        <v>46.774879671077997</v>
+        <v>0.41718109570201628</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B122" s="0">
-        <v>0.5243952028853246</v>
+        <v>1.9607826242312432</v>
       </c>
       <c r="C122" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D122" s="0">
-        <v>7.1565083918924888</v>
+        <v>2.6652326606619337</v>
       </c>
       <c r="E122" s="0">
-        <v>-0.047152930125966545</v>
+        <v>-0.17642614981062785</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B123" s="0">
-        <v>0.56844009227622161</v>
+        <v>1.363350103848725</v>
       </c>
       <c r="C123" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D123" s="0">
-        <v>5.8680948637644414</v>
+        <v>5.149168602365938</v>
       </c>
       <c r="E123" s="0">
-        <v>-0.06266611138223048</v>
+        <v>-0.062057012366104079</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B124" s="0">
-        <v>0.94447563329019169</v>
+        <v>-0.034804239632636617</v>
       </c>
       <c r="C124" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D124" s="0">
-        <v>5.4002455918468835</v>
+        <v>6.2228559240426211</v>
       </c>
       <c r="E124" s="0">
-        <v>-0.057993478831952168</v>
+        <v>-0.052240409737898591</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B125" s="0">
-        <v>0.61478133023220949</v>
+        <v>-0.50189756497211746</v>
       </c>
       <c r="C125" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" s="0">
-        <v>9.2038419102184665</v>
+        <v>6.6972921464467223</v>
       </c>
       <c r="E125" s="0">
-        <v>32.595083979759387</v>
+        <v>4.4455821350599907</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B126" s="0">
-        <v>-0.14822283863567098</v>
+        <v>-0.12697404147589669</v>
       </c>
       <c r="C126" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D126" s="0">
-        <v>7.6436906907314386</v>
+        <v>3.8980673014094047</v>
       </c>
       <c r="E126" s="0">
-        <v>-0.030610335069469811</v>
+        <v>-0.082683132495573464</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.25750860419278265</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B127" s="0">
-        <v>0.49474334695962918</v>
+        <v>-0.26121361637938673</v>
       </c>
       <c r="C127" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D127" s="0">
-        <v>7.8500190851282241</v>
+        <v>2.1550321481827268</v>
       </c>
       <c r="E127" s="0">
-        <v>-0.041682419931081099</v>
+        <v>-0.18753096188318735</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B128" s="0">
-        <v>0.14146639301878616</v>
+        <v>0.2586545866124183</v>
       </c>
       <c r="C128" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D128" s="0">
-        <v>7.1314806684140759</v>
+        <v>6.6877725056760919</v>
       </c>
       <c r="E128" s="0">
-        <v>-0.04731841195943999</v>
+        <v>-0.048371272406400878</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B129" s="0">
-        <v>-0.56742015781144983</v>
+        <v>0.13160458208812223</v>
       </c>
       <c r="C129" s="0">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D129" s="0">
-        <v>2.2383889955020178</v>
+        <v>6.9732965137336231</v>
       </c>
       <c r="E129" s="0">
-        <v>-0.16235805854022098</v>
+        <v>-0.043588545664256163</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B130" s="0">
-        <v>-0.13212861480825816</v>
+        <v>0.25237804726448665</v>
       </c>
       <c r="C130" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D130" s="0">
-        <v>6.1098804979088435</v>
+        <v>4.793555637227799</v>
       </c>
       <c r="E130" s="0">
-        <v>-0.053553877540699082</v>
+        <v>-0.067237023944399413</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B131" s="0">
-        <v>0.65634411818059035</v>
+        <v>0.12393809615853914</v>
       </c>
       <c r="C131" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D131" s="0">
-        <v>7.4490232403634087</v>
+        <v>3.9335669482350393</v>
       </c>
       <c r="E131" s="0">
-        <v>-0.043926268104561926</v>
+        <v>-0.092341899301657718</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B132" s="0">
-        <v>1.0485271796229794</v>
+        <v>1.6480462395670767</v>
       </c>
       <c r="C132" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D132" s="0">
-        <v>5.0717698453713895</v>
+        <v>2.9833788410892894</v>
       </c>
       <c r="E132" s="0">
-        <v>-0.072505397040001002</v>
+        <v>-0.1354622638170688</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B133" s="0">
-        <v>1.0641959294775101</v>
+        <v>-0.41189390983408714</v>
       </c>
       <c r="C133" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" s="0">
-        <v>4.8195958115039845</v>
+        <v>3.5996502114452564</v>
       </c>
       <c r="E133" s="0">
-        <v>-0.070068016957568285</v>
+        <v>-0.10707020341051052</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B134" s="0">
-        <v>0.19009365172414541</v>
+        <v>0.24337798694769319</v>
       </c>
       <c r="C134" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D134" s="0">
-        <v>2.2558417319036765</v>
+        <v>2.9381931084869386</v>
       </c>
       <c r="E134" s="0">
-        <v>-0.27545266016192377</v>
+        <v>-0.1262723819063398</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B135" s="0">
-        <v>0.72132543658036019</v>
+        <v>0.32393837714464163</v>
       </c>
       <c r="C135" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D135" s="0">
-        <v>6.8483472390359177</v>
+        <v>8.4363927510657053</v>
       </c>
       <c r="E135" s="0">
-        <v>-0.049249841187612886</v>
+        <v>-0.029325823842526615</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B136" s="0">
-        <v>0.92088782245966649</v>
+        <v>0.99945411799151251</v>
       </c>
       <c r="C136" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D136" s="0">
-        <v>6.0704691936864323</v>
+        <v>5.6531958919088794</v>
       </c>
       <c r="E136" s="0">
-        <v>-0.038543302954905399</v>
+        <v>-0.062073960974176279</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B137" s="0">
-        <v>-0.077442716232276373</v>
+        <v>1.6106088801955614</v>
       </c>
       <c r="C137" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D137" s="0">
-        <v>5.0605321616032111</v>
+        <v>2.9821837382996006</v>
       </c>
       <c r="E137" s="0">
-        <v>-0.066732017555659745</v>
+        <v>-0.13551654998572643</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B138" s="0">
-        <v>-0.14180082757631682</v>
+        <v>0.071679135608085059</v>
       </c>
       <c r="C138" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D138" s="0">
-        <v>5.8848829064544264</v>
+        <v>4.4723070966815763</v>
       </c>
       <c r="E138" s="0">
-        <v>-0.057341895414552882</v>
+        <v>-0.085143753927301363</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B139" s="0">
-        <v>0.93319423589259642</v>
+        <v>-0.19210494159251101</v>
       </c>
       <c r="C139" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>7.7053995691565946</v>
+        <v>5.6436256705837371</v>
       </c>
       <c r="E139" s="0">
-        <v>38.933736960358168</v>
+        <v>0.43648264775532469</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B140" s="0">
-        <v>1.2215841510450449</v>
+        <v>1.7250659019139678</v>
       </c>
       <c r="C140" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D140" s="0">
-        <v>4.0844189493746974</v>
+        <v>2.9026302572010687</v>
       </c>
       <c r="E140" s="0">
-        <v>-0.082609930398910458</v>
+        <v>-0.13694940470752756</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B141" s="0">
-        <v>0.11959747759124506</v>
+        <v>1.4178020487807195</v>
       </c>
       <c r="C141" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D141" s="0">
-        <v>7.4473583832325607</v>
+        <v>4.5853072752474091</v>
       </c>
       <c r="E141" s="0">
-        <v>-0.048569030478394129</v>
+        <v>-0.053955853519276349</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B142" s="0">
-        <v>0.71670005775721424</v>
+        <v>0.28902466497919682</v>
       </c>
       <c r="C142" s="0">
         <v>12</v>
       </c>
       <c r="D142" s="0">
-        <v>5.994643059416747</v>
+        <v>5.0091527659375981</v>
       </c>
       <c r="E142" s="0">
-        <v>-0.056285847511438586</v>
+        <v>-0.064343099565814174</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B143" s="0">
-        <v>0.12421139063592918</v>
+        <v>1.4041914905813282</v>
       </c>
       <c r="C143" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D143" s="0">
-        <v>7.4655780209126483</v>
+        <v>4.6547425320409275</v>
       </c>
       <c r="E143" s="0">
-        <v>-0.048450498445735617</v>
+        <v>-0.053150988691880251</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B144" s="0">
-        <v>1.2125441716413325</v>
+        <v>-0.018169482664693697</v>
       </c>
       <c r="C144" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D144" s="0">
-        <v>4.5080437066969301</v>
+        <v>6.9024897125636704</v>
       </c>
       <c r="E144" s="0">
-        <v>-0.07258310106604153</v>
+        <v>-0.047087214047051233</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B145" s="0">
-        <v>-0.59029011562396561</v>
+        <v>0.067004020156072486</v>
       </c>
       <c r="C145" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D145" s="0">
-        <v>3.8478014031561893</v>
+        <v>4.6707924490289638</v>
       </c>
       <c r="E145" s="0">
-        <v>-0.087699521049086224</v>
+        <v>-0.075129919602117901</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B146" s="0">
-        <v>0.83411189921734818</v>
+        <v>1.6107468151481188</v>
       </c>
       <c r="C146" s="0">
         <v>21</v>
       </c>
       <c r="D146" s="0">
-        <v>3.7506474374352128</v>
+        <v>2.9975991672270927</v>
       </c>
       <c r="E146" s="0">
-        <v>-0.11452111213173893</v>
+        <v>-0.14432338874812287</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B147" s="0">
-        <v>0.426484005020343</v>
+        <v>0.25019467247889804</v>
       </c>
       <c r="C147" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D147" s="0">
-        <v>2.124450508657421</v>
+        <v>7.3862254107154044</v>
       </c>
       <c r="E147" s="0">
-        <v>-0.56151303964471044</v>
+        <v>-0.043261883013834011</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B148" s="0">
-        <v>-0.61572621873978828</v>
+        <v>-0.16564990209089603</v>
       </c>
       <c r="C148" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D148" s="0">
-        <v>4.2360118628785584</v>
+        <v>5.0227480599370127</v>
       </c>
       <c r="E148" s="0">
-        <v>0.77556445311284727</v>
+        <v>-0.064722446623367513</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B149" s="0">
-        <v>0.98988195187687789</v>
+        <v>0.56701164174337038</v>
       </c>
       <c r="C149" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D149" s="0">
-        <v>5.754937510259829</v>
+        <v>1</v>
       </c>
       <c r="E149" s="0">
-        <v>-0.058607067986202736</v>
+        <v>-0.94635698378656119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B150" s="0">
-        <v>0.1612613014153341</v>
+        <v>0.19901425362882103</v>
       </c>
       <c r="C150" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D150" s="0">
-        <v>5.2204543756386173</v>
+        <v>7.0726813375060331</v>
       </c>
       <c r="E150" s="0">
-        <v>-0.069614724201673694</v>
+        <v>-0.045954143137977542</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B151" s="0">
-        <v>-0.042691089661178967</v>
+        <v>0.48253906801204477</v>
       </c>
       <c r="C151" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D151" s="0">
-        <v>4.6850786379429534</v>
+        <v>5.4005145173534927</v>
       </c>
       <c r="E151" s="0">
-        <v>-0.078489757537050481</v>
+        <v>-0.063789124586752705</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.90476604906422353</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B152" s="0">
-        <v>0.43717151919781505</v>
+        <v>0.41115420431703698</v>
       </c>
       <c r="C152" s="0">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D152" s="0">
-        <v>1</v>
+        <v>1.8351704677346268</v>
       </c>
       <c r="E152" s="0">
-        <v>-1.1989857247680913</v>
+        <v>-0.22021673667012057</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B153" s="0">
-        <v>0.47044432268514225</v>
+        <v>1.4378803931604531</v>
       </c>
       <c r="C153" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D153" s="0">
-        <v>8.0923250534377917</v>
+        <v>4.6073872010964001</v>
       </c>
       <c r="E153" s="0">
-        <v>-0.028913313746743097</v>
+        <v>-0.070212476517518524</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B154" s="0">
-        <v>-0.062574659690446663</v>
+        <v>0.34676180302227411</v>
       </c>
       <c r="C154" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D154" s="0">
-        <v>5.1202702114094816</v>
+        <v>10.243070060568796</v>
       </c>
       <c r="E154" s="0">
-        <v>-0.065953456967288854</v>
+        <v>2.906683459496695</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B155" s="0">
-        <v>0.3264541126812332</v>
+        <v>0.71909523148808596</v>
       </c>
       <c r="C155" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" s="0">
-        <v>5.4780788296969458</v>
+        <v>4.37236825843038</v>
       </c>
       <c r="E155" s="0">
-        <v>-0.066340865632926252</v>
+        <v>-0.084042115580225521</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B156" s="0">
-        <v>1.0101297040748207</v>
+        <v>-0.11811576353605292</v>
       </c>
       <c r="C156" s="0">
         <v>14</v>
       </c>
       <c r="D156" s="0">
-        <v>5.7184834201959633</v>
+        <v>4.2105918493926486</v>
       </c>
       <c r="E156" s="0">
-        <v>-0.05901046052822792</v>
+        <v>-0.091534704414944545</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B157" s="0">
-        <v>-0.17142220629252267</v>
+        <v>1.429017423848117</v>
       </c>
       <c r="C157" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D157" s="0">
-        <v>5.5282006993483535</v>
+        <v>4.9150892623716</v>
       </c>
       <c r="E157" s="0">
-        <v>-0.061034970233191412</v>
+        <v>-0.065012455028740285</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.40402016061700907</v>
       </c>
       <c r="B158" s="0">
-        <v>0.26705673749621428</v>
+        <v>0.64720742991463764</v>
       </c>
       <c r="C158" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D158" s="0">
-        <v>7.3111972466220312</v>
+        <v>10.195041726798125</v>
       </c>
       <c r="E158" s="0">
-        <v>-0.049125123003328011</v>
+        <v>2.9203767004955461</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B159" s="0">
-        <v>-0.52284445131753432</v>
+        <v>1.6705097297888594</v>
       </c>
       <c r="C159" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D159" s="0">
-        <v>1.4898055812260149</v>
+        <v>2.8896613719225739</v>
       </c>
       <c r="E159" s="0">
-        <v>-0.31125977319376652</v>
+        <v>-0.16272381990463886</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B160" s="0">
-        <v>1.2909525103656359</v>
+        <v>1.3992781669884633</v>
       </c>
       <c r="C160" s="0">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>1.2496852126286586</v>
+        <v>5.7150101410846901</v>
       </c>
       <c r="E160" s="0">
-        <v>-0.49722730146586924</v>
+        <v>0.43103067445629673</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B161" s="0">
-        <v>0.98952553382334085</v>
+        <v>0.37496509324972793</v>
       </c>
       <c r="C161" s="0">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D161" s="0">
-        <v>5.0098687968226976</v>
+        <v>2.5263371205480754</v>
       </c>
       <c r="E161" s="0">
-        <v>0.023453678185135711</v>
+        <v>-0.14685793091182905</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B162" s="0">
-        <v>0.95231905761134783</v>
+        <v>0.18554398780858572</v>
       </c>
       <c r="C162" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="0">
-        <v>6.0442541293078236</v>
+        <v>6.4066353583887787</v>
       </c>
       <c r="E162" s="0">
-        <v>-0.054135346557770719</v>
+        <v>-0.050741852006019647</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B163" s="0">
-        <v>0.7442866235966944</v>
+        <v>-0.038378617107421596</v>
       </c>
       <c r="C163" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D163" s="0">
-        <v>7.4036905191115068</v>
+        <v>6.2303269586028609</v>
       </c>
       <c r="E163" s="0">
-        <v>-0.049718266852066817</v>
+        <v>-0.051922807232036468</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B164" s="0">
-        <v>0.09456000499949474</v>
+        <v>0.26299613116506315</v>
       </c>
       <c r="C164" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D164" s="0">
-        <v>8.790910814550724</v>
+        <v>7.5804532279424812</v>
       </c>
       <c r="E164" s="0">
-        <v>-0.02661566453653463</v>
+        <v>-0.042875933770687318</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B165" s="0">
-        <v>0.18489351634948301</v>
+        <v>0.4238918450215492</v>
       </c>
       <c r="C165" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D165" s="0">
-        <v>4.6754359732888409</v>
+        <v>6.769605298949819</v>
       </c>
       <c r="E165" s="0">
-        <v>-0.091869147220295336</v>
+        <v>-0.04778654757232019</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.40402016061700907</v>
       </c>
       <c r="B166" s="0">
-        <v>-0.18840200388527062</v>
+        <v>0.80273006730484042</v>
       </c>
       <c r="C166" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D166" s="0">
-        <v>6.1875349557653925</v>
+        <v>7.0327991465030379</v>
       </c>
       <c r="E166" s="0">
-        <v>-0.058458009350187655</v>
+        <v>-0.043219754636447165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B167" s="0">
-        <v>0.1572987679204764</v>
+        <v>-0.484139129282319</v>
       </c>
       <c r="C167" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D167" s="0">
-        <v>7.8152932768932413</v>
+        <v>5.5179339466009596</v>
       </c>
       <c r="E167" s="0">
-        <v>-0.047099788565532971</v>
+        <v>0.0044387058809416523</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B168" s="0">
-        <v>0.22349054117418291</v>
+        <v>0.50473415290284585</v>
       </c>
       <c r="C168" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D168" s="0">
-        <v>2.2219444751837427</v>
+        <v>1.3797531885104215</v>
       </c>
       <c r="E168" s="0">
-        <v>-0.34592489069371668</v>
+        <v>-0.38281749279942484</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B169" s="0">
-        <v>1.2340327972229184</v>
+        <v>0.16378245308302772</v>
       </c>
       <c r="C169" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D169" s="0">
-        <v>4.6805718131426088</v>
+        <v>6.4201921120735603</v>
       </c>
       <c r="E169" s="0">
-        <v>-0.078643951127021772</v>
+        <v>-0.05038728748564119</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B170" s="0">
-        <v>-0.34100358493371286</v>
+        <v>1.5003168923898937</v>
       </c>
       <c r="C170" s="0">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D170" s="0">
-        <v>1</v>
+        <v>4.0035866091199548</v>
       </c>
       <c r="E170" s="0">
-        <v>-0.94898572476809129</v>
+        <v>-0.097893635042744398</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B171" s="0">
-        <v>0.64872340499876946</v>
+        <v>1.2963910920225326</v>
       </c>
       <c r="C171" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D171" s="0">
-        <v>6.5607546142647113</v>
+        <v>6.2133282348089152</v>
       </c>
       <c r="E171" s="0">
-        <v>-0.047735214442738975</v>
+        <v>0.39646137827322864</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B172" s="0">
-        <v>0.33014000120258552</v>
+        <v>1.5007023218467999</v>
       </c>
       <c r="C172" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D172" s="0">
-        <v>4.9153280805266517</v>
+        <v>3.9707404369324295</v>
       </c>
       <c r="E172" s="0">
-        <v>-0.075663759226222815</v>
+        <v>-0.098703416302372851</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B173" s="0">
-        <v>0.50780279584807497</v>
+        <v>0.2066859426871612</v>
       </c>
       <c r="C173" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>6.8004951384243144</v>
+        <v>9.6884899078353026</v>
       </c>
       <c r="E173" s="0">
-        <v>-0.052814310830478606</v>
+        <v>30.964577849989105</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.40402016061700907</v>
       </c>
       <c r="B174" s="0">
-        <v>-0.52736232655641357</v>
+        <v>0.9571997846364757</v>
       </c>
       <c r="C174" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D174" s="0">
-        <v>3.0090614098069741</v>
+        <v>5.8623068934013354</v>
       </c>
       <c r="E174" s="0">
-        <v>-0.12359741120295648</v>
+        <v>-0.059859756159937633</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B175" s="0">
-        <v>0.08264711453387448</v>
+        <v>1.1939262903181074</v>
       </c>
       <c r="C175" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D175" s="0">
-        <v>8.7444747461721377</v>
+        <v>6.3354516038497897</v>
       </c>
       <c r="E175" s="0">
-        <v>0.37570012141107395</v>
+        <v>-0.051301632602726258</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B176" s="0">
-        <v>-0.51671526557766123</v>
+        <v>-0.11056440975234524</v>
       </c>
       <c r="C176" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D176" s="0">
-        <v>1.6524555108974845</v>
+        <v>7.9994423218247341</v>
       </c>
       <c r="E176" s="0">
-        <v>-0.45219208416693402</v>
+        <v>0.0030617741680070438</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B177" s="0">
-        <v>0.81536810276567906</v>
+        <v>0.36842429692154499</v>
       </c>
       <c r="C177" s="0">
         <v>19</v>
       </c>
       <c r="D177" s="0">
-        <v>5.5836301545239237</v>
+        <v>3.2502748279327838</v>
       </c>
       <c r="E177" s="0">
-        <v>-0.073851248583526541</v>
+        <v>-0.11175456300145237</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B178" s="0">
-        <v>0.076810618172542561</v>
+        <v>1.4777498013976578</v>
       </c>
       <c r="C178" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D178" s="0">
-        <v>8.7477488298757287</v>
+        <v>5.5112868179858108</v>
       </c>
       <c r="E178" s="0">
-        <v>-0.026746988026404087</v>
+        <v>-0.058985234111024451</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B179" s="0">
-        <v>-0.59517536279115346</v>
+        <v>-0.1085980903106142</v>
       </c>
       <c r="C179" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D179" s="0">
-        <v>3.8658743276157104</v>
+        <v>3.8251338693169297</v>
       </c>
       <c r="E179" s="0">
-        <v>-0.087280013920146116</v>
+        <v>-0.099549199567015106</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B180" s="0">
-        <v>0.20333032090299097</v>
+        <v>-0.46873509992290296</v>
       </c>
       <c r="C180" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D180" s="0">
-        <v>8.8637286580332315</v>
+        <v>4.3708229229890314</v>
       </c>
       <c r="E180" s="0">
-        <v>-0.026397009908310221</v>
+        <v>-0.06954201963217789</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.25750860419278265</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B181" s="0">
-        <v>0.52080863253451459</v>
+        <v>-0.43997094855951341</v>
       </c>
       <c r="C181" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D181" s="0">
-        <v>7.1950314415898609</v>
+        <v>4.651949635301408</v>
       </c>
       <c r="E181" s="0">
-        <v>-0.046900467758655758</v>
+        <v>-0.06925316117687258</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B182" s="0">
-        <v>0.75050091835160171</v>
+        <v>0.83596142761233072</v>
       </c>
       <c r="C182" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D182" s="0">
-        <v>5.7928251767564207</v>
+        <v>5.8976388521656364</v>
       </c>
       <c r="E182" s="0">
-        <v>-0.063480370132637201</v>
+        <v>-0.054851793026510491</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B183" s="0">
-        <v>1.044603848018629</v>
+        <v>1.1899223109486132</v>
       </c>
       <c r="C183" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D183" s="0">
-        <v>5.9660989010685963</v>
+        <v>5.9523171058678228</v>
       </c>
       <c r="E183" s="0">
-        <v>-0.061698383989808203</v>
+        <v>-0.054614789069524904</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B184" s="0">
-        <v>-0.10359146215244736</v>
+        <v>1.5422665719367341</v>
       </c>
       <c r="C184" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D184" s="0">
-        <v>6.3438722023114371</v>
+        <v>3.0461172020396798</v>
       </c>
       <c r="E184" s="0">
-        <v>-0.057017380672793848</v>
+        <v>-0.11924460516063802</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B185" s="0">
-        <v>1.0604562690356003</v>
+        <v>1.4953416467584899</v>
       </c>
       <c r="C185" s="0">
         <v>14</v>
       </c>
       <c r="D185" s="0">
-        <v>5.362645027090311</v>
+        <v>2.7156140570056815</v>
       </c>
       <c r="E185" s="0">
-        <v>-0.062926100542570335</v>
+        <v>-0.14192564637520746</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B186" s="0">
-        <v>-0.58665601157272129</v>
+        <v>-0.42804405516058347</v>
       </c>
       <c r="C186" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D186" s="0">
-        <v>4.2103210971703762</v>
+        <v>3.4108419228160507</v>
       </c>
       <c r="E186" s="0">
-        <v>-0.085910544101218497</v>
+        <v>-0.094494093380028635</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B187" s="0">
-        <v>0.67153759954198755</v>
+        <v>-0.0037564333515663702</v>
       </c>
       <c r="C187" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D187" s="0">
-        <v>6.5430617295678983</v>
+        <v>5.5864479935973348</v>
       </c>
       <c r="E187" s="0">
-        <v>-0.05489226281006207</v>
+        <v>-0.061666034262711403</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B188" s="0">
-        <v>-0.24802454048164746</v>
+        <v>0.26095336385492157</v>
       </c>
       <c r="C188" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D188" s="0">
-        <v>6.7658074825337993</v>
+        <v>6.7323338039257274</v>
       </c>
       <c r="E188" s="0">
-        <v>0.48557400314656829</v>
+        <v>-0.048287050624604241</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B189" s="0">
-        <v>0.5176372886751488</v>
+        <v>-0.30566035192019181</v>
       </c>
       <c r="C189" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D189" s="0">
-        <v>6.1808338667053677</v>
+        <v>2.7223817092137694</v>
       </c>
       <c r="E189" s="0">
-        <v>-0.054590298397340628</v>
+        <v>-0.13628237401601842</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B190" s="0">
-        <v>1.2666327803745165</v>
+        <v>1.4814041553018691</v>
       </c>
       <c r="C190" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D190" s="0">
-        <v>3.3824183074177836</v>
+        <v>5.6866382630613277</v>
       </c>
       <c r="E190" s="0">
-        <v>-0.12191220040286049</v>
+        <v>-0.057154859429740648</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B191" s="0">
-        <v>-0.12984685524361328</v>
+        <v>1.5109116838173253</v>
       </c>
       <c r="C191" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D191" s="0">
-        <v>5.8377039996558464</v>
+        <v>4.9552238484101112</v>
       </c>
       <c r="E191" s="0">
-        <v>-0.06024133641633625</v>
+        <v>-0.07684597640313591</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B192" s="0">
-        <v>-0.024217557538366911</v>
+        <v>1.4909512428989344</v>
       </c>
       <c r="C192" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D192" s="0">
-        <v>5.3400666324001858</v>
+        <v>2.5439824257607992</v>
       </c>
       <c r="E192" s="0">
-        <v>-0.07721964666850599</v>
+        <v>-0.13541528034613085</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B193" s="0">
-        <v>-0.60407374330859998</v>
+        <v>0.049333960127741903</v>
       </c>
       <c r="C193" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D193" s="0">
-        <v>4.2377781500791523</v>
+        <v>2.2352113865849614</v>
       </c>
       <c r="E193" s="0">
-        <v>-0.073901704460925061</v>
+        <v>-0.22678012726288077</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B194" s="0">
-        <v>0.82894809060142138</v>
+        <v>0.2157342085017192</v>
       </c>
       <c r="C194" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D194" s="0">
-        <v>3.6738114483606843</v>
+        <v>9.1404278156355954</v>
       </c>
       <c r="E194" s="0">
-        <v>-0.10123333917117981</v>
+        <v>0.0026795776251882291</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B195" s="0">
-        <v>0.35838108580530298</v>
+        <v>-0.44545270462839348</v>
       </c>
       <c r="C195" s="0">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D195" s="0">
-        <v>2.2612212859300835</v>
+        <v>4.3333621813365673</v>
       </c>
       <c r="E195" s="0">
-        <v>-0.27479734505575576</v>
+        <v>-0.075019010553054696</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B196" s="0">
-        <v>0.7438977961122627</v>
+        <v>-0.34038755775220186</v>
       </c>
       <c r="C196" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D196" s="0">
-        <v>6.0054087703428332</v>
+        <v>3.3209710916616446</v>
       </c>
       <c r="E196" s="0">
-        <v>-0.056232562005901196</v>
+        <v>-0.10937555100743312</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B197" s="0">
-        <v>-0.16714298744681103</v>
+        <v>-0.36402016117639041</v>
       </c>
       <c r="C197" s="0">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D197" s="0">
-        <v>5.7871454050452158</v>
+        <v>3.3628789330112396</v>
       </c>
       <c r="E197" s="0">
-        <v>5.4251480019451446</v>
+        <v>-0.11323304303024904</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B198" s="0">
-        <v>0.25870294672434607</v>
+        <v>1.5248790695400503</v>
       </c>
       <c r="C198" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D198" s="0">
-        <v>8.3808266827433968</v>
+        <v>4.9328498919534089</v>
       </c>
       <c r="E198" s="0">
-        <v>-0.036044590187821371</v>
+        <v>-0.077194527153224848</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B199" s="0">
-        <v>1.5352389651285177</v>
+        <v>1.3304456404265175</v>
       </c>
       <c r="C199" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D199" s="0">
-        <v>1.1064534567127664</v>
+        <v>4.9048973025657201</v>
       </c>
       <c r="E199" s="0">
-        <v>-0.94290666269097978</v>
+        <v>-0.05044023399933488</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B200" s="0">
-        <v>-0.24294183633425487</v>
+        <v>0.88401470260209059</v>
       </c>
       <c r="C200" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D200" s="0">
-        <v>5.5499976374047302</v>
+        <v>4.1892123034232585</v>
       </c>
       <c r="E200" s="0">
-        <v>0.021171153248522364</v>
+        <v>-0.082233620172107696</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B201" s="0">
-        <v>0.076297728161884917</v>
+        <v>0.35430375776756962</v>
       </c>
       <c r="C201" s="0">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D201" s="0">
-        <v>8.1197508849190569</v>
+        <v>4.4604943539381079</v>
       </c>
       <c r="E201" s="0">
-        <v>3.8666359074463226</v>
+        <v>-0.085369240427574225</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B202" s="0">
-        <v>-0.16947748759865222</v>
+        <v>0.075114266993741061</v>
       </c>
       <c r="C202" s="0">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D202" s="0">
-        <v>5.8365019357781307</v>
+        <v>8.3787264800816121</v>
       </c>
       <c r="E202" s="0">
-        <v>-0.057788041130012832</v>
+        <v>0.0029231752483686152</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.40402016061700907</v>
       </c>
       <c r="B203" s="0">
-        <v>-0.60741147851924526</v>
+        <v>0.66221690479716444</v>
       </c>
       <c r="C203" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D203" s="0">
-        <v>4.8745780135569925</v>
+        <v>8.5536010642693387</v>
       </c>
       <c r="E203" s="0">
-        <v>-0.047999218098459279</v>
+        <v>0.28798919392282085</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B204" s="0">
-        <v>1.0523098771175934</v>
+        <v>-0.03355997854779251</v>
       </c>
       <c r="C204" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D204" s="0">
-        <v>4.2186457394632759</v>
+        <v>8.2497042988119755</v>
       </c>
       <c r="E204" s="0">
-        <v>-0.086146245504307217</v>
+        <v>0.0029688925775136423</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B205" s="0">
-        <v>-0.56563590780688588</v>
+        <v>-0.22458986389736646</v>
       </c>
       <c r="C205" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D205" s="0">
-        <v>3.5021242823810135</v>
+        <v>5.6703042708755715</v>
       </c>
       <c r="E205" s="0">
-        <v>-0.11774512418498988</v>
+        <v>52.907213734700683</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.18526538021141981</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B206" s="0">
-        <v>0.95545921449928228</v>
+        <v>0.85235043452618486</v>
       </c>
       <c r="C206" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" s="0">
-        <v>6.6171797281769411</v>
+        <v>7.0426022523526166</v>
       </c>
       <c r="E206" s="0">
-        <v>-0.053145162287914202</v>
+        <v>-0.046150414137683338</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.6009686349524237</v>
       </c>
       <c r="B207" s="0">
-        <v>1.1853704730708066</v>
+        <v>0.96560412459525258</v>
       </c>
       <c r="C207" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D207" s="0">
-        <v>6.3442383929228257</v>
+        <v>1</v>
       </c>
       <c r="E207" s="0">
-        <v>4.9487611257121618</v>
+        <v>-1.1963569837865613</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B208" s="0">
-        <v>-0.51243422598792499</v>
+        <v>-0.1672422965923796</v>
       </c>
       <c r="C208" s="0">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D208" s="0">
-        <v>1.4937623631209171</v>
+        <v>5.2114761052452963</v>
       </c>
       <c r="E208" s="0">
-        <v>-0.69842590899947676</v>
+        <v>-0.061315069507958057</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B209" s="0">
-        <v>0.16584557784180462</v>
+        <v>0.011129877317273461</v>
       </c>
       <c r="C209" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D209" s="0">
-        <v>8.3998194451720618</v>
+        <v>5.6435248381774121</v>
       </c>
       <c r="E209" s="0">
-        <v>3.7377137135004168</v>
+        <v>-0.061042363285014563</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B210" s="0">
-        <v>1.1139285105216636</v>
+        <v>1.0936298329553087</v>
       </c>
       <c r="C210" s="0">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D210" s="0">
-        <v>4.7613468379501311</v>
+        <v>6.9763163900527259</v>
       </c>
       <c r="E210" s="0">
-        <v>-0.077232493000336355</v>
+        <v>0.3531010547555874</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B211" s="0">
-        <v>0.27119899278125026</v>
+        <v>-0.024830546805360159</v>
       </c>
       <c r="C211" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D211" s="0">
-        <v>5.9810151059008989</v>
+        <v>2.8814988689319159</v>
       </c>
       <c r="E211" s="0">
-        <v>-0.061482989061731712</v>
+        <v>-0.13795371918958627</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B212" s="0">
-        <v>0.25910625009780508</v>
+        <v>0.41090252084492651</v>
       </c>
       <c r="C212" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D212" s="0">
-        <v>8.0480749522440131</v>
+        <v>7.5671422908187269</v>
       </c>
       <c r="E212" s="0">
-        <v>-0.040656653164255346</v>
+        <v>-0.042227568526084239</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B213" s="0">
-        <v>1.0661084946923056</v>
+        <v>-0.16638351491676473</v>
       </c>
       <c r="C213" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D213" s="0">
-        <v>4.4782204484742545</v>
+        <v>5.025101824525275</v>
       </c>
       <c r="E213" s="0">
-        <v>-0.092080785947175253</v>
+        <v>-0.064376022011187264</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B214" s="0">
-        <v>0.24018558423573688</v>
+        <v>-0.52425509075692689</v>
       </c>
       <c r="C214" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" s="0">
-        <v>8.4931398188162728</v>
+        <v>4.7196693775585112</v>
       </c>
       <c r="E214" s="0">
-        <v>3.6966447039515353</v>
+        <v>63.563774493710454</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B215" s="0">
-        <v>-0.25929874158684352</v>
+        <v>0.35505069427162955</v>
       </c>
       <c r="C215" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D215" s="0">
-        <v>5.5475307374179401</v>
+        <v>7.5920819416563292</v>
       </c>
       <c r="E215" s="0">
-        <v>5.6594765882739724</v>
+        <v>-0.040035902648985863</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B216" s="0">
-        <v>0.13857684460079744</v>
+        <v>-0.46276274868675632</v>
       </c>
       <c r="C216" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D216" s="0">
-        <v>7.128372739129877</v>
+        <v>4.3084242352138729</v>
       </c>
       <c r="E216" s="0">
-        <v>-0.047315148388454797</v>
+        <v>-0.075084543211896088</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B217" s="0">
-        <v>0.96166318704445908</v>
+        <v>0.56062344403296271</v>
       </c>
       <c r="C217" s="0">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D217" s="0">
-        <v>6.2732522548599077</v>
+        <v>1.0603639434122911</v>
       </c>
       <c r="E217" s="0">
-        <v>-0.056058815468454801</v>
+        <v>-0.69635698378656119</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B218" s="0">
-        <v>0.64071888106062647</v>
+        <v>1.4666068497469398</v>
       </c>
       <c r="C218" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D218" s="0">
-        <v>7.38706106330085</v>
+        <v>4.5140692876054613</v>
       </c>
       <c r="E218" s="0">
-        <v>-0.040893592272494436</v>
+        <v>-0.07166395663273005</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.097630982831353297</v>
       </c>
       <c r="B219" s="0">
-        <v>1.1999246620052644</v>
+        <v>1.1692156794645872</v>
       </c>
       <c r="C219" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D219" s="0">
-        <v>4.7813882355941439</v>
+        <v>10.972937786659537</v>
       </c>
       <c r="E219" s="0">
-        <v>-0.063179028418115221</v>
+        <v>2.7133446756363093</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B220" s="0">
-        <v>0.19263016767344118</v>
+        <v>-0.027944647206981345</v>
       </c>
       <c r="C220" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D220" s="0">
-        <v>8.9333986285515348</v>
+        <v>6.3270752595660227</v>
       </c>
       <c r="E220" s="0">
-        <v>0.36775479975929637</v>
+        <v>-0.051128847436261594</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B221" s="0">
-        <v>-0.58485468798353879</v>
+        <v>1.5493250552752384</v>
       </c>
       <c r="C221" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D221" s="0">
-        <v>3.9004965426452429</v>
+        <v>3.0442162342615027</v>
       </c>
       <c r="E221" s="0">
-        <v>-0.086505285016611561</v>
+        <v>-0.11931906772659527</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B222" s="0">
-        <v>1.2236333836510676</v>
+        <v>0.73956255742704224</v>
       </c>
       <c r="C222" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D222" s="0">
-        <v>4.5497345536959086</v>
+        <v>6.0901845551341491</v>
       </c>
       <c r="E222" s="0">
-        <v>-0.074169236944752526</v>
+        <v>-0.057619971611188023</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B223" s="0">
-        <v>0.10675696562724146</v>
+        <v>1.1468992809432996</v>
       </c>
       <c r="C223" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D223" s="0">
-        <v>7.835620084224816</v>
+        <v>4.8957872288003346</v>
       </c>
       <c r="E223" s="0">
-        <v>-0.041759016957965064</v>
+        <v>-0.077778914223870052</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B224" s="0">
-        <v>1.0234222106048467</v>
+        <v>1.321489504095805</v>
       </c>
       <c r="C224" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D224" s="0">
-        <v>5.8098335185997518</v>
+        <v>7.1308275957329519</v>
       </c>
       <c r="E224" s="0">
-        <v>-0.060530321465565334</v>
+        <v>0.0034347325791583335</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.045112085199479846</v>
       </c>
       <c r="B225" s="0">
-        <v>-0.57587118064615839</v>
+        <v>1.433106669713645</v>
       </c>
       <c r="C225" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D225" s="0">
-        <v>3.8909825751869369</v>
+        <v>3.7337588022413923</v>
       </c>
       <c r="E225" s="0">
-        <v>-0.086726253235042405</v>
+        <v>-0.086321702131807634</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B226" s="0">
-        <v>0.10542347654599105</v>
+        <v>1.5047677710856273</v>
       </c>
       <c r="C226" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D226" s="0">
-        <v>7.5013182587039875</v>
+        <v>2.8624199975518851</v>
       </c>
       <c r="E226" s="0">
-        <v>-0.04688123852553594</v>
+        <v>-0.12837496902921025</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B227" s="0">
-        <v>1.2236592227840994</v>
+        <v>-0.1275686657697408</v>
       </c>
       <c r="C227" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D227" s="0">
-        <v>4.1363887830664012</v>
+        <v>8.5591773466194354</v>
       </c>
       <c r="E227" s="0">
-        <v>-0.081641146120394831</v>
+        <v>3.4785308346579038</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B228" s="0">
-        <v>-0.43830361711877391</v>
+        <v>1.3516832521378246</v>
       </c>
       <c r="C228" s="0">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D228" s="0">
-        <v>1.1614312344461726</v>
+        <v>10.746090080688337</v>
       </c>
       <c r="E228" s="0">
-        <v>-0.88296682974017937</v>
+        <v>2.7706228122009198</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B229" s="0">
-        <v>0.21956056561692422</v>
+        <v>0.59404024987302484</v>
       </c>
       <c r="C229" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D229" s="0">
-        <v>7.749118404036496</v>
+        <v>6.7528854618555663</v>
       </c>
       <c r="E229" s="0">
-        <v>-0.045382077315927312</v>
+        <v>-0.058038248773660324</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B230" s="0">
-        <v>0.91493069986523001</v>
+        <v>-0.042442858269428944</v>
       </c>
       <c r="C230" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D230" s="0">
-        <v>5.4287622730113938</v>
+        <v>6.6406837813450039</v>
       </c>
       <c r="E230" s="0">
-        <v>0.021643948399540831</v>
+        <v>-0.04811884290136427</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B231" s="0">
-        <v>1.017996095734002</v>
+        <v>0.45587018311121236</v>
       </c>
       <c r="C231" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D231" s="0">
-        <v>5.0996552599911684</v>
+        <v>7.9032568654231792</v>
       </c>
       <c r="E231" s="0">
-        <v>-0.066220068579630045</v>
+        <v>-0.04112469278013927</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B232" s="0">
-        <v>0.29075731768200647</v>
+        <v>1.4659555564657263</v>
       </c>
       <c r="C232" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D232" s="0">
-        <v>8.0618651578663894</v>
+        <v>5.5759569994151779</v>
       </c>
       <c r="E232" s="0">
-        <v>-0.04565924307976419</v>
+        <v>-0.058301120910005555</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B233" s="0">
-        <v>0.11567372988459293</v>
+        <v>1.3357434500173833</v>
       </c>
       <c r="C233" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D233" s="0">
-        <v>7.1612308930821271</v>
+        <v>5.161830147733812</v>
       </c>
       <c r="E233" s="0">
-        <v>-0.050153872903170665</v>
+        <v>-0.058885287740961696</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B234" s="0">
-        <v>-0.60378426499506088</v>
+        <v>1.401937682600948</v>
       </c>
       <c r="C234" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D234" s="0">
-        <v>3.2182972586225191</v>
+        <v>6.754118525553654</v>
       </c>
       <c r="E234" s="0">
-        <v>-0.10167109054225952</v>
+        <v>0.0036263038273254976</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.21534852927638193</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B235" s="0">
-        <v>0.78392556778412448</v>
+        <v>-0.44440890056979759</v>
       </c>
       <c r="C235" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D235" s="0">
-        <v>5.1351406943022759</v>
+        <v>4.5040052828273023</v>
       </c>
       <c r="E235" s="0">
-        <v>-0.070771282269001562</v>
+        <v>-0.072162217880222007</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.25750860419278265</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B236" s="0">
-        <v>0.51940537903908246</v>
+        <v>0.025394164742158644</v>
       </c>
       <c r="C236" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D236" s="0">
-        <v>7.1915247234522592</v>
+        <v>2.2336363366492251</v>
       </c>
       <c r="E236" s="0">
-        <v>-0.046899652979046753</v>
+        <v>-0.21051624606694619</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B237" s="0">
-        <v>0.49665063516935354</v>
+        <v>-0.016727601706012427</v>
       </c>
       <c r="C237" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D237" s="0">
-        <v>7.7968809865678459</v>
+        <v>2.2540613676820396</v>
       </c>
       <c r="E237" s="0">
-        <v>-0.041966498210889228</v>
+        <v>-0.17929203589230144</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B238" s="0">
-        <v>0.2302488456632189</v>
+        <v>1.4856075223629424</v>
       </c>
       <c r="C238" s="0">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D238" s="0">
-        <v>2.3089444463986268</v>
+        <v>3.4617164405409375</v>
       </c>
       <c r="E238" s="0">
-        <v>-0.37132685947137911</v>
+        <v>-0.093105377258667701</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B239" s="0">
-        <v>0.075076262065909186</v>
+        <v>0.061087682915034178</v>
       </c>
       <c r="C239" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239" s="0">
-        <v>8.950690964233198</v>
+        <v>8.8209860582397468</v>
       </c>
       <c r="E239" s="0">
-        <v>33.516965472140043</v>
+        <v>3.375287311752365</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B240" s="0">
-        <v>0.14169520179225656</v>
+        <v>0.95325735619556584</v>
       </c>
       <c r="C240" s="0">
         <v>15</v>
       </c>
       <c r="D240" s="0">
-        <v>6.2117961241926967</v>
+        <v>5.7044606566371403</v>
       </c>
       <c r="E240" s="0">
-        <v>-0.054364231262173733</v>
+        <v>-0.06870511867220995</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B241" s="0">
-        <v>0.061034780659872057</v>
+        <v>1.3085678594862606</v>
       </c>
       <c r="C241" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D241" s="0">
-        <v>8.8518603137006817</v>
+        <v>4.7407824907602993</v>
       </c>
       <c r="E241" s="0">
-        <v>33.891180991149142</v>
+        <v>-0.082671087977367358</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B242" s="0">
-        <v>0.99452672142197873</v>
+        <v>-0.0097269168722998022</v>
       </c>
       <c r="C242" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D242" s="0">
-        <v>5.0346848357027438</v>
+        <v>4.676822995553982</v>
       </c>
       <c r="E242" s="0">
-        <v>-0.06220429652264451</v>
+        <v>-0.068915247693892789</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B243" s="0">
-        <v>-0.5747486699973442</v>
+        <v>0.47601296008759031</v>
       </c>
       <c r="C243" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D243" s="0">
-        <v>2.859469518285537</v>
+        <v>5.0792329695272436</v>
       </c>
       <c r="E243" s="0">
-        <v>-0.11809866091930298</v>
+        <v>-0.06345533215207004</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B244" s="0">
-        <v>0.36156984439394596</v>
+        <v>0.22640362281492321</v>
       </c>
       <c r="C244" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D244" s="0">
-        <v>2.2354445220153352</v>
+        <v>8.4307444784280374</v>
       </c>
       <c r="E244" s="0">
-        <v>-0.46670016903455774</v>
+        <v>-0.029345471009963684</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B245" s="0">
-        <v>0.15859181622422927</v>
+        <v>-0.25310647636437</v>
       </c>
       <c r="C245" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D245" s="0">
-        <v>7.8421819657158407</v>
+        <v>2.1239218685026318</v>
       </c>
       <c r="E245" s="0">
-        <v>-0.046938296322189793</v>
+        <v>-0.22139078825984501</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B246" s="0">
-        <v>0.88882932588229024</v>
+        <v>1.4449414158434877</v>
       </c>
       <c r="C246" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D246" s="0">
-        <v>8.4613330128749382</v>
+        <v>5.6444521414698476</v>
       </c>
       <c r="E246" s="0">
-        <v>3.7105406776183014</v>
+        <v>-0.057593639748222257</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B247" s="0">
-        <v>1.2820390923094451</v>
+        <v>0.43485679175598679</v>
       </c>
       <c r="C247" s="0">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D247" s="0">
-        <v>1.2486389590456954</v>
+        <v>6.9079273858350225</v>
       </c>
       <c r="E247" s="0">
-        <v>-0.37137760595714897</v>
+        <v>-0.047059635264622895</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B248" s="0">
-        <v>0.33335712352239644</v>
+        <v>0.36505642495885571</v>
       </c>
       <c r="C248" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D248" s="0">
-        <v>4.7549662958453558</v>
+        <v>6.7966953799446514</v>
       </c>
       <c r="E248" s="0">
-        <v>-0.090332567893159826</v>
+        <v>-0.047596081268943199</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B249" s="0">
-        <v>-0.51884317978531391</v>
+        <v>-0.044520367544927553</v>
       </c>
       <c r="C249" s="0">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D249" s="0">
-        <v>1.4844858528575218</v>
+        <v>6.6612944856710481</v>
       </c>
       <c r="E249" s="0">
-        <v>-0.41858102235265132</v>
+        <v>-0.045630148040010622</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B250" s="0">
-        <v>0.99885558369911642</v>
+        <v>0.21699952524960459</v>
       </c>
       <c r="C250" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D250" s="0">
-        <v>5.6182873006156182</v>
+        <v>6.5408852157078812</v>
       </c>
       <c r="E250" s="0">
-        <v>-0.058239775658582335</v>
+        <v>-0.049253611285908543</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B251" s="0">
-        <v>-0.10051373495876467</v>
+        <v>-0.3702365933978114</v>
       </c>
       <c r="C251" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D251" s="0">
-        <v>5.6311362435796903</v>
+        <v>3.4846639347579416</v>
       </c>
       <c r="E251" s="0">
-        <v>-0.059919268604544058</v>
+        <v>-0.1054515113692996</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B252" s="0">
-        <v>0.42511386782407645</v>
+        <v>-0.50189756497211746</v>
       </c>
       <c r="C252" s="0">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D252" s="0">
-        <v>3.1899094335290905</v>
+        <v>6.6972921464467223</v>
       </c>
       <c r="E252" s="0">
-        <v>-0.23424718382652943</v>
+        <v>4.4455821350599907</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B253" s="0">
-        <v>-0.60407374330859998</v>
+        <v>1.4270033929130534</v>
       </c>
       <c r="C253" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D253" s="0">
-        <v>4.2377781500791523</v>
+        <v>4.6415162505759113</v>
       </c>
       <c r="E253" s="0">
-        <v>-0.073901704460925061</v>
+        <v>-0.069408831185337055</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B254" s="0">
-        <v>0.25794759310044429</v>
+        <v>0.87857513608040427</v>
       </c>
       <c r="C254" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D254" s="0">
-        <v>8.8149885881806558</v>
+        <v>5.5241280531378836</v>
       </c>
       <c r="E254" s="0">
-        <v>-0.026542964959069479</v>
+        <v>-0.058319107519099501</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B255" s="0">
-        <v>0.24478598660022863</v>
+        <v>1.2826263215289517</v>
       </c>
       <c r="C255" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D255" s="0">
-        <v>8.9395960821477374</v>
+        <v>3.1742119672088949</v>
       </c>
       <c r="E255" s="0">
-        <v>0.3674998505104326</v>
+        <v>-0.10852901348076779</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0.25750860419278265</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B256" s="0">
-        <v>0.55489515872768913</v>
+        <v>0.01994508359715922</v>
       </c>
       <c r="C256" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D256" s="0">
-        <v>7.8499439358513534</v>
+        <v>5.7647780336678069</v>
       </c>
       <c r="E256" s="0">
-        <v>-0.046891884060237102</v>
+        <v>-0.067986251003292655</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B257" s="0">
-        <v>1.267830096800149</v>
+        <v>1.6912294919615802</v>
       </c>
       <c r="C257" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D257" s="0">
-        <v>2.0716074723418534</v>
+        <v>1.0814956678491576</v>
       </c>
       <c r="E257" s="0">
-        <v>-0.1795283157491373</v>
+        <v>-0.48839183735060687</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B258" s="0">
-        <v>0.25909152473116454</v>
+        <v>0.22640362281492321</v>
       </c>
       <c r="C258" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D258" s="0">
-        <v>7.5114253144599905</v>
+        <v>8.4307444784280374</v>
       </c>
       <c r="E258" s="0">
-        <v>-0.041693688655230973</v>
+        <v>-0.029345471009963684</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B259" s="0">
-        <v>-0.49352981880144869</v>
+        <v>1.3160751687375254</v>
       </c>
       <c r="C259" s="0">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D259" s="0">
-        <v>1.3802065877608425</v>
+        <v>10.894055929855647</v>
       </c>
       <c r="E259" s="0">
-        <v>-0.77550525504015988</v>
+        <v>2.7329915057555283</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B260" s="0">
-        <v>0.16436849417636132</v>
+        <v>0.514003573294877</v>
       </c>
       <c r="C260" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D260" s="0">
-        <v>6.453603366849185</v>
+        <v>6.7542352879389291</v>
       </c>
       <c r="E260" s="0">
-        <v>-0.063895785826941026</v>
+        <v>-0.058026649897001806</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.44321658537114295</v>
       </c>
       <c r="B261" s="0">
-        <v>1.1567611939381872</v>
+        <v>1.0349945413327968</v>
       </c>
       <c r="C261" s="0">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D261" s="0">
-        <v>6.7299209707847734</v>
+        <v>4.5321936117002295</v>
       </c>
       <c r="E261" s="0">
-        <v>44.577046491679248</v>
+        <v>-0.08401869989493424</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B262" s="0">
-        <v>0.45922277454501459</v>
+        <v>1.3892354314537396</v>
       </c>
       <c r="C262" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D262" s="0">
-        <v>8.8198123285099985</v>
+        <v>10.558415696512188</v>
       </c>
       <c r="E262" s="0">
-        <v>0.37249094441536201</v>
+        <v>2.8198702509275422</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B263" s="0">
-        <v>1.4011903321662453</v>
+        <v>1.3930769599000188</v>
       </c>
       <c r="C263" s="0">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D263" s="0">
-        <v>1.0807918577674789</v>
+        <v>4.8879201697031549</v>
       </c>
       <c r="E263" s="0">
-        <v>-0.7932823362919329</v>
+        <v>-0.07179255163552245</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B264" s="0">
-        <v>-0.4277618341311285</v>
+        <v>1.5548943230107222</v>
       </c>
       <c r="C264" s="0">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D264" s="0">
-        <v>1</v>
+        <v>2.9933028518790645</v>
       </c>
       <c r="E264" s="0">
-        <v>-1.1329668297401794</v>
+        <v>-0.14453053744668129</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B265" s="0">
-        <v>0.28404301984494074</v>
+        <v>1.2929663808782816</v>
       </c>
       <c r="C265" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D265" s="0">
-        <v>6.5630935990500534</v>
+        <v>3.5341753368674236</v>
       </c>
       <c r="E265" s="0">
-        <v>-0.062829830523810595</v>
+        <v>-0.10905380848697513</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B266" s="0">
-        <v>0.99379128906625092</v>
+        <v>-0.14646508048282073</v>
       </c>
       <c r="C266" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D266" s="0">
-        <v>5.8370636957796513</v>
+        <v>5.3489003884200699</v>
       </c>
       <c r="E266" s="0">
-        <v>-0.051752641218059413</v>
+        <v>-0.060763705986504102</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.10785674707302484</v>
       </c>
       <c r="B267" s="0">
-        <v>1.2152661708839723</v>
+        <v>1.1573595896273023</v>
       </c>
       <c r="C267" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D267" s="0">
-        <v>4.7998536877178273</v>
+        <v>5.6914764956808526</v>
       </c>
       <c r="E267" s="0">
-        <v>-0.073267043835552326</v>
+        <v>-0.056143958404233404</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B268" s="0">
-        <v>0.97523295016327727</v>
+        <v>1.3243453811744643</v>
       </c>
       <c r="C268" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D268" s="0">
-        <v>5.1381141323343646</v>
+        <v>8.3474437146626457</v>
       </c>
       <c r="E268" s="0">
-        <v>-0.065668756364222661</v>
+        <v>35.939146193107838</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>0.6403338824704411</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B269" s="0">
-        <v>-0.2353501685599857</v>
+        <v>-0.011997657101862293</v>
       </c>
       <c r="C269" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D269" s="0">
-        <v>7.4919395131134525</v>
+        <v>6.6468061721591383</v>
       </c>
       <c r="E269" s="0">
-        <v>-0.031230355344051924</v>
+        <v>-0.048468724607862508</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B270" s="0">
-        <v>0.29147491422688443</v>
+        <v>0.28106465105795647</v>
       </c>
       <c r="C270" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D270" s="0">
-        <v>5.9973286538181716</v>
+        <v>6.3870003396307116</v>
       </c>
       <c r="E270" s="0">
-        <v>-0.061315746986792707</v>
+        <v>-0.050440300727907748</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B271" s="0">
-        <v>0.3263732983327185</v>
+        <v>-0.020153743681757687</v>
       </c>
       <c r="C271" s="0">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D271" s="0">
-        <v>2.092429658940167</v>
+        <v>6.550656319980801</v>
       </c>
       <c r="E271" s="0">
-        <v>-0.51153808553436675</v>
+        <v>-0.049180143506775555</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B272" s="0">
-        <v>0.10362576982796952</v>
+        <v>1.5263466732365012</v>
       </c>
       <c r="C272" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D272" s="0">
-        <v>7.8031575947775504</v>
+        <v>4.9082448352074675</v>
       </c>
       <c r="E272" s="0">
-        <v>-0.041932741713727191</v>
+        <v>-0.077581503717119291</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B273" s="0">
-        <v>0.65661952040483018</v>
+        <v>0.72784337208342509</v>
       </c>
       <c r="C273" s="0">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D273" s="0">
-        <v>5.2935323522550837</v>
+        <v>7.9909712699880719</v>
       </c>
       <c r="E273" s="0">
-        <v>-0.068653682906591323</v>
+        <v>0.30826599075483679</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>0.050610203773762907</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B274" s="0">
-        <v>1.0290011481840005</v>
+        <v>1.0458879580333933</v>
       </c>
       <c r="C274" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D274" s="0">
-        <v>5.0050440238212248</v>
+        <v>3.6835111782548977</v>
       </c>
       <c r="E274" s="0">
-        <v>-0.071760300675175304</v>
+        <v>-0.099758915000335333</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.43701341012510975</v>
       </c>
       <c r="B275" s="0">
-        <v>1.2184972801373146</v>
+        <v>0.71787076910773751</v>
       </c>
       <c r="C275" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D275" s="0">
-        <v>4.1083533747204442</v>
+        <v>6.0702059263132409</v>
       </c>
       <c r="E275" s="0">
-        <v>-0.087422729079710645</v>
+        <v>-0.057809613946137664</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B276" s="0">
-        <v>0.073675911006704439</v>
+        <v>0.69725216394382916</v>
       </c>
       <c r="C276" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D276" s="0">
-        <v>7.1447519516288915</v>
+        <v>6.6212498847442225</v>
       </c>
       <c r="E276" s="0">
-        <v>0.016445616489687159</v>
+        <v>-0.059192094120813783</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.02634327553385063</v>
       </c>
       <c r="B277" s="0">
-        <v>0.20279059044097403</v>
+        <v>1.2598185242021602</v>
       </c>
       <c r="C277" s="0">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D277" s="0">
-        <v>3.1142650078799181</v>
+        <v>10.962508041022081</v>
       </c>
       <c r="E277" s="0">
-        <v>-0.23993696733424599</v>
+        <v>2.7159261555939738</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.66507616874908893</v>
       </c>
       <c r="B278" s="0">
-        <v>1.1567611939381872</v>
+        <v>-0.10287359650605393</v>
       </c>
       <c r="C278" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D278" s="0">
-        <v>6.7299209707847734</v>
+        <v>7.8023589794321069</v>
       </c>
       <c r="E278" s="0">
-        <v>44.577046491679248</v>
+        <v>-0.031708893212463882</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B279" s="0">
-        <v>0.32611322072018178</v>
+        <v>1.5914884381254637</v>
       </c>
       <c r="C279" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D279" s="0">
-        <v>4.7598443539020003</v>
+        <v>2.9803833819408112</v>
       </c>
       <c r="E279" s="0">
-        <v>-0.090239991859612137</v>
+        <v>-0.13337662806014075</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B280" s="0">
-        <v>0.30816215647635231</v>
+        <v>-0.49067128012033284</v>
       </c>
       <c r="C280" s="0">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D280" s="0">
-        <v>2.1820383449826051</v>
+        <v>4.6900993987197559</v>
       </c>
       <c r="E280" s="0">
-        <v>-0.54669372123269877</v>
+        <v>0.52522227488584183</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B281" s="0">
-        <v>-0.14138080137912401</v>
+        <v>1.5521897660397197</v>
       </c>
       <c r="C281" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D281" s="0">
-        <v>6.3520745515797481</v>
+        <v>2.0534094085340788</v>
       </c>
       <c r="E281" s="0">
-        <v>-0.04930342455445965</v>
+        <v>-0.18068128097956995</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B282" s="0">
-        <v>0.22674988298800597</v>
+        <v>1.3892354314537396</v>
       </c>
       <c r="C282" s="0">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D282" s="0">
-        <v>2.309796884418442</v>
+        <v>10.558415696512188</v>
       </c>
       <c r="E282" s="0">
-        <v>-0.37118982009145474</v>
+        <v>2.8198702509275422</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>0.10082679754625412</v>
+        <v>0.62587433430966755</v>
       </c>
       <c r="B283" s="0">
-        <v>0.88882932588229024</v>
+        <v>0.38413553884280527</v>
       </c>
       <c r="C283" s="0">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D283" s="0">
-        <v>8.4613330128749382</v>
+        <v>2.8736417438427648</v>
       </c>
       <c r="E283" s="0">
-        <v>3.7105406776183014</v>
+        <v>-0.13833091291267605</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B284" s="0">
-        <v>0.16101281882309376</v>
+        <v>-0.066992697189825409</v>
       </c>
       <c r="C284" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D284" s="0">
-        <v>5.7693115994960866</v>
+        <v>3.5763799718037133</v>
       </c>
       <c r="E284" s="0">
-        <v>-0.063739092609641002</v>
+        <v>-0.12096691999552146</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B285" s="0">
-        <v>-0.57915930726356735</v>
+        <v>1.8032687237219647</v>
       </c>
       <c r="C285" s="0">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D285" s="0">
-        <v>3.902954058608048</v>
+        <v>1.0603639434122911</v>
       </c>
       <c r="E285" s="0">
-        <v>-0.086416598518823939</v>
+        <v>-0.69635698378656119</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>0.44665336185412008</v>
+        <v>0.42773680284798399</v>
       </c>
       <c r="B286" s="0">
-        <v>0.18112160890229698</v>
+        <v>0.38989559054832107</v>
       </c>
       <c r="C286" s="0">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D286" s="0">
-        <v>4.9455836974548602</v>
+        <v>7.5922236777941805</v>
       </c>
       <c r="E286" s="0">
-        <v>-0.07520087074742203</v>
+        <v>-0.040035155234992584</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>0.18526538021141981</v>
+        <v>0.4503487546979098</v>
       </c>
       <c r="B287" s="0">
-        <v>0.93456257252312747</v>
+        <v>0.33270432952816931</v>
       </c>
       <c r="C287" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D287" s="0">
-        <v>6.6362733202911111</v>
+        <v>5.4890695029306542</v>
       </c>
       <c r="E287" s="0">
-        <v>-0.045520045458494286</v>
+        <v>-0.063930008717573844</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B288" s="0">
-        <v>-0.51303123446432441</v>
+        <v>-0.11625441546142011</v>
       </c>
       <c r="C288" s="0">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D288" s="0">
-        <v>1.5574215341958491</v>
+        <v>3.594630495693377</v>
       </c>
       <c r="E288" s="0">
-        <v>-0.55050804881658177</v>
+        <v>-0.097622345772158794</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>0.43160825691395921</v>
+        <v>0.82351963581055765</v>
       </c>
       <c r="B289" s="0">
-        <v>0.29918997873931408</v>
+        <v>-0.1828699402204523</v>
       </c>
       <c r="C289" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D289" s="0">
-        <v>4.9566961474171087</v>
+        <v>6.6438050222662914</v>
       </c>
       <c r="E289" s="0">
-        <v>-0.075032277416613627</v>
+        <v>0.0036865148476423145</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.8858719943379052</v>
       </c>
       <c r="B290" s="0">
-        <v>-0.60639226408735802</v>
+        <v>0.040831164344408234</v>
       </c>
       <c r="C290" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D290" s="0">
-        <v>6.2319897380950735</v>
+        <v>1.2982575206612639</v>
       </c>
       <c r="E290" s="0">
-        <v>-0.0484730360462663</v>
+        <v>-0.4068481390645346</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>0.94920677077908688</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B291" s="0">
-        <v>1.1372030881045012</v>
+        <v>-0.29234867305600531</v>
       </c>
       <c r="C291" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D291" s="0">
-        <v>1</v>
+        <v>3.2506457289567914</v>
       </c>
       <c r="E291" s="0">
-        <v>-1.4489857247680913</v>
+        <v>-0.13308853255491615</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B292" s="0">
-        <v>-0.37341591853525491</v>
+        <v>0.70099020850574634</v>
       </c>
       <c r="C292" s="0">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D292" s="0">
-        <v>1.9785337249899038</v>
+        <v>9.9922186198625944</v>
       </c>
       <c r="E292" s="0">
-        <v>-0.69898572476809129</v>
+        <v>30.023362319521127</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B293" s="0">
-        <v>-0.60639226408735802</v>
+        <v>-0.028528899350293221</v>
       </c>
       <c r="C293" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D293" s="0">
-        <v>6.2319897380950735</v>
+        <v>6.7769251493349554</v>
       </c>
       <c r="E293" s="0">
-        <v>-0.0484730360462663</v>
+        <v>-0.047151475424446102</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>0.45337147860386384</v>
+        <v>0.23908115203755975</v>
       </c>
       <c r="B294" s="0">
-        <v>0.58223760030121696</v>
+        <v>0.88703211368466639</v>
       </c>
       <c r="C294" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D294" s="0">
-        <v>1.1614312344461726</v>
+        <v>4.6416989033441638</v>
       </c>
       <c r="E294" s="0">
-        <v>-0.88296682974017937</v>
+        <v>-0.083033235970660244</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>0.24246799819574905</v>
+        <v>0.0053015626834028717</v>
       </c>
       <c r="B295" s="0">
-        <v>0.56275677568758675</v>
+        <v>1.5008211116678563</v>
       </c>
       <c r="C295" s="0">
         <v>16</v>
       </c>
       <c r="D295" s="0">
-        <v>7.7947478643248047</v>
+        <v>4.261603100337096</v>
       </c>
       <c r="E295" s="0">
-        <v>-0.047223934285806221</v>
+        <v>-0.082343722048157819</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>0.8464542760951107</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B296" s="0">
-        <v>-0.40762203183295098</v>
+        <v>-0.011997657101862293</v>
       </c>
       <c r="C296" s="0">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D296" s="0">
-        <v>1.9785337249899038</v>
+        <v>6.6468061721591383</v>
       </c>
       <c r="E296" s="0">
-        <v>-0.69898572476809129</v>
+        <v>-0.048468724607862508</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>0.84391347324319133</v>
+        <v>0.00081948545438603748</v>
       </c>
       <c r="B297" s="0">
-        <v>-0.49874518841998638</v>
+        <v>1.5242882529237014</v>
       </c>
       <c r="C297" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D297" s="0">
-        <v>1.4541303250920006</v>
+        <v>4.1873499129056384</v>
       </c>
       <c r="E297" s="0">
-        <v>-0.82035746184958103</v>
+        <v>-0.083803901864561783</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>0.42492579055800994</v>
+        <v>0.010851490072271264</v>
       </c>
       <c r="B298" s="0">
-        <v>0.23654472260431658</v>
+        <v>1.3160751687375254</v>
       </c>
       <c r="C298" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D298" s="0">
-        <v>9.4168029651415583</v>
+        <v>10.894055929855645</v>
       </c>
       <c r="E298" s="0">
-        <v>31.85794596218253</v>
+        <v>2.7329915057555287</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>0.0055475916383922463</v>
+        <v>0.85340016142929342</v>
       </c>
       <c r="B299" s="0">
-        <v>1.2643094204528349</v>
+        <v>-0.3915257879882354</v>
       </c>
       <c r="C299" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D299" s="0">
-        <v>3.2800777385569937</v>
+        <v>3.8836718861444433</v>
       </c>
       <c r="E299" s="0">
-        <v>-0.11079630439715821</v>
+        <v>-0.10091626117372542</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>0.63195549097742654</v>
+        <v>0.63538060646353789</v>
       </c>
       <c r="B300" s="0">
-        <v>-0.053172728432805634</v>
+        <v>-0.031676884442908178</v>
       </c>
       <c r="C300" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D300" s="0">
-        <v>6.1776945655274265</v>
+        <v>8.0928252517670014</v>
       </c>
       <c r="E300" s="0">
-        <v>-0.059585118204670613</v>
+        <v>-0.030570803148146902</v>
       </c>
     </row>
   </sheetData>

--- a/Jon_Updates/population_data.xlsx
+++ b/Jon_Updates/population_data.xlsx
@@ -57,6810 +57,6810 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.37890625" customWidth="true"/>
     <col min="3" max="3" width="3.15625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.37890625" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.84036620904745474</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B1" s="0">
-        <v>0.90321632938129104</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C1" s="0">
         <v>1</v>
       </c>
       <c r="D1" s="0">
-        <v>3.6462750779184572</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E1" s="0">
-        <v>164.55149081690266</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.6751781724930378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B2" s="0">
-        <v>1.2377004573026587</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>5.1661428816169481</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E2" s="0">
-        <v>116.14080635187665</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.001570459637344368</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B3" s="0">
-        <v>3.9240252625115382</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>3.3746345927836994</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E3" s="0">
-        <v>177.79702764946367</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.64627026284678479</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B4" s="0">
-        <v>1.6776995626333802</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>7.2351081606530245</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E4" s="0">
-        <v>13.729545946334115</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.64627026284678479</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B5" s="0">
-        <v>1.6776995626333802</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C5" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>7.2351081606530245</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E5" s="0">
-        <v>13.729545946334115</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0052740359376581836</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B6" s="0">
-        <v>3.565796242014295</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
-        <v>8.3254046739877587</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E6" s="0">
-        <v>11.931522107117297</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0059248860895664279</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B7" s="0">
-        <v>3.4939968474209673</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0">
-        <v>8.3780930156775106</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E7" s="0">
-        <v>11.856486879830818</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.019578169533904455</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B8" s="0">
-        <v>3.1913066847518947</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>8.4722892515026498</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E8" s="0">
-        <v>11.724664605940426</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.096292993137672034</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B9" s="0">
-        <v>2.7670551003943262</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
       </c>
       <c r="D9" s="0">
-        <v>4.804034209756133</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E9" s="0">
-        <v>124.89503067682313</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B10" s="0">
-        <v>1.9529370266929302</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C10" s="0">
         <v>1</v>
       </c>
       <c r="D10" s="0">
-        <v>5.9918706987262862</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E10" s="0">
-        <v>100.13567217455881</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.42734113069265323</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B11" s="0">
-        <v>2.4122540256932963</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C11" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>9.103435123656439</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E11" s="0">
-        <v>10.911787536141009</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B12" s="0">
-        <v>2.3791301007468055</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C12" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>9.0932648277090316</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E12" s="0">
-        <v>10.92399174559278</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.23172190526424696</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B13" s="0">
-        <v>2.428473130277315</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C13" s="0">
         <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>5.7355190457206788</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E13" s="0">
-        <v>104.61128194625476</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.23172190526424696</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B14" s="0">
-        <v>2.428473130277315</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C14" s="0">
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>5.7355190457206788</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E14" s="0">
-        <v>104.61128194625476</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.84036620904745474</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B15" s="0">
-        <v>0.99871737788417836</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C15" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0">
-        <v>3.0557852826596221</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E15" s="0">
-        <v>3.2991690973141625</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6751781724930378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B16" s="0">
-        <v>1.3324069763919886</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C16" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0">
-        <v>6.718933361719885</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E16" s="0">
-        <v>14.784303485479921</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6751781724930378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B17" s="0">
-        <v>1.3324069763919886</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C17" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>6.718933361719885</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E17" s="0">
-        <v>14.784303485479921</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.64627026284678479</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B18" s="0">
-        <v>1.8532048265900691</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C18" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0">
-        <v>5.0161823963310539</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E18" s="0">
-        <v>2.0098057797802404</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B19" s="0">
-        <v>2.0225384047623649</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
-        <v>8.6102096051060482</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E19" s="0">
-        <v>11.536856182859342</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.001570459637344368</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B20" s="0">
-        <v>4.0121701867938331</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C20" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>7.6613538659995495</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E20" s="0">
-        <v>12.96569139812507</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.001570459637344368</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B21" s="0">
-        <v>4.0121701867938331</v>
+        <v>-0.051795772400851793</v>
       </c>
       <c r="C21" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="0">
-        <v>7.6613538659995495</v>
+        <v>1.8353040474312352</v>
       </c>
       <c r="E21" s="0">
-        <v>12.96569139812507</v>
+        <v>-0.13453481505497084</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.001570459637344368</v>
+        <v>0.035312295332301735</v>
       </c>
       <c r="B22" s="0">
-        <v>4.0121701867938331</v>
+        <v>0.84436039131808216</v>
       </c>
       <c r="C22" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="0">
-        <v>7.6613538659995495</v>
+        <v>88.343565038719504</v>
       </c>
       <c r="E22" s="0">
-        <v>12.96569139812507</v>
+        <v>4.5277774314935861</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B23" s="0">
-        <v>2.3833449783201663</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C23" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>7.2467822602611101</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E23" s="0">
-        <v>1.3911763884312978</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B24" s="0">
-        <v>2.3833449783201663</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C24" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="0">
-        <v>7.2467822602611101</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E24" s="0">
-        <v>1.3911763884312978</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0052740359376581836</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B25" s="0">
-        <v>3.9009514711828066</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C25" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="0">
-        <v>6.4715242644723192</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E25" s="0">
-        <v>1.5578327393322517</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0059248860895664279</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B26" s="0">
-        <v>3.6474474975377542</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C26" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>6.843722324106075</v>
+        <v>84.186916238651989</v>
       </c>
       <c r="E26" s="0">
-        <v>1.4731095002301833</v>
+        <v>4.7513321294022122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.019578169533904455</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B27" s="0">
-        <v>3.2298649943306832</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C27" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="0">
-        <v>7.1960876680059194</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E27" s="0">
-        <v>1.4009768693342934</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B28" s="0">
-        <v>2.4775349074509743</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C28" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="0">
-        <v>9.5842239565799048</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E28" s="0">
-        <v>10.364401997324554</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.07733288261089577</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B29" s="0">
-        <v>3.2086613944681535</v>
+        <v>1.2757160970051791</v>
       </c>
       <c r="C29" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D29" s="0">
-        <v>7.569609960684943</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0">
-        <v>1.3318456862294936</v>
+        <v>-1.1197047490341592</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B30" s="0">
-        <v>2.4937627418521671</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C30" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="0">
-        <v>7.7606964262278879</v>
+        <v>85.38374203432214</v>
       </c>
       <c r="E30" s="0">
-        <v>1.2990525358660654</v>
+        <v>4.6847326021294542</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.096292993137672034</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B31" s="0">
-        <v>3.0412056289765563</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C31" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" s="0">
-        <v>14.135887196162438</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E31" s="0">
-        <v>0.07226527374581497</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.21260710746340239</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B32" s="0">
-        <v>2.96750580805511</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C32" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>15.17574385599853</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E32" s="0">
-        <v>0.067313587232619029</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.22103974793129921</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B33" s="0">
-        <v>2.8763153218524464</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C33" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" s="0">
-        <v>15.253665665054633</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E33" s="0">
-        <v>0.066969722576975116</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.84036620904745474</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B34" s="0">
-        <v>1.0318764851337139</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C34" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34" s="0">
-        <v>3.6418167816726452</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E34" s="0">
-        <v>0.28050113970902746</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6751781724930378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B35" s="0">
-        <v>1.3806857892779343</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C35" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>6.5416126390295828</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E35" s="0">
-        <v>0.15615931640094469</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.64627026284678479</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B36" s="0">
-        <v>1.9749428751116052</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C36" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" s="0">
-        <v>7.9989652425031439</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E36" s="0">
-        <v>0.12770823811593002</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.001570459637344368</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B37" s="0">
-        <v>4.1559299320237129</v>
+        <v>1.0409599155279252</v>
       </c>
       <c r="C37" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="0">
-        <v>5.8865005979272125</v>
+        <v>3.139190095687471</v>
       </c>
       <c r="E37" s="0">
-        <v>1.7126563065546994</v>
+        <v>0.53739937281945782</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0052740359376581836</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B38" s="0">
-        <v>4.0840379059599332</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C38" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>10.030093631435042</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E38" s="0">
-        <v>0.10184688153549019</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B39" s="0">
-        <v>2.0577154031858176</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C39" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="0">
-        <v>6.766400529340638</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E39" s="0">
-        <v>1.4899431874986064</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.44071575384081474</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B40" s="0">
-        <v>2.3911995960769934</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C40" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40" s="0">
-        <v>13.00778923358944</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E40" s="0">
-        <v>0.078532465396408624</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0059248860895664279</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B41" s="0">
-        <v>3.6789097777598321</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C41" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>11.419540271798386</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E41" s="0">
-        <v>0.089454893415754369</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B42" s="0">
-        <v>2.3958785191870828</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C42" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42" s="0">
-        <v>13.202257425878289</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E42" s="0">
-        <v>0.077375688484023111</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.019578169533904455</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B43" s="0">
-        <v>3.2795241826949924</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C43" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43" s="0">
-        <v>7.5411266764727136</v>
+        <v>84.186916238651989</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.024270945877895723</v>
+        <v>4.7513321294022122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.07733288261089577</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B44" s="0">
-        <v>3.230348102643458</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C44" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>13.707793691645595</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E44" s="0">
-        <v>0.074522113539921983</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.07733288261089577</v>
+        <v>0.035312295332301735</v>
       </c>
       <c r="B45" s="0">
-        <v>3.230348102643458</v>
+        <v>1.0714948212945121</v>
       </c>
       <c r="C45" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="0">
-        <v>13.707793691645595</v>
+        <v>1.9802238852034315</v>
       </c>
       <c r="E45" s="0">
-        <v>0.074522113539921983</v>
+        <v>-0.22728447481567157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.096292993137672034</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B46" s="0">
-        <v>3.078830517165962</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C46" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46" s="0">
-        <v>8.5574315913987995</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.021388459313772524</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.24023874629963049</v>
+        <v>0.42668842459098533</v>
       </c>
       <c r="B47" s="0">
-        <v>2.5467539389513605</v>
+        <v>0.077295679521619032</v>
       </c>
       <c r="C47" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>14.99117180713259</v>
+        <v>109.36983000815385</v>
       </c>
       <c r="E47" s="0">
-        <v>0.068142355448465197</v>
+        <v>3.6573157329601664</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B48" s="0">
-        <v>2.6841837316086976</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C48" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" s="0">
-        <v>15.234453271479477</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E48" s="0">
-        <v>0.067054179081244725</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B49" s="0">
-        <v>2.6841837316086976</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C49" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49" s="0">
-        <v>15.234453271479477</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E49" s="0">
-        <v>0.067054179081244725</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.22103974793129921</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B50" s="0">
-        <v>2.9470442335050198</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C50" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>9.7152129014453319</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.018839553932554116</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.1911565376987735</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B51" s="0">
-        <v>3.0578384900557594</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C51" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="0">
-        <v>9.5446675600654558</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.019176181493090125</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.1911565376987735</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B52" s="0">
-        <v>3.0578384900557594</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C52" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D52" s="0">
-        <v>9.5446675600654558</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.019176181493090125</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.84036620904745474</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B53" s="0">
-        <v>1.0552100961400861</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C53" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>3.6371702339067209</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E53" s="0">
-        <v>-0.050322164114499045</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.6751781724930378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B54" s="0">
-        <v>1.5426926879992562</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C54" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D54" s="0">
-        <v>4.7808695781259019</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E54" s="0">
-        <v>-0.062817476864161836</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.64627026284678479</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B55" s="0">
-        <v>2.0417682968112509</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C55" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" s="0">
-        <v>6.8596943926880005</v>
+        <v>84.186916238651989</v>
       </c>
       <c r="E55" s="0">
-        <v>-0.026681987118569533</v>
+        <v>4.7513321294022122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.001570459637344368</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B56" s="0">
-        <v>4.1750601464570316</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C56" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>9.5783205584440552</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E56" s="0">
-        <v>0.10665061287493409</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.0052740359376581836</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B57" s="0">
-        <v>4.0912226776473464</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C57" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D57" s="0">
-        <v>6.1190455315848249</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E57" s="0">
-        <v>-0.02991157305142985</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.0059248860895664279</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B58" s="0">
-        <v>3.7263939405433613</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C58" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" s="0">
-        <v>6.8982720035691756</v>
+        <v>84.186916238651989</v>
       </c>
       <c r="E58" s="0">
-        <v>-0.026532771877989844</v>
+        <v>4.7513321294022122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B59" s="0">
-        <v>2.1385761447282428</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C59" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>12.539236057912476</v>
+        <v>84.186916238651989</v>
       </c>
       <c r="E59" s="0">
-        <v>0.081466985161829999</v>
+        <v>4.7513321294022122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B60" s="0">
-        <v>2.1385761447282428</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C60" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D60" s="0">
-        <v>12.539236057912476</v>
+        <v>84.186916238651989</v>
       </c>
       <c r="E60" s="0">
-        <v>0.081466985161829999</v>
+        <v>4.7513321294022122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B61" s="0">
-        <v>2.1385761447282428</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C61" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61" s="0">
-        <v>12.539236057912476</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E61" s="0">
-        <v>0.081466985161829999</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.019578169533904455</v>
+        <v>0.17756196948152603</v>
       </c>
       <c r="B62" s="0">
-        <v>3.3010947059615026</v>
+        <v>0.74949057088868265</v>
       </c>
       <c r="C62" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>10.453258597420941</v>
+        <v>91.84426116646776</v>
       </c>
       <c r="E62" s="0">
-        <v>-0.028730004267625734</v>
+        <v>4.3551986255842356</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.019578169533904455</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B63" s="0">
-        <v>3.3010947059615026</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C63" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63" s="0">
-        <v>10.453258597420941</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E63" s="0">
-        <v>-0.028730004267625734</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B64" s="0">
-        <v>2.4467160763102433</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C64" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" s="0">
-        <v>9.170130024903159</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E64" s="0">
-        <v>-0.019959398277447846</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.096292993137672034</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B65" s="0">
-        <v>3.2329090543783936</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C65" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>11.597259935719995</v>
+        <v>85.38374203432214</v>
       </c>
       <c r="E65" s="0">
-        <v>-0.025895958681541275</v>
+        <v>4.6847326021294542</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B66" s="0">
-        <v>2.5586715710535395</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C66" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" s="0">
-        <v>9.5909820821111982</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E66" s="0">
-        <v>-0.019083580373318313</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.1586706841234744</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B67" s="0">
-        <v>3.1247473617321671</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C67" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D67" s="0">
-        <v>12.403179198655435</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E67" s="0">
-        <v>-0.024213321383525235</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.21260710746340239</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B68" s="0">
-        <v>3.0911431534726437</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C68" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>12.851417286420588</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E68" s="0">
-        <v>-0.023368797185648431</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.24023874629963049</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B69" s="0">
-        <v>2.8189432554245344</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C69" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D69" s="0">
-        <v>13.035694117188619</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E69" s="0">
-        <v>-0.023038448234106685</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.23017402794905328</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B70" s="0">
-        <v>3.0173849807082793</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C70" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D70" s="0">
-        <v>12.992598263437579</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E70" s="0">
-        <v>-0.023114865712398302</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.035312295332301735</v>
       </c>
       <c r="B71" s="0">
-        <v>2.9203703765138567</v>
+        <v>0.84436039131808216</v>
       </c>
       <c r="C71" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>13.06180773946941</v>
+        <v>88.343565038719504</v>
       </c>
       <c r="E71" s="0">
-        <v>-0.02299238896366565</v>
+        <v>4.5277774314935861</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.2325782655679165</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B72" s="0">
-        <v>4.2401547263761152</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C72" s="0">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D72" s="0">
-        <v>11.112191575695951</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E72" s="0">
-        <v>-0.024162896670378225</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.23310629698509999</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B73" s="0">
-        <v>4.2274770129171664</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C73" s="0">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D73" s="0">
-        <v>11.13359441941364</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E73" s="0">
-        <v>-0.024116446738602283</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B74" s="0">
-        <v>4.1867828197025192</v>
+        <v>0.17061636277847461</v>
       </c>
       <c r="C74" s="0">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D74" s="0">
-        <v>11.189037398682368</v>
+        <v>6.3919894554782157</v>
       </c>
       <c r="E74" s="0">
-        <v>-0.023996946945284838</v>
+        <v>0.26392390042785013</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B75" s="0">
-        <v>4.1867828197025192</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C75" s="0">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D75" s="0">
-        <v>11.189037398682368</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E75" s="0">
-        <v>-0.023996946945284838</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.21765318394497379</v>
+        <v>0.42668842459098533</v>
       </c>
       <c r="B76" s="0">
-        <v>4.3039432975435981</v>
+        <v>0.20179066334588686</v>
       </c>
       <c r="C76" s="0">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>17.254587209469932</v>
+        <v>3.6362477174506393</v>
       </c>
       <c r="E76" s="0">
-        <v>-0.015201704299117054</v>
+        <v>0.0032466257306887746</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.21765318394497379</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B77" s="0">
-        <v>4.3039432975435981</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C77" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>17.254587209469932</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E77" s="0">
-        <v>-0.015201704299117054</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.21260710746340239</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B78" s="0">
-        <v>4.3345004621551588</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C78" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D78" s="0">
-        <v>17.097382635463809</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E78" s="0">
-        <v>-0.015341478760475414</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.23926335293186041</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B79" s="0">
-        <v>4.0602615987538107</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C79" s="0">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D79" s="0">
-        <v>11.134665818361899</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E79" s="0">
-        <v>-0.024114126207740109</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B80" s="0">
-        <v>4.4558558258739591</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C80" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>16.688148861886713</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E80" s="0">
-        <v>-0.015717688925986392</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B81" s="0">
-        <v>4.4558558258739591</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C81" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D81" s="0">
-        <v>16.688148861886713</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E81" s="0">
-        <v>-0.015717688925986392</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B82" s="0">
-        <v>4.486002783532828</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C82" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D82" s="0">
-        <v>21.715019676079095</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E82" s="0">
-        <v>-0.012552763303196117</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B83" s="0">
-        <v>4.486002783532828</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C83" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>21.715019676079095</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E83" s="0">
-        <v>-0.012552763303196117</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B84" s="0">
-        <v>4.486002783532828</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C84" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D84" s="0">
-        <v>21.715019676079095</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E84" s="0">
-        <v>-0.012552763303196117</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B85" s="0">
-        <v>4.486002783532828</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C85" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D85" s="0">
-        <v>21.715019676079095</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E85" s="0">
-        <v>-0.012552763303196117</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.19780376027437696</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B86" s="0">
-        <v>4.4965079023587036</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C86" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>21.645903292348631</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E86" s="0">
-        <v>-0.012592844864756455</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B87" s="0">
-        <v>3.8947601613046978</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C87" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D87" s="0">
-        <v>17.616034802176472</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E87" s="0">
-        <v>-0.01488979418508426</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B88" s="0">
-        <v>3.8851785458347332</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C88" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D88" s="0">
-        <v>17.608745028472875</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E88" s="0">
-        <v>-0.014895958351237321</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.27565122142111109</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B89" s="0">
-        <v>3.8761836791182791</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C89" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>17.584647273081629</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E89" s="0">
-        <v>-0.014916371564825961</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.18959577249752912</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B90" s="0">
-        <v>4.503279478369306</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C90" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D90" s="0">
-        <v>21.47683567888787</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E90" s="0">
-        <v>-0.012691976890525916</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.30350591119691506</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B91" s="0">
-        <v>3.8308490348737072</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C91" s="0">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D91" s="0">
-        <v>4.5995994503796833</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E91" s="0">
-        <v>-0.060665502031120179</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.1867391317907463</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B92" s="0">
-        <v>4.5827687152097312</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C92" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>21.066609539247196</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E92" s="0">
-        <v>-0.012939125378017897</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.33728814132976681</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B93" s="0">
-        <v>3.8214539885481815</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C93" s="0">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D93" s="0">
-        <v>4.5608839759349538</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E93" s="0">
-        <v>-0.061180466609468402</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.34018478034139399</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B94" s="0">
-        <v>3.7893893799731595</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C94" s="0">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D94" s="0">
-        <v>4.5365841848884854</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E94" s="0">
-        <v>-0.061508174085874917</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B95" s="0">
-        <v>4.1786562842229369</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C95" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>26.981825416818655</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E95" s="0">
-        <v>-0.0099926782836560236</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B96" s="0">
-        <v>4.1786562842229369</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C96" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D96" s="0">
-        <v>26.981825416818655</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E96" s="0">
-        <v>-0.0099926782836560236</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B97" s="0">
-        <v>4.1837828648675623</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C97" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D97" s="0">
-        <v>26.992179425146499</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E97" s="0">
-        <v>-0.0099888451632348524</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B98" s="0">
-        <v>4.1837828648675623</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C98" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>26.992179425146499</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E98" s="0">
-        <v>-0.0099888451632348524</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B99" s="0">
-        <v>4.1837828648675623</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C99" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D99" s="0">
-        <v>26.992179425146499</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E99" s="0">
-        <v>-0.0099888451632348524</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B100" s="0">
-        <v>4.1837828648675623</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C100" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D100" s="0">
-        <v>26.992179425146499</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E100" s="0">
-        <v>-0.0099888451632348524</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B101" s="0">
-        <v>4.774808405039213</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C101" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>26.302038174616364</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E101" s="0">
-        <v>-0.010153338739173647</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B102" s="0">
-        <v>4.774808405039213</v>
+        <v>-0.59113760104186619</v>
       </c>
       <c r="C102" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D102" s="0">
-        <v>26.302038174616364</v>
+        <v>1</v>
       </c>
       <c r="E102" s="0">
-        <v>-0.010153338739173647</v>
+        <v>-2.8697047490341592</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.20755680240737162</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B103" s="0">
-        <v>4.2064329721671907</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C103" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D103" s="0">
-        <v>26.933605907695945</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E103" s="0">
-        <v>-0.010010568277417363</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.42668842459098533</v>
       </c>
       <c r="B104" s="0">
-        <v>3.9522794279819253</v>
+        <v>0.077295679521619032</v>
       </c>
       <c r="C104" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>16.039401775321814</v>
+        <v>109.36983000815384</v>
       </c>
       <c r="E104" s="0">
-        <v>-0.016758985768294748</v>
+        <v>3.6573157329601669</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.20559895982450715</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B105" s="0">
-        <v>4.2870194309691092</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C105" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D105" s="0">
-        <v>26.77023786758177</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E105" s="0">
-        <v>-0.010071658766340185</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.23926335293186041</v>
+        <v>0.17756196948152603</v>
       </c>
       <c r="B106" s="0">
-        <v>3.9246295946983163</v>
+        <v>0.74949057088868265</v>
       </c>
       <c r="C106" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D106" s="0">
-        <v>16.107137861093307</v>
+        <v>91.84426116646776</v>
       </c>
       <c r="E106" s="0">
-        <v>-0.0166885084366152</v>
+        <v>4.3551986255842356</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.23926335293186041</v>
+        <v>0.42668842459098533</v>
       </c>
       <c r="B107" s="0">
-        <v>3.9246295946983163</v>
+        <v>0.077295679521619032</v>
       </c>
       <c r="C107" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>16.107137861093307</v>
+        <v>109.36983000815384</v>
       </c>
       <c r="E107" s="0">
-        <v>-0.0166885084366152</v>
+        <v>3.6573157329601669</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.23926335293186041</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B108" s="0">
-        <v>3.9246295946983163</v>
+        <v>-0.039033490089340359</v>
       </c>
       <c r="C108" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D108" s="0">
-        <v>16.107137861093307</v>
+        <v>115.36159600831189</v>
       </c>
       <c r="E108" s="0">
-        <v>-0.0166885084366152</v>
+        <v>3.4673584090426393</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.25179043538130019</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B109" s="0">
-        <v>3.9225528532899072</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C109" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D109" s="0">
-        <v>16.090287639800618</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E109" s="0">
-        <v>-0.01670598513227764</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.4145417168297304</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B110" s="0">
-        <v>3.7787045137530613</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C110" s="0">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>10.033404925424085</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E110" s="0">
-        <v>-0.026760879165219156</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.4145417168297304</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B111" s="0">
-        <v>3.7787045137530613</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C111" s="0">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D111" s="0">
-        <v>10.033404925424085</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E111" s="0">
-        <v>-0.026760879165219156</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.21074351773740063</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B112" s="0">
-        <v>3.9429961574425318</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C112" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D112" s="0">
-        <v>28.760119945953829</v>
+        <v>85.38374203432214</v>
       </c>
       <c r="E112" s="0">
-        <v>-0.0093526719069422191</v>
+        <v>4.6847326021294542</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B113" s="0">
-        <v>3.8328150231595304</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C113" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>19.158536673530993</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E113" s="0">
-        <v>-0.013695207242409555</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.1998877663344627</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B114" s="0">
-        <v>3.9925820569127621</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C114" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D114" s="0">
-        <v>19.454041841956965</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E114" s="0">
-        <v>-0.013745145774339114</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.19780376027437696</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B115" s="0">
-        <v>4.0787524897965142</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C115" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D115" s="0">
-        <v>22.430301455513884</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E115" s="0">
-        <v>-0.012083234587270137</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.19780376027437696</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B116" s="0">
-        <v>4.0787524897965142</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C116" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>22.430301455513884</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E116" s="0">
-        <v>-0.012083234587270137</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.22370870228709971</v>
+        <v>0.42668842459098533</v>
       </c>
       <c r="B117" s="0">
-        <v>3.8023098898841847</v>
+        <v>0.077295679521619032</v>
       </c>
       <c r="C117" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D117" s="0">
-        <v>19.269404718270668</v>
+        <v>109.36983000815384</v>
       </c>
       <c r="E117" s="0">
-        <v>-0.013876850111734474</v>
+        <v>3.6573157329601669</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B118" s="0">
-        <v>3.8043015406997478</v>
+        <v>-0.59034211021714056</v>
       </c>
       <c r="C118" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D118" s="0">
-        <v>19.289545096473226</v>
+        <v>1</v>
       </c>
       <c r="E118" s="0">
-        <v>-0.013862361174431247</v>
+        <v>-3.1197047490341592</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.19020665982588592</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B119" s="0">
-        <v>4.0840220165861068</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C119" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>22.35727379305392</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E119" s="0">
-        <v>-0.012122703190867857</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.1867391317907463</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B120" s="0">
-        <v>4.1137465838091423</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C120" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D120" s="0">
-        <v>22.238848595027196</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E120" s="0">
-        <v>-0.012187258400183807</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.18405344133522905</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B121" s="0">
-        <v>4.4339098105944563</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C121" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D121" s="0">
-        <v>18.477442412472019</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E121" s="0">
-        <v>-0.014515977292634168</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B122" s="0">
-        <v>4.1537827373184504</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C122" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>19.97762994405009</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E122" s="0">
-        <v>-0.013726408641172753</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B123" s="0">
-        <v>3.7732341655278745</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C123" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D123" s="0">
-        <v>18.965074754361662</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E123" s="0">
-        <v>-0.013834911467721343</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B124" s="0">
-        <v>3.7732341655278745</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C124" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D124" s="0">
-        <v>18.965074754361662</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E124" s="0">
-        <v>-0.013834911467721343</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B125" s="0">
-        <v>3.7732341655278745</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C125" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>18.965074754361662</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E125" s="0">
-        <v>-0.013834911467721343</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.23147320085519829</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B126" s="0">
-        <v>3.6630904468000374</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C126" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D126" s="0">
-        <v>18.873153903063578</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E126" s="0">
-        <v>-0.014168201159764067</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B127" s="0">
-        <v>3.6469770350493169</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C127" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D127" s="0">
-        <v>28.516150713128948</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E127" s="0">
-        <v>-0.0094326884636280767</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B128" s="0">
-        <v>4.4811792924556535</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C128" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>18.356331102027209</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E128" s="0">
-        <v>-0.014611750735732712</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.23017402794905328</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B129" s="0">
-        <v>3.8276691079452734</v>
+        <v>-0.62049546160187208</v>
       </c>
       <c r="C129" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" s="0">
-        <v>22.771514652302464</v>
+        <v>1</v>
       </c>
       <c r="E129" s="0">
-        <v>-0.011493570934356986</v>
+        <v>-2.6197047490341592</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B130" s="0">
-        <v>3.7379888308250195</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C130" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D130" s="0">
-        <v>15.763563766831691</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E130" s="0">
-        <v>-0.016639583310063173</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.22267907593795488</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B131" s="0">
-        <v>3.8958953203804905</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C131" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>22.911538660166094</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E131" s="0">
-        <v>-0.011423327905690752</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.25728923113255819</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B132" s="0">
-        <v>3.6902097577989852</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C132" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D132" s="0">
-        <v>26.700826741457199</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E132" s="0">
-        <v>-0.010155382856385153</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.25728923113255819</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B133" s="0">
-        <v>3.6902097577989852</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C133" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D133" s="0">
-        <v>26.700826741457199</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E133" s="0">
-        <v>-0.010155382856385153</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.25532686489417378</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B134" s="0">
-        <v>3.6245349378141856</v>
+        <v>-0.039033490089340359</v>
       </c>
       <c r="C134" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>28.525393241577429</v>
+        <v>115.36159600831189</v>
       </c>
       <c r="E134" s="0">
-        <v>-0.0094296321730194792</v>
+        <v>3.4673584090426393</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.25532686489417378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B135" s="0">
-        <v>3.6245349378141856</v>
+        <v>-0.67854813231694711</v>
       </c>
       <c r="C135" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="0">
-        <v>28.525393241577429</v>
+        <v>1</v>
       </c>
       <c r="E135" s="0">
-        <v>-0.0094296321730194792</v>
+        <v>-1.3697047490341592</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.21631803835204544</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B136" s="0">
-        <v>4.0106410876049328</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C136" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D136" s="0">
-        <v>27.044514085346453</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E136" s="0">
-        <v>-0.010026326126096897</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.16566238628629903</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B137" s="0">
-        <v>4.1574027216687481</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C137" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>19.91591076130139</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E137" s="0">
-        <v>-0.013768946626684016</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.21440248867751044</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B138" s="0">
-        <v>4.0787853995725545</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C138" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D138" s="0">
-        <v>27.024193166692363</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E138" s="0">
-        <v>-0.010033865450447897</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.43467233929051796</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B139" s="0">
-        <v>3.7346273860017374</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C139" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D139" s="0">
-        <v>15.668498666538747</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E139" s="0">
-        <v>-0.016740540248559272</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.23172190526424696</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B140" s="0">
-        <v>3.702194887240096</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C140" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>22.40327656334858</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E140" s="0">
-        <v>-0.011682488416322441</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B141" s="0">
-        <v>4.0916621810690366</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C141" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D141" s="0">
-        <v>26.980470974872087</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E141" s="0">
-        <v>-0.010050125455335578</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B142" s="0">
-        <v>4.0437412077804753</v>
+        <v>-0.039033490089340359</v>
       </c>
       <c r="C142" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D142" s="0">
-        <v>28.055534599318996</v>
+        <v>115.36159600831189</v>
       </c>
       <c r="E142" s="0">
-        <v>-0.0095187458350566856</v>
+        <v>3.4673584090426393</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.42668842459098533</v>
       </c>
       <c r="B143" s="0">
-        <v>4.0437412077804753</v>
+        <v>0.077295679521619032</v>
       </c>
       <c r="C143" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>28.055534599318996</v>
+        <v>109.36983000815384</v>
       </c>
       <c r="E143" s="0">
-        <v>-0.0095187458350566856</v>
+        <v>3.6573157329601669</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B144" s="0">
-        <v>4.0437412077804753</v>
+        <v>-0.72559709002408268</v>
       </c>
       <c r="C144" s="0">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D144" s="0">
-        <v>28.055534599318996</v>
+        <v>3.0046016760844085</v>
       </c>
       <c r="E144" s="0">
-        <v>-0.0095187458350566856</v>
+        <v>0.0039291515732689476</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B145" s="0">
-        <v>4.0437412077804753</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C145" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D145" s="0">
-        <v>28.055534599318996</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E145" s="0">
-        <v>-0.0095187458350566856</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.26870263928068161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B146" s="0">
-        <v>3.6145921877088294</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C146" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>28.430173456545734</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E146" s="0">
-        <v>-0.0094612143773917193</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.26870263928068161</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B147" s="0">
-        <v>3.6145921877088294</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C147" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D147" s="0">
-        <v>28.430173456545734</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E147" s="0">
-        <v>-0.0094612143773917193</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B148" s="0">
-        <v>3.5985477215736785</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C148" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D148" s="0">
-        <v>16.540090088250775</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E148" s="0">
-        <v>-0.016100712334517774</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.43693849881901803</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B149" s="0">
-        <v>3.7309571496820171</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C149" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>15.619987664053832</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E149" s="0">
-        <v>-0.016792531351693465</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.2325782655679165</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B150" s="0">
-        <v>4.0608915866729927</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C150" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D150" s="0">
-        <v>28.086932405441374</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E150" s="0">
-        <v>-0.0095081050241648778</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.24214328895972914</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B151" s="0">
-        <v>4.0209317311695054</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C151" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D151" s="0">
-        <v>27.920488456852532</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E151" s="0">
-        <v>-0.0095647862153361938</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.2734167752729032</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B152" s="0">
-        <v>3.5925834094319762</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C152" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>16.465200291897528</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E152" s="0">
-        <v>-0.016173944305371332</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B153" s="0">
-        <v>4.1277427843824182</v>
+        <v>-0.039033490089340359</v>
       </c>
       <c r="C153" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D153" s="0">
-        <v>28.209535443285741</v>
+        <v>115.36159600831189</v>
       </c>
       <c r="E153" s="0">
-        <v>-0.0094667813177731312</v>
+        <v>3.4673584090426393</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.28176195093521716</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B154" s="0">
-        <v>3.7406266379235746</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C154" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D154" s="0">
-        <v>14.888430881942329</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E154" s="0">
-        <v>-0.018454150901385975</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B155" s="0">
-        <v>3.5936596419358717</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C155" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>28.335582789521961</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E155" s="0">
-        <v>-0.0094927980785444385</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.18216832331308264</v>
+        <v>0.43240715444474087</v>
       </c>
       <c r="B156" s="0">
-        <v>4.5799038399373702</v>
+        <v>0.022041162334679201</v>
       </c>
       <c r="C156" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D156" s="0">
-        <v>25.494426961661528</v>
+        <v>112.33328840741564</v>
       </c>
       <c r="E156" s="0">
-        <v>-0.010575672138130307</v>
+        <v>3.5608322846319718</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.1586706841234744</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B157" s="0">
-        <v>4.2382007212863515</v>
+        <v>0.30291690317084824</v>
       </c>
       <c r="C157" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D157" s="0">
-        <v>19.745965599023354</v>
+        <v>5.7557708822083526</v>
       </c>
       <c r="E157" s="0">
-        <v>-0.013887450118302841</v>
+        <v>0.29309693229766631</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.1586706841234744</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B158" s="0">
-        <v>4.2382007212863515</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C158" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>19.745965599023354</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E158" s="0">
-        <v>-0.013887450118302841</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.1586706841234744</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B159" s="0">
-        <v>4.2382007212863515</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C159" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D159" s="0">
-        <v>19.745965599023354</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E159" s="0">
-        <v>-0.013887450118302841</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.23017402794905328</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B160" s="0">
-        <v>4.2154105154616124</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C160" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D160" s="0">
-        <v>22.203489741539777</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E160" s="0">
-        <v>-0.012276606303382114</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.23017402794905328</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B161" s="0">
-        <v>4.2154105154616124</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C161" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>22.203489741539777</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E161" s="0">
-        <v>-0.012276606303382114</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.1752715502032185</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B162" s="0">
-        <v>4.5818292523003619</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C162" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D162" s="0">
-        <v>25.367995278526859</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E162" s="0">
-        <v>-0.010628380285306447</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.20559895982450715</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B163" s="0">
-        <v>4.2229205023163194</v>
+        <v>1.0908625639984324</v>
       </c>
       <c r="C163" s="0">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D163" s="0">
-        <v>22.037901202689799</v>
+        <v>1.9452874098236252</v>
       </c>
       <c r="E163" s="0">
-        <v>-0.011956545743849488</v>
+        <v>-0.23136640040595227</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.035312295332301735</v>
       </c>
       <c r="B164" s="0">
-        <v>4.3427184733344975</v>
+        <v>0.84436039131808216</v>
       </c>
       <c r="C164" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>18.759849139360199</v>
+        <v>88.343565038719518</v>
       </c>
       <c r="E164" s="0">
-        <v>-0.014297456898128705</v>
+        <v>4.5277774314935861</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.1911565376987735</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B165" s="0">
-        <v>4.1137947167001663</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C165" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D165" s="0">
-        <v>28.298206125250612</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E165" s="0">
-        <v>-0.0095053362982890771</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.19927078719855995</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B166" s="0">
-        <v>4.3637646269777415</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C166" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D166" s="0">
-        <v>18.722092693230188</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E166" s="0">
-        <v>-0.014326290275359315</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.29971806414284385</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B167" s="0">
-        <v>3.557443686729465</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C167" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>15.871490445862168</v>
+        <v>98.160817821509966</v>
       </c>
       <c r="E167" s="0">
-        <v>-0.016778968138267254</v>
+        <v>4.0749456746309631</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.21556815926475503</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B168" s="0">
-        <v>4.1558632850227033</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C168" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D168" s="0">
-        <v>18.900220279860175</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E168" s="0">
-        <v>-0.014191270287532523</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.25532686489417378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B169" s="0">
-        <v>3.9153266199895755</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C169" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D169" s="0">
-        <v>21.766904461481239</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E169" s="0">
-        <v>-0.012522841849213408</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.20755680240737162</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B170" s="0">
-        <v>4.1581174835501287</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C170" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>22.015314208158788</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E170" s="0">
-        <v>-0.011968812769919278</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.22103974793129921</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B171" s="0">
-        <v>4.1536860409592906</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C171" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D171" s="0">
-        <v>26.929208420405608</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E171" s="0">
-        <v>-0.010012202983721453</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.22103974793129921</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B172" s="0">
-        <v>4.1536860409592906</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C172" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D172" s="0">
-        <v>26.929208420405608</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E172" s="0">
-        <v>-0.010012202983721453</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.1976900249093807</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B173" s="0">
-        <v>4.3884643728209545</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C173" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>21.92049435986771</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E173" s="0">
-        <v>-0.012020585371049379</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B174" s="0">
-        <v>2.7843387226549616</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C174" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D174" s="0">
-        <v>13.004820451420455</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E174" s="0">
-        <v>-0.023093141903523646</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B175" s="0">
-        <v>2.7843387226549616</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C175" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D175" s="0">
-        <v>13.004820451420455</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E175" s="0">
-        <v>-0.023093141903523646</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.25728923113255819</v>
+        <v>0.17756196948152603</v>
       </c>
       <c r="B176" s="0">
-        <v>3.8933506231693245</v>
+        <v>0.74949057088868265</v>
       </c>
       <c r="C176" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D176" s="0">
-        <v>21.696567937175352</v>
+        <v>91.84426116646776</v>
       </c>
       <c r="E176" s="0">
-        <v>-0.012563438738668758</v>
+        <v>4.3551986255842356</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.27432800493991505</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B177" s="0">
-        <v>2.7091451297280504</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C177" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D177" s="0">
-        <v>12.758287580721916</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E177" s="0">
-        <v>-0.023539378793145653</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B178" s="0">
-        <v>4.0068173227499555</v>
+        <v>-0.065865577512661796</v>
       </c>
       <c r="C178" s="0">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D178" s="0">
-        <v>17.802575503064141</v>
+        <v>3.7495015968089627</v>
       </c>
       <c r="E178" s="0">
-        <v>-0.014958916054146109</v>
+        <v>0.0031485612414942688</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.24023874629963049</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B179" s="0">
-        <v>2.8994063891243065</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C179" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D179" s="0">
-        <v>12.181265207918745</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E179" s="0">
-        <v>-0.025680212319883388</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.24023874629963049</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B180" s="0">
-        <v>2.8994063891243065</v>
+        <v>1.2889614153653512</v>
       </c>
       <c r="C180" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D180" s="0">
-        <v>12.181265207918745</v>
+        <v>1</v>
       </c>
       <c r="E180" s="0">
-        <v>-0.025680212319883388</v>
+        <v>-1.3697047490341592</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.19048370454704178</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B181" s="0">
-        <v>4.1740877572715203</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C181" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D181" s="0">
-        <v>28.139680954416637</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E181" s="0">
-        <v>-0.0095588847042913198</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B182" s="0">
-        <v>3.9862361929144714</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C182" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D182" s="0">
-        <v>23.02382848986031</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E182" s="0">
-        <v>-0.011367615036493688</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B183" s="0">
-        <v>4.073602979553919</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C183" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D183" s="0">
-        <v>23.003153444617443</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E183" s="0">
-        <v>-0.011377832155453002</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B184" s="0">
-        <v>4.073602979553919</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C184" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D184" s="0">
-        <v>23.003153444617443</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E184" s="0">
-        <v>-0.011377832155453002</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.1998877663344627</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B185" s="0">
-        <v>4.0745519314575622</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C185" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D185" s="0">
-        <v>28.494940604879055</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E185" s="0">
-        <v>-0.0094397096519216496</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.27070839169463934</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B186" s="0">
-        <v>3.5254388728592527</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C186" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D186" s="0">
-        <v>27.958465291258292</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E186" s="0">
-        <v>-0.0096208415968709673</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B187" s="0">
-        <v>4.4113066293552503</v>
+        <v>1.0409599155279252</v>
       </c>
       <c r="C187" s="0">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D187" s="0">
-        <v>25.755270803649633</v>
+        <v>3.139190095687471</v>
       </c>
       <c r="E187" s="0">
-        <v>-0.010528218484236653</v>
+        <v>0.53739937281945782</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.2177550866333412</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B188" s="0">
-        <v>4.266647628608724</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C188" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D188" s="0">
-        <v>22.182289105112922</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E188" s="0">
-        <v>-0.012288339622047301</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.2177550866333412</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B189" s="0">
-        <v>4.266647628608724</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C189" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D189" s="0">
-        <v>22.182289105112922</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E189" s="0">
-        <v>-0.012288339622047301</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.18176747448582331</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B190" s="0">
-        <v>4.4264293277626052</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C190" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D190" s="0">
-        <v>25.664718057800574</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E190" s="0">
-        <v>-0.010565365165158663</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.18176747448582331</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B191" s="0">
-        <v>4.4264293277626052</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C191" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D191" s="0">
-        <v>25.664718057800574</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E191" s="0">
-        <v>-0.010565365165158663</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.19020665982588592</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B192" s="0">
-        <v>4.202976984757167</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C192" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D192" s="0">
-        <v>28.038987607525183</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E192" s="0">
-        <v>-0.0095932124805611849</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.28866279595132138</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B193" s="0">
-        <v>3.684684212339969</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C193" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D193" s="0">
-        <v>15.366334552443693</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E193" s="0">
-        <v>-0.017493053087395662</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.26246085116432361</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B194" s="0">
-        <v>3.8620886994841497</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C194" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D194" s="0">
-        <v>21.558797282703932</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E194" s="0">
-        <v>-0.012643724904670542</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.19020665982588592</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B195" s="0">
-        <v>4.110222967272624</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C195" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D195" s="0">
-        <v>19.237870643599667</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E195" s="0">
-        <v>-0.01389959658070334</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.22103974793129921</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B196" s="0">
-        <v>3.8350341975150726</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C196" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D196" s="0">
-        <v>28.846149405255531</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E196" s="0">
-        <v>-0.0093247789186658055</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.18730918553929066</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B197" s="0">
-        <v>4.1170527416515803</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C197" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D197" s="0">
-        <v>19.200787921483755</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E197" s="0">
-        <v>-0.013926441045609323</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.18708744902483576</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B198" s="0">
-        <v>4.2168186848981319</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C198" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D198" s="0">
-        <v>18.939688689604736</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E198" s="0">
-        <v>-0.014118428523302808</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.18708744902483576</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B199" s="0">
-        <v>4.2168186848981319</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C199" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D199" s="0">
-        <v>18.939688689604736</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E199" s="0">
-        <v>-0.014118428523302808</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B200" s="0">
-        <v>4.2879271305640696</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C200" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D200" s="0">
-        <v>22.11680325366677</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E200" s="0">
-        <v>-0.012324724282786002</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.22370870228709971</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B201" s="0">
-        <v>3.8124707995549443</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C201" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D201" s="0">
-        <v>28.837769234893877</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E201" s="0">
-        <v>-0.0093274886718123368</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B202" s="0">
-        <v>3.0593548791483194</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C202" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D202" s="0">
-        <v>12.063749385862453</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E202" s="0">
-        <v>-0.025930369312110683</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.45375101471183854</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B203" s="0">
-        <v>3.7303547153625072</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C203" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D203" s="0">
-        <v>15.248443015922325</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E203" s="0">
-        <v>-0.017201699366144997</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.45375101471183854</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B204" s="0">
-        <v>3.7303547153625072</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C204" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D204" s="0">
-        <v>15.248443015922325</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E204" s="0">
-        <v>-0.017201699366144997</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.17831944395141652</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B205" s="0">
-        <v>4.4711059501431647</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C205" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D205" s="0">
-        <v>25.367752355091437</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E205" s="0">
-        <v>-0.010689047825204035</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.1545451566783409</v>
+        <v>0.035312295332301735</v>
       </c>
       <c r="B206" s="0">
-        <v>4.3327950721617796</v>
+        <v>0.84436039131808216</v>
       </c>
       <c r="C206" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D206" s="0">
-        <v>20.801013875749234</v>
+        <v>88.343565038719518</v>
       </c>
       <c r="E206" s="0">
-        <v>-0.013029681916906023</v>
+        <v>4.5277774314935861</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B207" s="0">
-        <v>3.8157776849178546</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C207" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D207" s="0">
-        <v>21.356749883869224</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E207" s="0">
-        <v>-0.012763341969179961</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B208" s="0">
-        <v>3.8157776849178546</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C208" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D208" s="0">
-        <v>21.356749883869224</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E208" s="0">
-        <v>-0.012763341969179961</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B209" s="0">
-        <v>3.9508598848868939</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C209" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D209" s="0">
-        <v>19.452595277299569</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E209" s="0">
-        <v>-0.013746167912609328</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.19020665982588592</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B210" s="0">
-        <v>3.9825025601137449</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C210" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D210" s="0">
-        <v>20.085313741486086</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E210" s="0">
-        <v>-0.01365281696983198</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.19020665982588592</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B211" s="0">
-        <v>3.9825025601137449</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C211" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D211" s="0">
-        <v>20.085313741486086</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E211" s="0">
-        <v>-0.01365281696983198</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.19020665982588592</v>
+        <v>0.17756196948152603</v>
       </c>
       <c r="B212" s="0">
-        <v>3.9825025601137449</v>
+        <v>0.74949057088868265</v>
       </c>
       <c r="C212" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D212" s="0">
-        <v>20.085313741486086</v>
+        <v>91.84426116646776</v>
       </c>
       <c r="E212" s="0">
-        <v>-0.01365281696983198</v>
+        <v>4.3551986255842356</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.20755680240737162</v>
+        <v>0.05345672119566991</v>
       </c>
       <c r="B213" s="0">
-        <v>3.928905805813065</v>
+        <v>0.77804850499597078</v>
       </c>
       <c r="C213" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D213" s="0">
-        <v>19.468679358033175</v>
+        <v>89.454130291337776</v>
       </c>
       <c r="E213" s="0">
-        <v>-0.013734811493901201</v>
+        <v>4.4715654682155428</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B214" s="0">
-        <v>4.0764608255137089</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C214" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D214" s="0">
-        <v>18.838933583416772</v>
+        <v>98.160817821509966</v>
       </c>
       <c r="E214" s="0">
-        <v>-0.014237437235911379</v>
+        <v>4.0749456746309631</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.21074351773740063</v>
+        <v>0.43240715444474087</v>
       </c>
       <c r="B215" s="0">
-        <v>3.9007034486915444</v>
+        <v>0.022041162334679201</v>
       </c>
       <c r="C215" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D215" s="0">
-        <v>19.444991784035196</v>
+        <v>112.33328840741564</v>
       </c>
       <c r="E215" s="0">
-        <v>-0.013751543018770096</v>
+        <v>3.5608322846319718</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.21260710746340239</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B216" s="0">
-        <v>4.1270497033187379</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C216" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D216" s="0">
-        <v>21.993878825483357</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E216" s="0">
-        <v>-0.011980477655587218</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.22370870228709971</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B217" s="0">
-        <v>4.0104942682620184</v>
+        <v>-0.039033490089340359</v>
       </c>
       <c r="C217" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D217" s="0">
-        <v>27.117040298813883</v>
+        <v>115.36159600831191</v>
       </c>
       <c r="E217" s="0">
-        <v>-0.0099995100923077236</v>
+        <v>3.4673584090426388</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B218" s="0">
-        <v>3.8014977394611122</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C218" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D218" s="0">
-        <v>21.237440868670483</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E218" s="0">
-        <v>-0.012835044664923967</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.19780376027437696</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B219" s="0">
-        <v>4.1331178149646597</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C219" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D219" s="0">
-        <v>22.939947508212164</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E219" s="0">
-        <v>-0.011409181247921066</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.18216832331308264</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B220" s="0">
-        <v>4.2054641321515387</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C220" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D220" s="0">
-        <v>21.86778867713155</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E220" s="0">
-        <v>-0.012394055857764619</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.1976900249093807</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B221" s="0">
-        <v>4.1895755649898794</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C221" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D221" s="0">
-        <v>22.846828854673394</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E221" s="0">
-        <v>-0.011455682563379071</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.22103974793129921</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B222" s="0">
-        <v>3.1092244993730209</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C222" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D222" s="0">
-        <v>11.870079812957222</v>
+        <v>98.160817821509966</v>
       </c>
       <c r="E222" s="0">
-        <v>-0.026353443430320866</v>
+        <v>4.0749456746309631</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.42734113069265323</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B223" s="0">
-        <v>2.6006034420130084</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C223" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D223" s="0">
-        <v>10.91593485916966</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E223" s="0">
-        <v>-0.027512271554297602</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.42734113069265323</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B224" s="0">
-        <v>2.6006034420130084</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C224" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D224" s="0">
-        <v>10.91593485916966</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E224" s="0">
-        <v>-0.027512271554297602</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.1867391317907463</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B225" s="0">
-        <v>4.107617267778938</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C225" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D225" s="0">
-        <v>20.035640501339291</v>
+        <v>85.383742034322125</v>
       </c>
       <c r="E225" s="0">
-        <v>-0.013686665633466035</v>
+        <v>4.6847326021294551</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.1752715502032185</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B226" s="0">
-        <v>4.5449799322390767</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C226" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D226" s="0">
-        <v>21.440594051910189</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E226" s="0">
-        <v>-0.01228963960562094</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.18405344133522905</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B227" s="0">
-        <v>4.2837298337752623</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C227" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D227" s="0">
-        <v>18.643063951965313</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E227" s="0">
-        <v>-0.014343063012965875</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B228" s="0">
-        <v>2.4655567673692054</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C228" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D228" s="0">
-        <v>10.6902741715533</v>
+        <v>98.160817821509966</v>
       </c>
       <c r="E228" s="0">
-        <v>-0.028093027297059689</v>
+        <v>4.0749456746309631</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.1911565376987735</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B229" s="0">
-        <v>4.2229823990370807</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C229" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D229" s="0">
-        <v>22.728346611738509</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E229" s="0">
-        <v>-0.01151540072007764</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.18176747448582331</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B230" s="0">
-        <v>4.2478341840470257</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C230" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D230" s="0">
-        <v>21.67834159597686</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E230" s="0">
-        <v>-0.012502367542748742</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B231" s="0">
-        <v>3.7859863961786053</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C231" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D231" s="0">
-        <v>22.56361876585358</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E231" s="0">
-        <v>-0.01201184070528272</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B232" s="0">
-        <v>3.7859863961786053</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C232" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D232" s="0">
-        <v>22.56361876585358</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E232" s="0">
-        <v>-0.01201184070528272</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.23172190526424696</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B233" s="0">
-        <v>3.6638130100648918</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C233" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D233" s="0">
-        <v>28.529468900124282</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E233" s="0">
-        <v>-0.0094282850760547873</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B234" s="0">
-        <v>3.8294267831516038</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C234" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D234" s="0">
-        <v>26.976207211487335</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E234" s="0">
-        <v>-0.010051713942426913</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.18934913726983227</v>
+        <v>0.52689060483596351</v>
       </c>
       <c r="B235" s="0">
-        <v>4.2533966044905265</v>
+        <v>0.71343633712455767</v>
       </c>
       <c r="C235" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D235" s="0">
-        <v>27.814970629914715</v>
+        <v>1.1274441494026584</v>
       </c>
       <c r="E235" s="0">
-        <v>-0.0096704745598228843</v>
+        <v>-0.54965449895011709</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.25179043538130019</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B236" s="0">
-        <v>3.6600324952643306</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C236" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D236" s="0">
-        <v>22.233602964003435</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E236" s="0">
-        <v>-0.011771642201343909</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.21260710746340239</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B237" s="0">
-        <v>3.130332468058751</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C237" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D237" s="0">
-        <v>11.739710956318435</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E237" s="0">
-        <v>-0.02664609699745633</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B238" s="0">
-        <v>3.8836154599557502</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C238" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D238" s="0">
-        <v>25.912736854573453</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E238" s="0">
-        <v>-0.010404948825328551</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.23310629698509999</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B239" s="0">
-        <v>3.8818752129710612</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C239" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D239" s="0">
-        <v>25.902185727781408</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E239" s="0">
-        <v>-0.01040918722958812</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.16467374389909561</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B240" s="0">
-        <v>4.15367152711553</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C240" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D240" s="0">
-        <v>17.376384802151335</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E240" s="0">
-        <v>-0.019177587731878682</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.16467374389909561</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B241" s="0">
-        <v>4.15367152711553</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C241" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D241" s="0">
-        <v>17.376384802151335</v>
+        <v>98.160817821509951</v>
       </c>
       <c r="E241" s="0">
-        <v>-0.019177587731878682</v>
+        <v>4.074945674630964</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.25532686489417378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B242" s="0">
-        <v>3.6336145111203839</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C242" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D242" s="0">
-        <v>22.116099272513402</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E242" s="0">
-        <v>-0.011834185392008496</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.17478531610174486</v>
+        <v>0.43240715444474087</v>
       </c>
       <c r="B243" s="0">
-        <v>4.2863825066250376</v>
+        <v>0.022041162334679201</v>
       </c>
       <c r="C243" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D243" s="0">
-        <v>21.403662682074575</v>
+        <v>112.33328840741564</v>
       </c>
       <c r="E243" s="0">
-        <v>-0.012662813761176839</v>
+        <v>3.5608322846319718</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.17443915826430345</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B244" s="0">
-        <v>4.5974232270708351</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C244" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D244" s="0">
-        <v>21.237005161406532</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E244" s="0">
-        <v>-0.012407454432757916</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B245" s="0">
-        <v>3.7194259506780032</v>
+        <v>-0.59031761366228563</v>
       </c>
       <c r="C245" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D245" s="0">
-        <v>26.836058885064666</v>
+        <v>1</v>
       </c>
       <c r="E245" s="0">
-        <v>-0.010104207898143135</v>
+        <v>-3.3697047490341592</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B246" s="0">
-        <v>3.7194259506780032</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C246" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D246" s="0">
-        <v>26.836058885064666</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E246" s="0">
-        <v>-0.010104207898143135</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B247" s="0">
-        <v>3.7194259506780032</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C247" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D247" s="0">
-        <v>26.836058885064666</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E247" s="0">
-        <v>-0.010104207898143135</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.31553703598527361</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B248" s="0">
-        <v>3.6586051494802465</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C248" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D248" s="0">
-        <v>14.873577597723417</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E248" s="0">
-        <v>-0.018072592442434532</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.2325782655679165</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B249" s="0">
-        <v>3.7246481025257951</v>
+        <v>-0.039033490089340359</v>
       </c>
       <c r="C249" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D249" s="0">
-        <v>17.244531145429264</v>
+        <v>115.36159600831191</v>
       </c>
       <c r="E249" s="0">
-        <v>-0.015442996405763127</v>
+        <v>3.4673584090426388</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.1752715502032185</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B250" s="0">
-        <v>4.3161005156841288</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C250" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D250" s="0">
-        <v>27.300417290140373</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E250" s="0">
-        <v>-0.0098527419196612551</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0.15954840888548116</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B251" s="0">
-        <v>4.7580817996655309</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C251" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D251" s="0">
-        <v>17.132085047127987</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E251" s="0">
-        <v>-0.015655895575323639</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B252" s="0">
-        <v>2.3235317009096046</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C252" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D252" s="0">
-        <v>8.9916933891655795</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E252" s="0">
-        <v>-0.020355484723663372</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0.1654620689190992</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B253" s="0">
-        <v>4.6155677939910991</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C253" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D253" s="0">
-        <v>21.046916971902299</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E253" s="0">
-        <v>-0.012519514101764443</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0.26246085116432361</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B254" s="0">
-        <v>3.7185787909243402</v>
+        <v>1.1444193061273271</v>
       </c>
       <c r="C254" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D254" s="0">
-        <v>20.840712513427917</v>
+        <v>1.1274441494026584</v>
       </c>
       <c r="E254" s="0">
-        <v>-0.012643386048275551</v>
+        <v>-0.54965449895011709</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0.23017402794905328</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B255" s="0">
-        <v>3.6545985281116082</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C255" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D255" s="0">
-        <v>22.167281384500168</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E255" s="0">
-        <v>-0.012226605042315717</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0.1545451566783409</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B256" s="0">
-        <v>4.2325877614039724</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C256" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D256" s="0">
-        <v>17.316371668493034</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E256" s="0">
-        <v>-0.019244051258870951</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B257" s="0">
-        <v>3.5963673453939817</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C257" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D257" s="0">
-        <v>21.841178301950897</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E257" s="0">
-        <v>-0.011983145566629523</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B258" s="0">
-        <v>3.5963673453939817</v>
+        <v>1.2546119768872059</v>
       </c>
       <c r="C258" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D258" s="0">
-        <v>21.841178301950897</v>
+        <v>1.9396763987281527</v>
       </c>
       <c r="E258" s="0">
-        <v>-0.011983145566629523</v>
+        <v>-0.44837620832239095</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>0.29971806414284385</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B259" s="0">
-        <v>3.7756988681502182</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C259" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D259" s="0">
-        <v>17.215129660766756</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E259" s="0">
-        <v>-0.015236547021743806</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>0.38889835334362288</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B260" s="0">
-        <v>3.5128505961760905</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C260" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D260" s="0">
-        <v>25.671831209990241</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E260" s="0">
-        <v>-0.010477786475712545</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>0.38889835334362288</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B261" s="0">
-        <v>3.5128505961760905</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C261" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D261" s="0">
-        <v>25.671831209990241</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E261" s="0">
-        <v>-0.010477786475712545</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>0.38889835334362288</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B262" s="0">
-        <v>3.5128505961760905</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C262" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D262" s="0">
-        <v>25.671831209990241</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E262" s="0">
-        <v>-0.010477786475712545</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>0.1752715502032185</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B263" s="0">
-        <v>5.1144495283527549</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C263" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D263" s="0">
-        <v>12.166109080150592</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E263" s="0">
-        <v>-0.022583502118067308</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B264" s="0">
-        <v>3.6374152320328039</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C264" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D264" s="0">
-        <v>18.764253748453186</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E264" s="0">
-        <v>-0.014250427680335215</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>0.1586706841234744</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B265" s="0">
-        <v>4.3042465999488178</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C265" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D265" s="0">
-        <v>21.034702056295298</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E265" s="0">
-        <v>-0.012884926709434738</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B266" s="0">
-        <v>3.6906988903055109</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C266" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D266" s="0">
-        <v>20.684499321058052</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E266" s="0">
-        <v>-0.012738871255159673</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>0.15632208027524963</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B267" s="0">
-        <v>4.6194306247617618</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C267" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D267" s="0">
-        <v>23.915101891118294</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E267" s="0">
-        <v>-0.011338321675401613</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B268" s="0">
-        <v>3.7681655371343683</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C268" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D268" s="0">
-        <v>18.263999938556303</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E268" s="0">
-        <v>-0.014685618450927399</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>0.15954840888548116</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B269" s="0">
-        <v>4.3352532288456613</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C269" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D269" s="0">
-        <v>26.87255620978506</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E269" s="0">
-        <v>-0.010009615898053877</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>0.15954840888548116</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B270" s="0">
-        <v>4.3352532288456613</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C270" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D270" s="0">
-        <v>26.87255620978506</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E270" s="0">
-        <v>-0.010009615898053877</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>0.2734167752729032</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B271" s="0">
-        <v>3.5687829915646403</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C271" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D271" s="0">
-        <v>21.655218768976038</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E271" s="0">
-        <v>-0.012086048251516393</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>0.15632208027524963</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B272" s="0">
-        <v>4.79690185770915</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C272" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D272" s="0">
-        <v>16.926860939210439</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E272" s="0">
-        <v>-0.015845710285483712</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>0.15403375054193635</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B273" s="0">
-        <v>4.3000522146792886</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C273" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D273" s="0">
-        <v>19.477331940323772</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E273" s="0">
-        <v>-0.014078987467808298</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>0.1586706841234744</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B274" s="0">
-        <v>4.3079142935741093</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C274" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D274" s="0">
-        <v>18.222972168429511</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E274" s="0">
-        <v>-0.014673711760425522</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>0.1867391317907463</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B275" s="0">
-        <v>4.4714067298308846</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C275" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D275" s="0">
-        <v>14.626612789373398</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E275" s="0">
-        <v>-0.018377741309995758</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>0.31553703598527361</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B276" s="0">
-        <v>3.4481024184101505</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C276" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D276" s="0">
-        <v>20.177913523745318</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E276" s="0">
-        <v>-0.013432042615863775</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>0.23926335293186041</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B277" s="0">
-        <v>3.5969323586298252</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C277" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D277" s="0">
-        <v>18.589290357627643</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E277" s="0">
-        <v>-0.01438455346457434</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>0.1911565376987735</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B278" s="0">
-        <v>3.223815827780923</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C278" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D278" s="0">
-        <v>9.2230390881265532</v>
+        <v>162.83412462828804</v>
       </c>
       <c r="E278" s="0">
-        <v>-0.035186423156612093</v>
+        <v>2.456487550831902</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>0.25179043538130019</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B279" s="0">
-        <v>3.7567408326930227</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C279" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D279" s="0">
-        <v>18.22168581637305</v>
+        <v>85.383742034322125</v>
       </c>
       <c r="E279" s="0">
-        <v>-0.014719721171154899</v>
+        <v>4.6847326021294551</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>0.19048370454704178</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B280" s="0">
-        <v>3.2269726170293747</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C280" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D280" s="0">
-        <v>9.2215560454829362</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E280" s="0">
-        <v>-0.035192081959287067</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>0.40182656453682242</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B281" s="0">
-        <v>3.4993613984725247</v>
+        <v>0.075237111552116528</v>
       </c>
       <c r="C281" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D281" s="0">
-        <v>25.214161259502688</v>
+        <v>6.4199907477400897</v>
       </c>
       <c r="E281" s="0">
-        <v>-0.010667971981714703</v>
+        <v>0.26277277567375679</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>0.27565122142111109</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B282" s="0">
-        <v>3.543471631947094</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C282" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D282" s="0">
-        <v>21.486594902525194</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E282" s="0">
-        <v>-0.012180897909897705</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>0.15385063569120905</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B283" s="0">
-        <v>4.6471583476146803</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C283" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D283" s="0">
-        <v>23.650357992222581</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E283" s="0">
-        <v>-0.011465243707121672</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>0.1545451566783409</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B284" s="0">
-        <v>4.3502443329281322</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C284" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D284" s="0">
-        <v>17.975201200156462</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E284" s="0">
-        <v>-0.014875974852257206</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>0.46377740366028464</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B285" s="0">
-        <v>2.175576177658896</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C285" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D285" s="0">
-        <v>8.728140267103262</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E285" s="0">
-        <v>-0.020970134739112054</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>0.12279714734364633</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B286" s="0">
-        <v>4.4580566119965193</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C286" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D286" s="0">
-        <v>18.30324173254067</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E286" s="0">
-        <v>-0.014982106246601819</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B287" s="0">
-        <v>3.5986247438510155</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C287" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D287" s="0">
-        <v>26.124039860695653</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E287" s="0">
-        <v>-0.010379601301614461</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>0.25728923113255819</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B288" s="0">
-        <v>3.541621907602337</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C288" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D288" s="0">
-        <v>21.5941396332212</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E288" s="0">
-        <v>-0.012551117986344678</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>0.49102227196074255</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B289" s="0">
-        <v>3.7290136472674011</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C289" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D289" s="0">
-        <v>14.176234307534674</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E289" s="0">
-        <v>-0.018502736824988642</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>0.1586706841234744</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B290" s="0">
-        <v>4.5099663218006683</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C290" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D290" s="0">
-        <v>21.213778695622171</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E290" s="0">
-        <v>-0.012337548283795357</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>0.12457146755865811</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B291" s="0">
-        <v>4.3614108156335787</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C291" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D291" s="0">
-        <v>16.893575110449667</v>
+        <v>98.160817821509951</v>
       </c>
       <c r="E291" s="0">
-        <v>-0.019725673330094225</v>
+        <v>4.074945674630964</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>0.26666876646866067</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B292" s="0">
-        <v>3.5217766642832005</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C292" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D292" s="0">
-        <v>17.999610426968804</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E292" s="0">
-        <v>-0.014855801579857967</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B293" s="0">
-        <v>3.6641341210730189</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C293" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D293" s="0">
-        <v>24.150706540585858</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E293" s="0">
-        <v>-0.011164091636115807</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>0.1545451566783409</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B294" s="0">
-        <v>4.4283799492717844</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C294" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D294" s="0">
-        <v>26.230343622716205</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E294" s="0">
-        <v>-0.010254687080266207</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>0.1545451566783409</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B295" s="0">
-        <v>4.9070119236693239</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C295" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D295" s="0">
-        <v>16.361501274890461</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E295" s="0">
-        <v>-0.016393247170846493</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>0.42734113069265323</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B296" s="0">
-        <v>3.4752659297015693</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C296" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D296" s="0">
-        <v>24.229342426639821</v>
+        <v>85.383742034322125</v>
       </c>
       <c r="E296" s="0">
-        <v>-0.011101579280297218</v>
+        <v>4.6847326021294551</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>0.42734113069265323</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B297" s="0">
-        <v>3.4752659297015693</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C297" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D297" s="0">
-        <v>24.229342426639821</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E297" s="0">
-        <v>-0.011101579280297218</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>0.42734113069265323</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B298" s="0">
-        <v>3.4752659297015693</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C298" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D298" s="0">
-        <v>24.229342426639821</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E298" s="0">
-        <v>-0.011101579280297218</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>0.12279714734364633</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B299" s="0">
-        <v>4.4183929278266509</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C299" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D299" s="0">
-        <v>16.712694043123481</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E299" s="0">
-        <v>-0.019939163796470784</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>0.12279714734364633</v>
+        <v>0.19057449054860942</v>
       </c>
       <c r="B300" s="0">
-        <v>4.4183929278266509</v>
+        <v>0.67435439398025554</v>
       </c>
       <c r="C300" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D300" s="0">
-        <v>16.712694043123481</v>
+        <v>93.008381839004045</v>
       </c>
       <c r="E300" s="0">
-        <v>-0.019939163796470784</v>
+        <v>4.3006876594455035</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>0.1431784356621969</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B301" s="0">
-        <v>4.514872423759372</v>
+        <v>-0.069724791286631643</v>
       </c>
       <c r="C301" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D301" s="0">
-        <v>25.381091759678217</v>
+        <v>6.1796792656062056</v>
       </c>
       <c r="E301" s="0">
-        <v>-0.010597809125221852</v>
+        <v>0.27299131816965128</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>0.18216832331308264</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B302" s="0">
-        <v>4.6677146414367039</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C302" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D302" s="0">
-        <v>14.156916245170313</v>
+        <v>85.38374203432214</v>
       </c>
       <c r="E302" s="0">
-        <v>-0.019407711780024973</v>
+        <v>4.6847326021294542</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>0.18216832331308264</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B303" s="0">
-        <v>4.6677146414367039</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C303" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D303" s="0">
-        <v>14.156916245170313</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E303" s="0">
-        <v>-0.019407711780024973</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>0.2856299245067323</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B304" s="0">
-        <v>3.6448861804931387</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C304" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D304" s="0">
-        <v>23.668818757328115</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E304" s="0">
-        <v>-0.011391388123776328</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>0.27070839169463934</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B305" s="0">
-        <v>3.458750153982685</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C305" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D305" s="0">
-        <v>21.074457462959497</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E305" s="0">
-        <v>-0.012860620247355119</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>0.31923475839025173</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B306" s="0">
-        <v>3.4931223248889194</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C306" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D306" s="0">
-        <v>16.978760175153447</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E306" s="0">
-        <v>-0.015749008659012669</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>0.12457146755865811</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B307" s="0">
-        <v>4.5167460574297911</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C307" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D307" s="0">
-        <v>24.782088072613099</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E307" s="0">
-        <v>-0.010853966989007173</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>0.12279714734364633</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B308" s="0">
-        <v>4.4817635554619821</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C308" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D308" s="0">
-        <v>19.203274637454275</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E308" s="0">
-        <v>-0.01411376962872468</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>0.18176747448582331</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B309" s="0">
-        <v>4.7688576167096803</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C309" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D309" s="0">
-        <v>13.773608273469083</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E309" s="0">
-        <v>-0.019947812129190036</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B310" s="0">
-        <v>3.7345101971540253</v>
+        <v>-0.72559709002408268</v>
       </c>
       <c r="C310" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D310" s="0">
-        <v>18.04671596360091</v>
+        <v>3.0046016760844085</v>
       </c>
       <c r="E310" s="0">
-        <v>-0.014862434529716011</v>
+        <v>0.0039291515732689476</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>0.25728923113255819</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B311" s="0">
-        <v>3.7389156909074655</v>
+        <v>0.16380940597420307</v>
       </c>
       <c r="C311" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D311" s="0">
-        <v>18.136727009392459</v>
+        <v>103.66585603638985</v>
       </c>
       <c r="E311" s="0">
-        <v>-0.014788673521220081</v>
+        <v>3.8585510725883352</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>0.45003663335492372</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B312" s="0">
-        <v>3.468292583324688</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C312" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D312" s="0">
-        <v>23.164871607087868</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E312" s="0">
-        <v>-0.011611718399358994</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B313" s="0">
-        <v>3.8680223781239462</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C313" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D313" s="0">
-        <v>18.518706577497834</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E313" s="0">
-        <v>-0.014483632178249016</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>0.28866279595132138</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B314" s="0">
-        <v>3.4097648519405226</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C314" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D314" s="0">
-        <v>17.103126206909778</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E314" s="0">
-        <v>-0.016033391145963333</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>0.1431784356621969</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B315" s="0">
-        <v>5.0217764028425993</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C315" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D315" s="0">
-        <v>21.778502844855556</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E315" s="0">
-        <v>-0.012380130205310728</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.035312295332301735</v>
       </c>
       <c r="B316" s="0">
-        <v>3.6506743760653033</v>
+        <v>0.84436039131808216</v>
       </c>
       <c r="C316" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D316" s="0">
-        <v>17.68203427024249</v>
+        <v>88.343565038719532</v>
       </c>
       <c r="E316" s="0">
-        <v>-0.015168963615051347</v>
+        <v>4.5277774314935852</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>0.12457146755865811</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B317" s="0">
-        <v>3.2981602855098746</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C317" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D317" s="0">
-        <v>10.172930988674619</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E317" s="0">
-        <v>-0.030749985152992501</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>0.27070839169463934</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B318" s="0">
-        <v>3.643643912632486</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C318" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D318" s="0">
-        <v>17.635340455606418</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E318" s="0">
-        <v>-0.015209127102512536</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B319" s="0">
-        <v>3.7435949956409709</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C319" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D319" s="0">
-        <v>21.025615125747851</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E319" s="0">
-        <v>-0.012532198095156752</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>0.4517729901315588</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B320" s="0">
-        <v>3.426239288216681</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C320" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D320" s="0">
-        <v>22.939069709709081</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E320" s="0">
-        <v>-0.01172601893898784</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>0.37529042729507867</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B321" s="0">
-        <v>3.7311377265123218</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C321" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D321" s="0">
-        <v>22.821266206800278</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E321" s="0">
-        <v>-0.011701958195377426</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>0.20559895982450715</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B322" s="0">
-        <v>4.1464884165540754</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C322" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D322" s="0">
-        <v>26.826019261161022</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E322" s="0">
-        <v>-0.010107989392749324</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>0.30350591119691506</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B323" s="0">
-        <v>3.6360213959840353</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C323" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D323" s="0">
-        <v>17.026272326664536</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E323" s="0">
-        <v>-0.015753191851944466</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>0.12279714734364633</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B324" s="0">
-        <v>4.483202466812787</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C324" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D324" s="0">
-        <v>16.714693111440575</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E324" s="0">
-        <v>-0.015997819357794062</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B325" s="0">
-        <v>4.2307643692517871</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C325" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D325" s="0">
-        <v>26.580210973510368</v>
+        <v>98.160817821509951</v>
       </c>
       <c r="E325" s="0">
-        <v>-0.010201465985794385</v>
+        <v>4.074945674630964</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>0.12279714734364633</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B326" s="0">
-        <v>4.6371572353005819</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C326" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D326" s="0">
-        <v>23.912380304273295</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E326" s="0">
-        <v>-0.011248732348520812</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>0.12279714734364633</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B327" s="0">
-        <v>4.6371572353005819</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C327" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D327" s="0">
-        <v>23.912380304273295</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E327" s="0">
-        <v>-0.011248732348520812</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>0.12222796372549916</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B328" s="0">
-        <v>4.745990689896348</v>
+        <v>0.548209302272746</v>
       </c>
       <c r="C328" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D328" s="0">
-        <v>15.260102925026143</v>
+        <v>1.8653295263746212</v>
       </c>
       <c r="E328" s="0">
-        <v>-0.021837149175425351</v>
+        <v>-0.13236926081939493</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>0.22370870228709971</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B329" s="0">
-        <v>4.1908220998369927</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C329" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D329" s="0">
-        <v>15.675114415864639</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E329" s="0">
-        <v>-0.017148462138976518</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>0.19927078719855995</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B330" s="0">
-        <v>4.3301122007640034</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C330" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D330" s="0">
-        <v>21.988767779578282</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E330" s="0">
-        <v>-0.011983262385130786</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>0.20755680240737162</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B331" s="0">
-        <v>4.2809402033291954</v>
+        <v>-0.71812682850290244</v>
       </c>
       <c r="C331" s="0">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D331" s="0">
-        <v>18.983148999517809</v>
+        <v>1.2173880561223887</v>
       </c>
       <c r="E331" s="0">
-        <v>-0.013821738965014468</v>
+        <v>-0.36970474903415923</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B332" s="0">
-        <v>4.1948059994288887</v>
+        <v>1.0465573279273026</v>
       </c>
       <c r="C332" s="0">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D332" s="0">
-        <v>19.12943861280559</v>
+        <v>1.2755192635893464</v>
       </c>
       <c r="E332" s="0">
-        <v>-0.013716039216627545</v>
+        <v>0.0092554740172347289</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>0.1431784356621969</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B333" s="0">
-        <v>4.9543854219292101</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C333" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D333" s="0">
-        <v>18.829767285732089</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E333" s="0">
-        <v>-0.013993650045163137</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>0.34020282788601242</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B334" s="0">
-        <v>3.6366379047751827</v>
+        <v>-0.70597676126854259</v>
       </c>
       <c r="C334" s="0">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D334" s="0">
-        <v>21.922819974590571</v>
+        <v>1</v>
       </c>
       <c r="E334" s="0">
-        <v>-0.012298632256641396</v>
+        <v>-0.86970474903415917</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>0.20559895982450715</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B335" s="0">
-        <v>4.4398254833228359</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C335" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D335" s="0">
-        <v>18.605432580204084</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E335" s="0">
-        <v>-0.014102339683543796</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>0.20559895982450715</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B336" s="0">
-        <v>4.4398254833228359</v>
+        <v>-0.65074203577690282</v>
       </c>
       <c r="C336" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D336" s="0">
-        <v>18.605432580204084</v>
+        <v>1</v>
       </c>
       <c r="E336" s="0">
-        <v>-0.014102339683543796</v>
+        <v>-1.6197047490341592</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>0.12222796372549916</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B337" s="0">
-        <v>4.6900076812404485</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C337" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D337" s="0">
-        <v>10.396928951818451</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E337" s="0">
-        <v>-0.050316465156053106</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>0.18405344133522905</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B338" s="0">
-        <v>4.3441460429178393</v>
+        <v>-0.40590807497056203</v>
       </c>
       <c r="C338" s="0">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D338" s="0">
-        <v>17.840183753431422</v>
+        <v>5.1042329564408391</v>
       </c>
       <c r="E338" s="0">
-        <v>-0.014927381700690851</v>
+        <v>0.33050975591831883</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>0.096292993137672034</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B339" s="0">
-        <v>3.3138114115163204</v>
+        <v>0.50565280639347998</v>
       </c>
       <c r="C339" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D339" s="0">
-        <v>9.8895193091927105</v>
+        <v>5.3699064280559359</v>
       </c>
       <c r="E339" s="0">
-        <v>-0.031631211496132607</v>
+        <v>0.31415794878091458</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>0.096292993137672034</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B340" s="0">
-        <v>3.3138114115163204</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C340" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D340" s="0">
-        <v>9.8895193091927105</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E340" s="0">
-        <v>-0.031631211496132607</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B341" s="0">
-        <v>3.9600045759262059</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C341" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D341" s="0">
-        <v>15.262963451733762</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E341" s="0">
-        <v>-0.018001310888876486</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>0.24532549666100045</v>
+        <v>0.41911244333246533</v>
       </c>
       <c r="B342" s="0">
-        <v>3.938792041117734</v>
+        <v>0.21381671925599899</v>
       </c>
       <c r="C342" s="0">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D342" s="0">
-        <v>15.316395224983683</v>
+        <v>3.5975342814969284</v>
       </c>
       <c r="E342" s="0">
-        <v>-0.017938512694687367</v>
+        <v>0.0032815630036807618</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>0.22370870228709971</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B343" s="0">
-        <v>4.1606330444808455</v>
+        <v>-0.49828579870389966</v>
       </c>
       <c r="C343" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D343" s="0">
-        <v>19.216589381072694</v>
+        <v>1</v>
       </c>
       <c r="E343" s="0">
-        <v>-0.013653834455334775</v>
+        <v>-3.6197047490341592</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B344" s="0">
-        <v>3.9241652004039844</v>
+        <v>1.0547094773148407</v>
       </c>
       <c r="C344" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D344" s="0">
-        <v>19.297565132415883</v>
+        <v>1.2641294139900023</v>
       </c>
       <c r="E344" s="0">
-        <v>-0.013596540724434029</v>
+        <v>-0.1953220041067357</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B345" s="0">
-        <v>3.9241652004039844</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C345" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D345" s="0">
-        <v>19.297565132415883</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E345" s="0">
-        <v>-0.013596540724434029</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>0.23666344274036233</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B346" s="0">
-        <v>3.9186727650361428</v>
+        <v>-0.41544304085650618</v>
       </c>
       <c r="C346" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D346" s="0">
-        <v>19.308766250042886</v>
+        <v>164.45815180088783</v>
       </c>
       <c r="E346" s="0">
-        <v>-0.013588653299105941</v>
+        <v>2.4322296925985554</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>0.1867391317907463</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B347" s="0">
-        <v>4.4415678518266883</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C347" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D347" s="0">
-        <v>26.150268306247732</v>
+        <v>98.160817821509951</v>
       </c>
       <c r="E347" s="0">
-        <v>-0.010310437267353966</v>
+        <v>4.074945674630964</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>0.20755680240737162</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B348" s="0">
-        <v>4.1764540524521623</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C348" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D348" s="0">
-        <v>18.890582882539203</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E348" s="0">
-        <v>-0.014198510239369936</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>0.18405344133522905</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B349" s="0">
-        <v>4.4491215815939285</v>
+        <v>-0.72216281535082372</v>
       </c>
       <c r="C349" s="0">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D349" s="0">
-        <v>26.085865009463102</v>
+        <v>1.2341039350466163</v>
       </c>
       <c r="E349" s="0">
-        <v>-0.010335892668241298</v>
+        <v>-0.20007414576591065</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>0.20559895982450715</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B350" s="0">
-        <v>4.2554742189334229</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C350" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D350" s="0">
-        <v>18.864008025993499</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E350" s="0">
-        <v>-0.014218512530094899</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>0.1752715502032185</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B351" s="0">
-        <v>4.4106537144344591</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C351" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D351" s="0">
-        <v>17.714193753351815</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E351" s="0">
-        <v>-0.015033550846622345</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>0.24023874629963049</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B352" s="0">
-        <v>3.813931023972795</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C352" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D352" s="0">
-        <v>25.499126830309486</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E352" s="0">
-        <v>-0.010573722884328642</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>0.25278626698539508</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B353" s="0">
-        <v>3.8333474724830796</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C353" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D353" s="0">
-        <v>15.994182108402603</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E353" s="0">
-        <v>-0.016806367731886866</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>0.40182656453682242</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B354" s="0">
-        <v>3.7241970401039919</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C354" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D354" s="0">
-        <v>21.713198209555618</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E354" s="0">
-        <v>-0.012299132561689168</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>0.25728923113255819</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B355" s="0">
-        <v>3.7670908899530886</v>
+        <v>-0.65049306487542047</v>
       </c>
       <c r="C355" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D355" s="0">
-        <v>25.026676163707887</v>
+        <v>1</v>
       </c>
       <c r="E355" s="0">
-        <v>-0.010773332388702456</v>
+        <v>-1.8697047490341592</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>0.11703503869800547</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B356" s="0">
-        <v>4.8398515509106312</v>
+        <v>-0.72778067564214366</v>
       </c>
       <c r="C356" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D356" s="0">
-        <v>14.729039942581942</v>
+        <v>2.889808969420963</v>
       </c>
       <c r="E356" s="0">
-        <v>-0.022624498630270228</v>
+        <v>0.58377519290540791</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B357" s="0">
-        <v>4.5733872244058569</v>
+        <v>-0.64308190536178889</v>
       </c>
       <c r="C357" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D357" s="0">
-        <v>25.547762304189582</v>
+        <v>1</v>
       </c>
       <c r="E357" s="0">
-        <v>-0.010553593605801896</v>
+        <v>-2.1197047490341592</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.43240715444474087</v>
       </c>
       <c r="B358" s="0">
-        <v>4.5733872244058569</v>
+        <v>0.11577538467829786</v>
       </c>
       <c r="C358" s="0">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D358" s="0">
-        <v>25.547762304189582</v>
+        <v>6.4437093967056391</v>
       </c>
       <c r="E358" s="0">
-        <v>-0.010553593605801896</v>
+        <v>0.26180553540263357</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B359" s="0">
-        <v>3.7993210418938146</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C359" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D359" s="0">
-        <v>15.895689615785107</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E359" s="0">
-        <v>-0.016910502946512349</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>0.26517141671527888</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B360" s="0">
-        <v>3.7625981030119995</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C360" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D360" s="0">
-        <v>24.859264429038358</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E360" s="0">
-        <v>-0.010845884103517368</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>0.26666876646866067</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B361" s="0">
-        <v>3.7870190280640674</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C361" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D361" s="0">
-        <v>15.859938680663976</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E361" s="0">
-        <v>-0.016948622027921124</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>0.17478531610174486</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B362" s="0">
-        <v>4.4904905335236469</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C362" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D362" s="0">
-        <v>17.55310803761887</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E362" s="0">
-        <v>-0.015171514464971057</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>0.17443915826430345</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B363" s="0">
-        <v>4.492180146330206</v>
+        <v>1.164045330936581</v>
       </c>
       <c r="C363" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D363" s="0">
-        <v>17.547065552763321</v>
+        <v>1.9396763987281527</v>
       </c>
       <c r="E363" s="0">
-        <v>-0.015176738908118811</v>
+        <v>-0.44837620832239095</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>0.17443915826430345</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B364" s="0">
-        <v>4.492180146330206</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C364" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D364" s="0">
-        <v>17.547065552763321</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E364" s="0">
-        <v>-0.015176738908118811</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>0.2734167752729032</v>
+        <v>0.42668842459098533</v>
       </c>
       <c r="B365" s="0">
-        <v>3.752748280239286</v>
+        <v>0.077295679521619032</v>
       </c>
       <c r="C365" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D365" s="0">
-        <v>18.79085294726961</v>
+        <v>109.36983000815383</v>
       </c>
       <c r="E365" s="0">
-        <v>-0.013963183626714277</v>
+        <v>3.6573157329601673</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>0.18352193906166792</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B366" s="0">
-        <v>4.4252803953338242</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C366" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D366" s="0">
-        <v>21.796752955178242</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E366" s="0">
-        <v>-0.012088826917029279</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>0.41621402394691442</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B367" s="0">
-        <v>3.441850019550265</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C367" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D367" s="0">
-        <v>17.443226795129643</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E367" s="0">
-        <v>-0.015537870230858664</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>0.18176747448582331</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B368" s="0">
-        <v>4.4569166190045113</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C368" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D368" s="0">
-        <v>21.727037154398232</v>
+        <v>85.38374203432214</v>
       </c>
       <c r="E368" s="0">
-        <v>-0.012127616478763932</v>
+        <v>4.6847326021294542</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>0.27907212774873491</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B369" s="0">
-        <v>3.7057246215166488</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C369" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D369" s="0">
-        <v>18.526441923743047</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E369" s="0">
-        <v>-0.014162467422794799</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>0.1752715502032185</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B370" s="0">
-        <v>4.6456944992105731</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C370" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D370" s="0">
-        <v>17.470019063460388</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E370" s="0">
-        <v>-0.015018880589208673</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>0.28866279595132138</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B371" s="0">
-        <v>3.7420468354614997</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C371" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D371" s="0">
-        <v>20.629571358281829</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E371" s="0">
-        <v>-0.013213241195563547</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>0.11703503869800547</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B372" s="0">
-        <v>4.8227925684335329</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C372" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D372" s="0">
-        <v>10.034839237097229</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E372" s="0">
-        <v>-0.052132047257934966</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B373" s="0">
-        <v>3.866193132532493</v>
+        <v>-0.70760495128091683</v>
       </c>
       <c r="C373" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D373" s="0">
-        <v>21.438512886603462</v>
+        <v>1</v>
       </c>
       <c r="E373" s="0">
-        <v>-0.012290832634806998</v>
+        <v>-0.61970474903415917</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>0.42890279321298708</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B374" s="0">
-        <v>3.5657825685818749</v>
+        <v>-0.00468924343368631</v>
       </c>
       <c r="C374" s="0">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D374" s="0">
-        <v>15.999278932305849</v>
+        <v>1.2523245315021949</v>
       </c>
       <c r="E374" s="0">
-        <v>-0.016469315582487969</v>
+        <v>-0.35939098408144682</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>0.17831944395141652</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B375" s="0">
-        <v>4.5276224271284686</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C375" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D375" s="0">
-        <v>21.523971026893062</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E375" s="0">
-        <v>-0.012242033475104127</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>0.07733288261089577</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B376" s="0">
-        <v>3.5466209044390689</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C376" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D376" s="0">
-        <v>8.1698664983865914</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E376" s="0">
-        <v>-0.039722283859703569</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>0.22370870228709971</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B377" s="0">
-        <v>4.1393830358858157</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C377" s="0">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D377" s="0">
-        <v>26.867619403442855</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E377" s="0">
-        <v>-0.010035154095620854</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>0.25532686489417378</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B378" s="0">
-        <v>3.7303070466582056</v>
+        <v>-0.40590807497056203</v>
       </c>
       <c r="C378" s="0">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D378" s="0">
-        <v>20.95721046054733</v>
+        <v>5.1042329564408391</v>
       </c>
       <c r="E378" s="0">
-        <v>-0.012573103387229837</v>
+        <v>0.33050975591831883</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>0.25532686489417378</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B379" s="0">
-        <v>3.7303070466582056</v>
+        <v>-0.68155610815614187</v>
       </c>
       <c r="C379" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D379" s="0">
-        <v>20.95721046054733</v>
+        <v>1</v>
       </c>
       <c r="E379" s="0">
-        <v>-0.012573103387229837</v>
+        <v>-1.1197047490341592</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.64498049576899352</v>
       </c>
       <c r="B380" s="0">
-        <v>4.1456955727185285</v>
+        <v>-0.39747486532714427</v>
       </c>
       <c r="C380" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D380" s="0">
-        <v>17.651857437878512</v>
+        <v>162.83412462828801</v>
       </c>
       <c r="E380" s="0">
-        <v>-0.01485957687369662</v>
+        <v>2.4564875508319024</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>0.23223683667209705</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B381" s="0">
-        <v>4.1456955727185285</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C381" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D381" s="0">
-        <v>17.651857437878512</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E381" s="0">
-        <v>-0.01485957687369662</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>0.23310629698509999</v>
+        <v>0.05345672119566991</v>
       </c>
       <c r="B382" s="0">
-        <v>4.1338420186298697</v>
+        <v>0.77804850499597078</v>
       </c>
       <c r="C382" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D382" s="0">
-        <v>17.661982382480183</v>
+        <v>89.454130291337762</v>
       </c>
       <c r="E382" s="0">
-        <v>-0.014851058441881192</v>
+        <v>4.4715654682155437</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>0.20559895982450715</v>
+        <v>0.2560518851347996</v>
       </c>
       <c r="B383" s="0">
-        <v>4.1455587607455495</v>
+        <v>0.29543538214445958</v>
       </c>
       <c r="C383" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D383" s="0">
-        <v>17.942392314124653</v>
+        <v>97.454670065712349</v>
       </c>
       <c r="E383" s="0">
-        <v>-0.014842348101389546</v>
+        <v>4.1044723637182852</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>0.21744346373527568</v>
+        <v>0.23646178677164786</v>
       </c>
       <c r="B384" s="0">
-        <v>4.2950747256566606</v>
+        <v>0.35190368417233137</v>
       </c>
       <c r="C384" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D384" s="0">
-        <v>28.349193166432176</v>
+        <v>98.461259195574158</v>
       </c>
       <c r="E384" s="0">
-        <v>-0.0094201447480265574</v>
+        <v>4.0625115224809152</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>0.28866279595132138</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B385" s="0">
-        <v>3.6653167275769052</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C385" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D385" s="0">
-        <v>18.187794840386303</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E385" s="0">
-        <v>-0.014426165046830813</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>0.29971806414284385</v>
+        <v>0.24293301398344347</v>
       </c>
       <c r="B386" s="0">
-        <v>3.7141517571208458</v>
+        <v>0.32349074736559247</v>
       </c>
       <c r="C386" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D386" s="0">
-        <v>14.607318199390049</v>
+        <v>98.160817821509951</v>
       </c>
       <c r="E386" s="0">
-        <v>-0.018809294521405822</v>
+        <v>4.074945674630964</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>0.42734113069265323</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B387" s="0">
-        <v>3.4220281960295829</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C387" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D387" s="0">
-        <v>17.039397675788816</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E387" s="0">
-        <v>-0.015906113555602199</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>0.23310629698509999</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B388" s="0">
-        <v>3.7335853070855149</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C388" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D388" s="0">
-        <v>26.72461482104007</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E388" s="0">
-        <v>-0.010146343360130485</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>0.23310629698509999</v>
+        <v>0.45215460622167047</v>
       </c>
       <c r="B389" s="0">
-        <v>3.7335853070855149</v>
+        <v>-0.076412290977076441</v>
       </c>
       <c r="C389" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D389" s="0">
-        <v>26.72461482104007</v>
+        <v>118.38544406695925</v>
       </c>
       <c r="E389" s="0">
-        <v>-0.010146343360130485</v>
+        <v>3.3787937626331703</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>0.1752715502032185</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B390" s="0">
-        <v>4.5671937622956138</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C390" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D390" s="0">
-        <v>18.00911386918348</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E390" s="0">
-        <v>-0.014893466521102081</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>0.21220058026172806</v>
+        <v>0.19057449054860942</v>
       </c>
       <c r="B391" s="0">
-        <v>4.3338466386770218</v>
+        <v>0.67435439398025554</v>
       </c>
       <c r="C391" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D391" s="0">
-        <v>28.347158312454773</v>
+        <v>93.008381839004045</v>
       </c>
       <c r="E391" s="0">
-        <v>-0.0094208209575709825</v>
+        <v>4.3006876594455035</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>0.20006529623039482</v>
+        <v>0.0070049153264497566</v>
       </c>
       <c r="B392" s="0">
-        <v>4.1479510319416786</v>
+        <v>0.9822768262070265</v>
       </c>
       <c r="C392" s="0">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D392" s="0">
-        <v>17.94363517766061</v>
+        <v>85.38374203432214</v>
       </c>
       <c r="E392" s="0">
-        <v>-0.014841320048095965</v>
+        <v>4.6847326021294542</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>0.29055590937044007</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B393" s="0">
-        <v>3.6558304756372917</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C393" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D393" s="0">
-        <v>18.105880898779269</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E393" s="0">
-        <v>-0.014491431357145448</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>0.17102488623065604</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B394" s="0">
-        <v>5.0334984676442742</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C394" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D394" s="0">
-        <v>15.45947073554262</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E394" s="0">
-        <v>-0.016972128910084663</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>0.64627026284678479</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B395" s="0">
-        <v>2.0948018608923178</v>
+        <v>-0.73426719968146625</v>
       </c>
       <c r="C395" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D395" s="0">
-        <v>6.1309270331332666</v>
+        <v>206.50503364151004</v>
       </c>
       <c r="E395" s="0">
-        <v>-0.048984788514277365</v>
+        <v>1.9369987885835007</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>0.23926335293186041</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B396" s="0">
-        <v>4.0528141356026595</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C396" s="0">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D396" s="0">
-        <v>17.67218569223644</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E396" s="0">
-        <v>-0.014842483953579082</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.0014274597374952513</v>
       </c>
       <c r="B397" s="0">
-        <v>4.451922333524152</v>
+        <v>1.0312442102827206</v>
       </c>
       <c r="C397" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D397" s="0">
-        <v>28.276378357326109</v>
+        <v>84.186916238651975</v>
       </c>
       <c r="E397" s="0">
-        <v>-0.0094444026651088336</v>
+        <v>4.7513321294022131</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>0.21160120624387047</v>
+        <v>0.44080257916326504</v>
       </c>
       <c r="B398" s="0">
-        <v>4.451922333524152</v>
+        <v>-0.039033490089340359</v>
       </c>
       <c r="C398" s="0">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D398" s="0">
-        <v>28.276378357326109</v>
+        <v>115.36159600831191</v>
       </c>
       <c r="E398" s="0">
-        <v>-0.0094444026651088336</v>
+        <v>3.4673584090426388</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>0.1976900249093807</v>
+        <v>0.85062370306922608</v>
       </c>
       <c r="B399" s="0">
-        <v>4.2851521485680095</v>
+        <v>-0.63688095674679845</v>
       </c>
       <c r="C399" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D399" s="0">
-        <v>17.906373942801114</v>
+        <v>1</v>
       </c>
       <c r="E399" s="0">
-        <v>-0.01487220323604365</v>
+        <v>-2.3697047490341592</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>0.26946858800029161</v>
+        <v>0.65147136150375851</v>
       </c>
       <c r="B400" s="0">
-        <v>3.6126172192213439</v>
+        <v>-0.31826824059035297</v>
       </c>
       <c r="C400" s="0">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D400" s="0">
-        <v>20.216220461797509</v>
+        <v>3.8233958699159771</v>
       </c>
       <c r="E400" s="0">
-        <v>-0.013033948374589875</v>
+        <v>0.0030877094091993694</v>
       </c>
     </row>
     <row r="401">
